--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76805CB4-919F-4628-BB54-EA41821B8849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A54A43-6F71-4035-85F3-7DE5754DC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DD59016-1374-425A-9E0B-659B46275EE5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B7521E3-9103-43C8-8357-07B26E95AA1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte_general29-06" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-06-29.</t>
+    <t>De 2024-01-01 al 2024-07-07.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,25 +61,31 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">547, 680, 682, 683, 689, 695, 697, 698, 700, 710, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,692,</t>
+    <t xml:space="preserve">547, 695, 697, 698, 748, 762, 776, 779, 780, </t>
+  </si>
+  <si>
+    <t>764,770,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,700,710,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 342, 531, 658, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,678,710,</t>
+    <t xml:space="preserve">278, 531, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">730, 734, </t>
+    <t xml:space="preserve">734, </t>
+  </si>
+  <si>
+    <t>730,</t>
   </si>
   <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,</t>
@@ -88,7 +94,10 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 707, 719, </t>
+    <t xml:space="preserve">553, 719, </t>
+  </si>
+  <si>
+    <t>707,</t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,710,</t>
@@ -97,52 +106,55 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">745, </t>
+  </si>
+  <si>
     <t>190,259,350,476,509,641,655,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 728, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,</t>
+    <t>755 , 781 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,</t>
+    <t xml:space="preserve">9, 752, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,756,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>737 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 34, 603, 644, 657, 659, 675, 685, 686, 699, 710, 722, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,613,614,617,627,630,638,639,641,642,669,690,</t>
+    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,690,737,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t xml:space="preserve">476, 713, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,499,531,578,621,710,</t>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>734 ,</t>
+    <t xml:space="preserve">744, </t>
+  </si>
+  <si>
+    <t>734,755,</t>
   </si>
   <si>
     <t>64,80,85,169,190,350,437,476,615,710,</t>
@@ -151,22 +163,22 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 703 , 710 , 737 ,</t>
+    <t>675 , 703 , 710 , 761 , 773 , 774 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, </t>
   </si>
   <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,</t>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,737,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t>726 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626, 631, 703, 705, </t>
+    <t>771 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626, 631, 703, 705, 726, 741, 742, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,710,</t>
@@ -175,7 +187,10 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">684, </t>
+    <t xml:space="preserve">739, </t>
+  </si>
+  <si>
+    <t>684,</t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,687,704,710,</t>
@@ -184,7 +199,7 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">711, </t>
+    <t xml:space="preserve">711, 752, </t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,721,</t>
@@ -202,16 +217,19 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
+    <t>780 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">748, </t>
+  </si>
+  <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t>736 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701, 712, 720, </t>
+    <t xml:space="preserve">701, 712, 720, 736, 758, </t>
   </si>
   <si>
     <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,</t>
@@ -229,7 +247,7 @@
     <t xml:space="preserve">553, </t>
   </si>
   <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -241,6 +259,9 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
+    <t>743,</t>
+  </si>
+  <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
+    <t xml:space="preserve">736, </t>
+  </si>
+  <si>
     <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,</t>
   </si>
   <si>
@@ -286,15 +310,15 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
+    <t>126,261,710,</t>
+  </si>
+  <si>
+    <t>PRIMER REGIDURIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">710, </t>
   </si>
   <si>
-    <t>126,261,</t>
-  </si>
-  <si>
-    <t>PRIMER REGIDURIA</t>
-  </si>
-  <si>
     <t>SEGUNDA REGIDURÍA</t>
   </si>
   <si>
@@ -322,16 +346,16 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,</t>
+    <t>699 , 750 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,753,769,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 710 ,</t>
+    <t>281 , 710 , 777 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 476, 556, </t>
@@ -343,7 +367,7 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 389 ,</t>
+    <t>92 , 389 , 780 ,</t>
   </si>
   <si>
     <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, </t>
@@ -361,13 +385,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>731 , 732 , 733 , 734 , 735 , 738 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">717, 725, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,723,724,727,</t>
+    <t>782 , 783 , 784 , 785 , 786 , 787 , 788 ,</t>
+  </si>
+  <si>
+    <t>772,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,775,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -539,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +788,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1011,6 +1041,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1343E4-28C1-42D2-8375-11D75827E9EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EF409-9DB5-4363-B14B-20383AA61D58}">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1421,54 +1454,54 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -1487,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1499,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1530,7 +1563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="159.5">
+    <row r="6" spans="1:10" ht="174">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1542,48 +1575,50 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="9">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="101.5">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5">
@@ -1591,27 +1626,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="9">
         <v>34</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72.5">
@@ -1619,27 +1656,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="9">
         <v>52</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1647,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1655,10 +1694,12 @@
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
@@ -1667,7 +1708,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1675,27 +1716,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1703,27 +1746,27 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1731,29 +1774,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1761,27 +1802,25 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1789,27 +1828,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="9">
         <v>10</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.5">
@@ -1817,29 +1858,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10">
         <v>9</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1847,19 +1888,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E17" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1869,7 +1910,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29">
@@ -1877,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1886,18 +1927,20 @@
       <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
+      <c r="F18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="I18" s="9">
         <v>24</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1905,17 +1948,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1925,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1933,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1942,8 +1985,8 @@
       <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>57</v>
+      <c r="F20" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1953,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="72.5">
@@ -1961,16 +2004,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
@@ -1979,7 +2026,7 @@
         <v>61</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -1987,19 +2034,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>62</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -2009,7 +2054,7 @@
         <v>31</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2017,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2035,7 +2080,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2043,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2052,18 +2097,18 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>68</v>
+      <c r="F24" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2071,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2091,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2099,27 +2144,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="I26" s="9">
         <v>13</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2127,7 +2174,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2145,7 +2192,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2153,13 +2200,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2173,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2181,7 +2228,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2199,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2207,18 +2254,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
@@ -2227,7 +2274,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2235,7 +2282,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2245,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2255,7 +2302,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2263,7 +2310,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2283,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2291,27 +2338,25 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2319,7 +2364,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2328,8 +2373,8 @@
       <c r="E34" s="10">
         <v>1</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>88</v>
+      <c r="F34" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2345,7 +2390,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2371,7 +2416,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2397,7 +2442,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2423,7 +2468,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -2449,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2475,7 +2520,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2501,7 +2546,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -2527,7 +2572,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2553,13 +2598,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2570,10 +2615,10 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2581,19 +2626,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E44" s="10">
         <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -2603,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2611,19 +2656,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E45" s="10">
         <v>9</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2633,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2641,17 +2686,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -2661,37 +2706,37 @@
         <v>11</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="246.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="275.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C47" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="10">
-        <v>2</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="I47" s="9">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2709,22 +2754,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C49" s="6">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1033</v>
+        <v>1077</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2735,34 +2780,32 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D2A27F70-761D-4DEF-9B10-8D081D23D1E3}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{85AB4E72-4AE6-41DB-BFB5-30F94173F263}"/>
-    <hyperlink ref="F12" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{4A557A52-087F-460D-896D-0B4990D8F29A}"/>
-    <hyperlink ref="D13" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00737-2024-932_202406281909.pdf" xr:uid="{9A49BD39-EF50-4980-AFF4-22E0751ED764}"/>
-    <hyperlink ref="D15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{325CD422-619F-4B10-AB4F-8E81DEB412BA}"/>
-    <hyperlink ref="D17" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00726-2024-918_202406261910.pdf" xr:uid="{C93ACC77-C6A1-4E8D-A12D-1F3B78E2477A}"/>
-    <hyperlink ref="F18" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00684-2024-859_202406141918.pdf" xr:uid="{BB301B14-017A-4CC9-A3FB-D7E157467040}"/>
-    <hyperlink ref="F19" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{307E90EB-7221-47E3-B981-0D9C0EE1D3BB}"/>
-    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{98C8A303-AB0A-42E9-BDA5-49466F4A5F2A}"/>
-    <hyperlink ref="D22" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{4BBF0C3E-C4AA-4528-8BAA-90872D09601F}"/>
-    <hyperlink ref="F24" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{113EC49F-D74A-434A-AFA4-2FF2B82C7651}"/>
-    <hyperlink ref="D25" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8A5E44FA-F5EC-47E6-8C35-3B1A88092CCB}"/>
-    <hyperlink ref="D26" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{D9772956-1F5D-46FF-9331-5F3C449DE4AF}"/>
-    <hyperlink ref="D28" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00729-2024-916_202406281521.pdf" xr:uid="{D9C8F9DF-9F69-40AA-B638-882966FE8FD2}"/>
-    <hyperlink ref="D30" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{A981B060-7C6A-4425-9B2A-A09A9FD608BD}"/>
-    <hyperlink ref="D32" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A5EC7841-D277-4701-9658-4335A3F3EEC1}"/>
-    <hyperlink ref="F33" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{9FBAED7D-4236-4BCA-8234-AD6964B9F4BA}"/>
-    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3EE3DE09-EC3E-4433-9F97-7EA6C86D516C}"/>
-    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{ADF62B2E-E292-4687-834B-7476F08F1A83}"/>
-    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1EFAB5A2-5768-4C9D-A330-C1A613A33E29}"/>
-    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EE40470D-3A17-48E1-B7B9-FA748343047B}"/>
-    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D87390DE-C22D-4BB4-9D10-6B349B547C9B}"/>
-    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8BB2B7E0-FCB4-479F-82EF-5077496A0781}"/>
-    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AC8F615-206C-4A9F-9C79-20BC60E4B12A}"/>
-    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5445A427-AF14-412D-AA68-BCE576193B7A}"/>
-    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A457B9AF-E228-4D19-902D-7BE05271DB6A}"/>
-    <hyperlink ref="D43" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{244810AE-87F8-4FE4-8214-731CBDD18B3F}"/>
-    <hyperlink ref="F46" r:id="rId28" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00711-2024-discontralamujer_202406211913.pdf" xr:uid="{AD0AF8AE-F6D8-4B7E-840C-E0972681D969}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F4334668-512F-48AF-B2DE-757A5D2773CB}"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{41CBF490-5600-492F-8C68-DD9498660D07}"/>
+    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{431308F9-DB99-4C66-8950-311DB7BFD7C3}"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{E17D5CD1-B4AA-421F-AA29-DAFB8611C8C6}"/>
+    <hyperlink ref="F11" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00625-2024-feriaempleo_202405221940.pdf" xr:uid="{ED4374FA-485C-45C5-A131-D9ECB4842324}"/>
+    <hyperlink ref="F15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{8E4515C2-8887-4085-A416-398F3D75BFB4}"/>
+    <hyperlink ref="D17" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00771-2024-0399denuncia_202407041835.pdf" xr:uid="{E59F1B58-28C5-47DE-9FA5-6C455FFBCE68}"/>
+    <hyperlink ref="F18" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00739-2024-mejorareg_202407011344.pdf" xr:uid="{7AB315F8-F2A4-413D-AFDB-F1AB64ECCA70}"/>
+    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{C6D490AF-F5D4-4EA9-988F-2E49B9AAD8A2}"/>
+    <hyperlink ref="D21" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00780-2024-986_202407051934.pdf" xr:uid="{A1FBE4CE-F13A-45DE-A5DE-F159CE59614C}"/>
+    <hyperlink ref="F21" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00748-2024-944_202407021832.pdf" xr:uid="{97AEB0F7-B48E-4D26-B185-4FF3CB5B929E}"/>
+    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{31802CD5-1561-4BB2-80B6-F17DDE020F62}"/>
+    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{99C70DDA-3E37-471A-B588-FC46ED98BF37}"/>
+    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{54E2CF1C-C8F0-472E-83B7-8B3DF5117D1E}"/>
+    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00729-2024-916_202406281521.pdf" xr:uid="{BF2F2F44-7267-4210-8845-86F8A8A63757}"/>
+    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{DD29EF50-85DC-4D7B-BA75-EDB182A17EDC}"/>
+    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{850B73B6-FDF6-4929-A880-33A0A876A0BB}"/>
+    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{AADEA681-A54C-4909-AC6A-B8D0AB79583B}"/>
+    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{761170D1-EAE5-4AE1-B58D-F895BB60132C}"/>
+    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{585F55D4-5754-4070-B8F0-0D96BA6F3B6D}"/>
+    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A24E128D-D554-4D2B-A785-C4F740571F26}"/>
+    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CB080163-E63E-4AE4-84F4-B8534B0A3A29}"/>
+    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8170F001-1E56-4EED-B0C3-A77503B7D314}"/>
+    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D336D952-B5D9-4EC2-8024-7676ADFDBAC6}"/>
+    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D6B1C870-F6FB-45BE-811B-3EE440DFB725}"/>
+    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6A7D1BA3-A88E-45F8-827A-945A77D0660B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A54A43-6F71-4035-85F3-7DE5754DC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7BFE20F5-1CF4-4F89-B44E-C70F2BFED1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3B7521E3-9103-43C8-8357-07B26E95AA1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{643F8FBC-EE67-49A1-BB6C-9BEE211C02D4}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-07-07.</t>
+    <t>De 2024-01-01 al 2024-07-14.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,208 +61,181 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">547, 695, 697, 698, 748, 762, 776, 779, 780, </t>
-  </si>
-  <si>
-    <t>764,770,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,700,710,</t>
+    <t xml:space="preserve">547, 695, 697, 698, 748, 762, 776, 780, 818, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,700,710,764,770,779,793,794,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 531, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,</t>
+    <t xml:space="preserve">278, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,</t>
+  </si>
+  <si>
+    <t>CONSEJERÍA JURÍDICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, 707, 719, 800, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBERNACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">745, </t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625, 781, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,790,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, 752, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,756,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, 792, 815, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,690,737,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CULTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744, </t>
+  </si>
+  <si>
+    <t>64,80,85,169,190,350,437,476,615,710,734,755,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>675 , 703 , 710 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, 761, 773, 774, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,737,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626, 631, 703, 726, 741, 742, 771, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,705,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">739, 812, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711, 752, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,721,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,710,</t>
+  </si>
+  <si>
+    <t>CONTRALORÍA MUNICIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">780, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL OPDAPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701, 712, 736, 758, 814, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,720,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL IMCUFIDEM</t>
+  </si>
+  <si>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL SMDIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, </t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>190,350,476,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">734, </t>
   </si>
   <si>
-    <t>730,</t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,</t>
-  </si>
-  <si>
-    <t>CONSEJERÍA JURÍDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 719, </t>
-  </si>
-  <si>
-    <t>707,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBERNACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745, </t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
-  </si>
-  <si>
-    <t>755 , 781 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9, 752, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,756,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,690,737,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CULTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">744, </t>
-  </si>
-  <si>
-    <t>734,755,</t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
-  </si>
-  <si>
-    <t>675 , 703 , 710 , 761 , 773 , 774 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,737,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
-  </si>
-  <si>
-    <t>771 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626, 631, 703, 705, 726, 741, 742, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">739, </t>
-  </si>
-  <si>
-    <t>684,</t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,687,704,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">711, 752, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,721,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">691, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,710,</t>
-  </si>
-  <si>
-    <t>CONTRALORÍA MUNICIPAL</t>
-  </si>
-  <si>
-    <t>780 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">748, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL OPDAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701, 712, 720, 736, 758, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL IMCUFIDEM</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL SMDIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, </t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
-  </si>
-  <si>
-    <t>190,350,476,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>743,</t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,</t>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -274,10 +247,7 @@
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
-    <t>729 ,</t>
-  </si>
-  <si>
-    <t>147,190,350,355,476,582,710,</t>
+    <t>147,190,350,355,476,582,710,729,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASESORES</t>
@@ -286,10 +256,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">736, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,</t>
+    <t xml:space="preserve">802, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -367,31 +337,31 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 389 , 780 ,</t>
+    <t>92 , 389 ,</t>
   </si>
   <si>
     <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, </t>
   </si>
   <si>
-    <t>25,154,190,244,296,350,476,499,691,698,</t>
+    <t>25,154,190,244,296,350,476,499,691,698,780,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,</t>
+    <t xml:space="preserve">752, </t>
+  </si>
+  <si>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>782 , 783 , 784 , 785 , 786 , 787 , 788 ,</t>
-  </si>
-  <si>
-    <t>772,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,775,</t>
+    <t>795,796,797,802,816,819,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,798,799,801,803,804,805,806,807,808,809,810,811,813,817,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1043,10 +1013,10 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,10 +1412,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EF409-9DB5-4363-B14B-20383AA61D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F627EA46-3514-46DC-A1F2-7C6D5138F59A}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1454,11 +1424,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1520,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1532,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1580,17 +1550,15 @@
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
-        <v>2</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="9">
+        <v>146</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="9">
-        <v>141</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="101.5">
@@ -1598,27 +1566,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5">
@@ -1626,29 +1594,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9">
+        <v>36</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="9">
-        <v>34</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72.5">
@@ -1656,29 +1620,27 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="9">
         <v>52</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1686,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1697,8 +1659,8 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>28</v>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1708,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1716,29 +1678,27 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
+      <c r="F11" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1746,7 +1706,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1756,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1766,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1774,17 +1734,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -1794,7 +1754,7 @@
         <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1802,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1820,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1828,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -1837,20 +1797,18 @@
       <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>44</v>
-      </c>
+      <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.5">
@@ -1858,19 +1816,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1880,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1888,29 +1846,27 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="10">
         <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29">
@@ -1918,29 +1874,27 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1948,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1958,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1968,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1976,7 +1930,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1985,8 +1939,8 @@
       <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>62</v>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1996,37 +1950,35 @@
         <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>66</v>
+      <c r="F21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -2034,7 +1986,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2044,17 +1996,17 @@
         <v>5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2062,7 +2014,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2080,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2088,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2097,18 +2049,18 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>74</v>
+      <c r="F24" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2116,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2136,15 +2088,15 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="29">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2153,20 +2105,18 @@
       <c r="E26" s="10">
         <v>1</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="F26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2174,7 +2124,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2192,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2200,14 +2150,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
@@ -2217,10 +2165,10 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2228,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2246,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2254,7 +2202,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2263,18 +2211,18 @@
       <c r="E30" s="10">
         <v>1</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>88</v>
+      <c r="F30" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2282,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2292,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2302,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2310,7 +2258,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2330,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2338,7 +2286,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2356,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2364,7 +2312,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2373,8 +2321,8 @@
       <c r="E34" s="10">
         <v>1</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>98</v>
+      <c r="F34" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2390,7 +2338,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2416,7 +2364,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2442,7 +2390,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2468,7 +2416,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -2494,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2520,7 +2468,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2546,7 +2494,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -2572,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2598,13 +2546,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C43" s="7">
         <v>2</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2618,7 +2566,7 @@
         <v>36</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2626,19 +2574,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E44" s="10">
         <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -2648,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2656,29 +2604,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E45" s="10">
         <v>9</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2686,57 +2634,55 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10">
-        <v>2</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="275.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="304.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="7">
-        <v>7</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="11">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>122</v>
+      <c r="G47" s="12">
+        <v>6</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="I47" s="9">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2754,22 +2700,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C49" s="6">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1077</v>
+        <v>1124</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2780,32 +2726,28 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F4334668-512F-48AF-B2DE-757A5D2773CB}"/>
-    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{41CBF490-5600-492F-8C68-DD9498660D07}"/>
-    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{431308F9-DB99-4C66-8950-311DB7BFD7C3}"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{E17D5CD1-B4AA-421F-AA29-DAFB8611C8C6}"/>
-    <hyperlink ref="F11" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00625-2024-feriaempleo_202405221940.pdf" xr:uid="{ED4374FA-485C-45C5-A131-D9ECB4842324}"/>
-    <hyperlink ref="F15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{8E4515C2-8887-4085-A416-398F3D75BFB4}"/>
-    <hyperlink ref="D17" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00771-2024-0399denuncia_202407041835.pdf" xr:uid="{E59F1B58-28C5-47DE-9FA5-6C455FFBCE68}"/>
-    <hyperlink ref="F18" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00739-2024-mejorareg_202407011344.pdf" xr:uid="{7AB315F8-F2A4-413D-AFDB-F1AB64ECCA70}"/>
-    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{C6D490AF-F5D4-4EA9-988F-2E49B9AAD8A2}"/>
-    <hyperlink ref="D21" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00780-2024-986_202407051934.pdf" xr:uid="{A1FBE4CE-F13A-45DE-A5DE-F159CE59614C}"/>
-    <hyperlink ref="F21" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00748-2024-944_202407021832.pdf" xr:uid="{97AEB0F7-B48E-4D26-B185-4FF3CB5B929E}"/>
-    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{31802CD5-1561-4BB2-80B6-F17DDE020F62}"/>
-    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{99C70DDA-3E37-471A-B588-FC46ED98BF37}"/>
-    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{54E2CF1C-C8F0-472E-83B7-8B3DF5117D1E}"/>
-    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00729-2024-916_202406281521.pdf" xr:uid="{BF2F2F44-7267-4210-8845-86F8A8A63757}"/>
-    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00736-2024-931_202406281908.pdf" xr:uid="{DD29EF50-85DC-4D7B-BA75-EDB182A17EDC}"/>
-    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{850B73B6-FDF6-4929-A880-33A0A876A0BB}"/>
-    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{AADEA681-A54C-4909-AC6A-B8D0AB79583B}"/>
-    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{761170D1-EAE5-4AE1-B58D-F895BB60132C}"/>
-    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{585F55D4-5754-4070-B8F0-0D96BA6F3B6D}"/>
-    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A24E128D-D554-4D2B-A785-C4F740571F26}"/>
-    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CB080163-E63E-4AE4-84F4-B8534B0A3A29}"/>
-    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8170F001-1E56-4EED-B0C3-A77503B7D314}"/>
-    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D336D952-B5D9-4EC2-8024-7676ADFDBAC6}"/>
-    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D6B1C870-F6FB-45BE-811B-3EE440DFB725}"/>
-    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6A7D1BA3-A88E-45F8-827A-945A77D0660B}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1C88673A-EC75-42A4-B084-22309181DD14}"/>
+    <hyperlink ref="F7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00278-2024-cursocapregadmin_202402261155.pdf" xr:uid="{DEEA0588-1B1E-4F7E-BBAD-CCDA1394C330}"/>
+    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EA563816-408E-457C-9548-5F2B28F6FB24}"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{DF2AAFFD-6997-4864-B917-38B5BC0D2832}"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{126B80A4-3BD9-4AA1-9DA5-8BE2767F333B}"/>
+    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{1D226D5E-6E93-47E2-854F-45A3A7D2DAE7}"/>
+    <hyperlink ref="F21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00780-2024-986_202407051934.pdf" xr:uid="{C6F08F03-C575-42D7-B4E4-566922BE1FC1}"/>
+    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{7095E0FF-1BDE-4A2B-845E-7388111A0BAB}"/>
+    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D48CC274-B98F-4CE9-A003-55C3FBC48446}"/>
+    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{A6F527D8-5A01-4F0C-A9D0-7829FC72A64E}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00802-2024-1015_202407091925.pdf" xr:uid="{0051E69B-3213-4BAB-9F86-DF6FDB52483F}"/>
+    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CF76CD47-B6E6-4DDD-9D87-02E1E26F3F96}"/>
+    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{16875266-98DA-4265-B44D-21FC320E1010}"/>
+    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FBA77804-B5B0-47F1-8581-20EB93F2E00F}"/>
+    <hyperlink ref="D36" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6E0DBAFB-1B64-431F-AFA5-BCC5C6469648}"/>
+    <hyperlink ref="D37" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{22FC546A-FCD6-48D7-B3E4-183356D20104}"/>
+    <hyperlink ref="D38" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{860DA2DB-EC95-4FE1-8744-0920C572B0E0}"/>
+    <hyperlink ref="D39" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1B7E74E6-D916-4F09-9138-54836F3E6342}"/>
+    <hyperlink ref="D40" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C39B98AE-5BA1-412B-AA0F-B5F65CAB4978}"/>
+    <hyperlink ref="D41" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B6448562-48AB-45E6-8C9A-9EF71FA28A66}"/>
+    <hyperlink ref="D42" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B62C2726-62F2-4D3C-A93B-16807D386A90}"/>
+    <hyperlink ref="F46" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{1CCF6C52-3CC7-45FE-B07F-2C0C59056BE1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7BFE20F5-1CF4-4F89-B44E-C70F2BFED1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F537844A-8FF4-4176-95A8-28D2BA297918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{643F8FBC-EE67-49A1-BB6C-9BEE211C02D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64E8B9CC-B835-4F7F-904B-3F81C821938A}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-07-14.</t>
+    <t>De 2024-01-01 al 2024-07-21.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,16 +61,16 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">547, 695, 697, 698, 748, 762, 776, 780, 818, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,700,710,764,770,779,793,794,</t>
+    <t xml:space="preserve">547, 695, 762, 820, 835, 851, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,823,839,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, </t>
+    <t xml:space="preserve">278, 835, </t>
   </si>
   <si>
     <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,</t>
@@ -85,10 +85,13 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 707, 719, 800, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,710,</t>
+    <t>835 , 846 , 847 , 848 , 849 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -103,10 +106,10 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 781, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,790,</t>
+    <t xml:space="preserve">625, 835, 836, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -121,7 +124,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, 792, 815, </t>
+    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 750, 753, 769, 792, 829, 837, 840, </t>
+  </si>
+  <si>
+    <t>722,815,</t>
   </si>
   <si>
     <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,690,737,</t>
@@ -130,12 +136,18 @@
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
+    <t>835 ,</t>
+  </si>
+  <si>
     <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
+    <t>845 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">744, </t>
   </si>
   <si>
@@ -145,13 +157,13 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 703 , 710 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 476, 570, 580, 649, 650, 673, 761, 773, 774, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,485,505,526,527,528,584,607,618,737,</t>
+    <t>675 , 710 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
@@ -166,7 +178,7 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">739, 812, </t>
+    <t xml:space="preserve">739, 812, 821, 836, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,</t>
@@ -175,10 +187,10 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">711, 752, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,721,</t>
+    <t xml:space="preserve">752, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
@@ -193,16 +205,16 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">780, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,</t>
+    <t xml:space="preserve">828, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">701, 712, 736, 758, 814, </t>
+    <t xml:space="preserve">701, 712, 736, 758, 814, 824, </t>
   </si>
   <si>
     <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,720,</t>
@@ -217,9 +229,6 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t xml:space="preserve">553, </t>
-  </si>
-  <si>
     <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,</t>
   </si>
   <si>
@@ -247,6 +256,9 @@
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
+    <t>836 ,</t>
+  </si>
+  <si>
     <t>147,190,350,355,476,582,710,729,</t>
   </si>
   <si>
@@ -256,16 +268,16 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">802, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,</t>
+    <t xml:space="preserve">835, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, </t>
+    <t xml:space="preserve">210, 529, 836, </t>
   </si>
   <si>
     <t>136,190,350,355,471,476,677,710,718,</t>
@@ -316,7 +328,7 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 750 ,</t>
+    <t>699 , 750 , 829 ,</t>
   </si>
   <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,753,769,</t>
@@ -325,31 +337,31 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 710 , 777 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151, 289, 476, 556, </t>
-  </si>
-  <si>
-    <t>120,155,173,179,190,214,350,397,504,</t>
+    <t>281 , 710 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, 289, 556, </t>
+  </si>
+  <si>
+    <t>120,155,173,179,190,214,350,397,476,504,777,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 389 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,476,499,691,698,780,</t>
+    <t>92 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">752, </t>
+    <t xml:space="preserve">752, 837, </t>
   </si>
   <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,</t>
@@ -358,10 +370,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>795,796,797,802,816,819,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,798,799,801,803,804,805,806,807,808,809,810,811,813,817,</t>
+    <t>854 , 855 , 856 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">822, 826, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,825,827,830,831,832,833,835,837,838,840,844,850,853,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1412,10 +1427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F627EA46-3514-46DC-A1F2-7C6D5138F59A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F335F-6E59-4BA7-B1A5-0D482059C4F1}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1424,11 +1439,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1490,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1502,7 +1517,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1533,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="174">
+    <row r="6" spans="1:10" ht="188.5">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1545,7 +1560,7 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -1555,7 +1570,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1573,9 +1588,9 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="6">
@@ -1622,25 +1637,27 @@
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1648,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1660,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1670,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1678,27 +1695,27 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1706,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1716,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1726,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1734,27 +1751,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="9">
         <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1762,12 +1781,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
@@ -1780,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1788,17 +1809,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1808,37 +1831,37 @@
         <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1846,17 +1869,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" s="10">
         <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -1866,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="29">
@@ -1874,17 +1899,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1894,7 +1919,7 @@
         <v>25</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1902,27 +1927,27 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1930,7 +1955,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1940,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1950,7 +1975,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -1958,7 +1983,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -1968,17 +1993,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9">
+        <v>64</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -1986,17 +2011,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -2006,7 +2031,7 @@
         <v>32</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2014,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2032,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2040,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2050,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -2060,7 +2085,7 @@
         <v>31</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2068,7 +2093,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2088,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2096,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2106,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -2116,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2124,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2142,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2150,12 +2175,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
@@ -2168,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2176,7 +2203,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2194,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2202,7 +2229,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2212,17 +2239,17 @@
         <v>1</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2230,17 +2257,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2250,7 +2277,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2258,7 +2285,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2278,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2286,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2304,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2312,7 +2339,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2322,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2338,7 +2365,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2364,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2390,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2416,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -2442,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2468,7 +2495,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2494,7 +2521,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -2520,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2546,13 +2573,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2566,7 +2593,7 @@
         <v>36</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2574,59 +2601,59 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="10">
         <v>3</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="10">
-        <v>4</v>
-      </c>
       <c r="F44" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="29">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E45" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2634,17 +2661,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -2654,35 +2681,37 @@
         <v>12</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="304.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="319">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="12">
-        <v>6</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>112</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="10">
+        <v>2</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="9">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2700,22 +2729,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C49" s="6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1124</v>
+        <v>1166</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2726,28 +2755,33 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1C88673A-EC75-42A4-B084-22309181DD14}"/>
-    <hyperlink ref="F7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00278-2024-cursocapregadmin_202402261155.pdf" xr:uid="{DEEA0588-1B1E-4F7E-BBAD-CCDA1394C330}"/>
-    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EA563816-408E-457C-9548-5F2B28F6FB24}"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{DF2AAFFD-6997-4864-B917-38B5BC0D2832}"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{126B80A4-3BD9-4AA1-9DA5-8BE2767F333B}"/>
-    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{1D226D5E-6E93-47E2-854F-45A3A7D2DAE7}"/>
-    <hyperlink ref="F21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00780-2024-986_202407051934.pdf" xr:uid="{C6F08F03-C575-42D7-B4E4-566922BE1FC1}"/>
-    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{7095E0FF-1BDE-4A2B-845E-7388111A0BAB}"/>
-    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D48CC274-B98F-4CE9-A003-55C3FBC48446}"/>
-    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{A6F527D8-5A01-4F0C-A9D0-7829FC72A64E}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00802-2024-1015_202407091925.pdf" xr:uid="{0051E69B-3213-4BAB-9F86-DF6FDB52483F}"/>
-    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CF76CD47-B6E6-4DDD-9D87-02E1E26F3F96}"/>
-    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{16875266-98DA-4265-B44D-21FC320E1010}"/>
-    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FBA77804-B5B0-47F1-8581-20EB93F2E00F}"/>
-    <hyperlink ref="D36" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6E0DBAFB-1B64-431F-AFA5-BCC5C6469648}"/>
-    <hyperlink ref="D37" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{22FC546A-FCD6-48D7-B3E4-183356D20104}"/>
-    <hyperlink ref="D38" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{860DA2DB-EC95-4FE1-8744-0920C572B0E0}"/>
-    <hyperlink ref="D39" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1B7E74E6-D916-4F09-9138-54836F3E6342}"/>
-    <hyperlink ref="D40" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C39B98AE-5BA1-412B-AA0F-B5F65CAB4978}"/>
-    <hyperlink ref="D41" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B6448562-48AB-45E6-8C9A-9EF71FA28A66}"/>
-    <hyperlink ref="D42" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B62C2726-62F2-4D3C-A93B-16807D386A90}"/>
-    <hyperlink ref="F46" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{1CCF6C52-3CC7-45FE-B07F-2C0C59056BE1}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DE4CEE75-685F-48FA-AE3F-D511296682ED}"/>
+    <hyperlink ref="F9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{4377D7E1-0A58-41E0-A9DE-2332FA1A2E8D}"/>
+    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2C6F6155-AF64-4E6C-9647-5C989B6C2559}"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{AE736500-BB4B-4968-8692-1F114423B593}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{CD1CBE38-1B5E-49AA-B9D9-B585BE2B5F22}"/>
+    <hyperlink ref="D15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{A3AA9485-07C6-413E-89F3-5F4CD53E834D}"/>
+    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{F486BA8C-68AC-46DF-A831-9B2C7F330993}"/>
+    <hyperlink ref="D17" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{0732EE66-5941-4D86-B9D7-9DD736244692}"/>
+    <hyperlink ref="F19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{9F6118AA-AC71-4D51-A3D8-9828259E5A54}"/>
+    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{F915CDB0-AE98-46F3-A714-801726357F60}"/>
+    <hyperlink ref="F21" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00828-2024-0609_202407161816.pdf" xr:uid="{DF2EA94C-B2D0-4746-8131-579BEB415D05}"/>
+    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{4F9C49EE-BAE0-4450-A967-673CE74159C9}"/>
+    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{27302D68-D315-451A-8AA6-60B669473FA6}"/>
+    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{2908AC63-57D0-444E-A202-C8B194065C78}"/>
+    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{DB01A261-76A6-473E-8140-F04D0BBA42F3}"/>
+    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{1EC7D409-8332-4361-9062-3C9EE2BEFFE0}"/>
+    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C264BEC4-71B6-4850-9191-1C160B018CBA}"/>
+    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{98F79707-626C-4FB2-BEBB-364D88CEC21A}"/>
+    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DB7EB094-30D8-4986-978E-DBD06D0477C5}"/>
+    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C636917B-84BF-4111-8C9E-84E6CE9FD9CF}"/>
+    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7C92624B-8142-4015-9776-CFDE264B692C}"/>
+    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1AF1B240-77C7-40AD-8830-EC0C63F7131F}"/>
+    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{50FE9249-DDE9-44AD-A4AB-8986057C2C83}"/>
+    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A75092D6-9BC4-48B1-8798-839F01DDE9D7}"/>
+    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AF501B1-D452-4871-8EB9-1601647F0A42}"/>
+    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AF3AD01-70EE-4C1C-9551-282D0B5D43B2}"/>
+    <hyperlink ref="D45" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{7178CA83-61B1-4EDF-A367-CD12FE4C5102}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F537844A-8FF4-4176-95A8-28D2BA297918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB75B22F-14B7-4654-B568-21A4EAB4B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64E8B9CC-B835-4F7F-904B-3F81C821938A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BF2EC69-A8A8-4FE4-BA79-388ABDDCE980}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-07-21.</t>
+    <t>De 2024-01-01 al 2024-07-28.</t>
   </si>
   <si>
     <t>No.</t>
@@ -85,12 +85,15 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>835 , 846 , 847 , 848 , 849 ,</t>
+    <t>835 ,</t>
   </si>
   <si>
     <t xml:space="preserve">553, </t>
   </si>
   <si>
+    <t>846,847,848,849,</t>
+  </si>
+  <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t>835 ,</t>
-  </si>
-  <si>
     <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">828, </t>
+    <t>828,</t>
   </si>
   <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,</t>
@@ -370,10 +370,10 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>854 , 855 , 856 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">822, 826, </t>
+  </si>
+  <si>
+    <t>854,855,856,</t>
   </si>
   <si>
     <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,825,827,830,831,832,833,835,837,838,840,844,850,853,</t>
@@ -1427,10 +1427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1F335F-6E59-4BA7-B1A5-0D482059C4F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3BC60-D425-4DF5-ABEC-B3F3E8C29342}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1439,11 +1439,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1638,9 +1638,9 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="10">
@@ -1649,15 +1649,17 @@
       <c r="F9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" s="12">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="9">
         <v>55</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1665,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1677,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1687,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1695,7 +1697,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1705,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1715,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1723,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1733,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1743,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1751,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -1761,19 +1763,19 @@
         <v>16</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="12">
         <v>2</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9">
         <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1781,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1875,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10">
         <v>7</v>
@@ -1989,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6"/>
       <c r="I21" s="9">
         <v>64</v>
       </c>
@@ -2691,22 +2693,22 @@
       <c r="B47" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="7">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="10">
         <v>2</v>
       </c>
       <c r="F47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="12">
+        <v>3</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6"/>
       <c r="I47" s="9">
         <v>260</v>
       </c>
@@ -2732,15 +2734,15 @@
         <v>119</v>
       </c>
       <c r="C49" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
@@ -2755,33 +2757,33 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DE4CEE75-685F-48FA-AE3F-D511296682ED}"/>
-    <hyperlink ref="F9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{4377D7E1-0A58-41E0-A9DE-2332FA1A2E8D}"/>
-    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2C6F6155-AF64-4E6C-9647-5C989B6C2559}"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{AE736500-BB4B-4968-8692-1F114423B593}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{CD1CBE38-1B5E-49AA-B9D9-B585BE2B5F22}"/>
-    <hyperlink ref="D15" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{A3AA9485-07C6-413E-89F3-5F4CD53E834D}"/>
-    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{F486BA8C-68AC-46DF-A831-9B2C7F330993}"/>
-    <hyperlink ref="D17" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{0732EE66-5941-4D86-B9D7-9DD736244692}"/>
-    <hyperlink ref="F19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{9F6118AA-AC71-4D51-A3D8-9828259E5A54}"/>
-    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{F915CDB0-AE98-46F3-A714-801726357F60}"/>
-    <hyperlink ref="F21" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00828-2024-0609_202407161816.pdf" xr:uid="{DF2EA94C-B2D0-4746-8131-579BEB415D05}"/>
-    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{4F9C49EE-BAE0-4450-A967-673CE74159C9}"/>
-    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{27302D68-D315-451A-8AA6-60B669473FA6}"/>
-    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{2908AC63-57D0-444E-A202-C8B194065C78}"/>
-    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{DB01A261-76A6-473E-8140-F04D0BBA42F3}"/>
-    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{1EC7D409-8332-4361-9062-3C9EE2BEFFE0}"/>
-    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C264BEC4-71B6-4850-9191-1C160B018CBA}"/>
-    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{98F79707-626C-4FB2-BEBB-364D88CEC21A}"/>
-    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DB7EB094-30D8-4986-978E-DBD06D0477C5}"/>
-    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C636917B-84BF-4111-8C9E-84E6CE9FD9CF}"/>
-    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7C92624B-8142-4015-9776-CFDE264B692C}"/>
-    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1AF1B240-77C7-40AD-8830-EC0C63F7131F}"/>
-    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{50FE9249-DDE9-44AD-A4AB-8986057C2C83}"/>
-    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A75092D6-9BC4-48B1-8798-839F01DDE9D7}"/>
-    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AF501B1-D452-4871-8EB9-1601647F0A42}"/>
-    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0AF3AD01-70EE-4C1C-9551-282D0B5D43B2}"/>
-    <hyperlink ref="D45" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{7178CA83-61B1-4EDF-A367-CD12FE4C5102}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A789A3AC-430F-4C0C-96B2-9F7AECA7BBB6}"/>
+    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{2FF2E876-2A3F-4F62-B6F5-951B9ECF278B}"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{42526C63-7EF2-4E13-87D4-192FFE694A53}"/>
+    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5EC5CFA2-A265-4577-B027-A5864A853404}"/>
+    <hyperlink ref="F10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{066F2E46-0BD9-4CAE-9EFC-52110DEC166E}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{7179C5E5-D4BF-4B65-B79C-B78AAF9B03A9}"/>
+    <hyperlink ref="D15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{4AF66644-CCD7-4502-A66E-235DC8FD4835}"/>
+    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{44DDBC4A-D4FC-4717-AA9A-E84162DF4E1A}"/>
+    <hyperlink ref="D17" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{183C2E61-AAB9-46E5-BDCD-862F7DF99B07}"/>
+    <hyperlink ref="F19" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{7D1DCE70-7FD0-47A8-B998-8C2C9C35D00F}"/>
+    <hyperlink ref="F20" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{DAD6B7CE-2E97-4693-8769-C3B978A9E669}"/>
+    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{D908660F-589E-44EB-999E-BF70CDDDD29C}"/>
+    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6487188F-695C-4892-AE1F-34110518E814}"/>
+    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{EE987192-863F-472A-9489-C7C2DA20DE3B}"/>
+    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{AAEEA5AA-1559-46DD-BA44-87C93C264DE3}"/>
+    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{828B29CC-95AE-40E3-822D-33DA34DD4845}"/>
+    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5B6853F2-D1B4-43D6-9F01-6909C0E7E278}"/>
+    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5AD8AF88-3A5A-42AB-8D31-B3F712E8AF45}"/>
+    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{06116BA5-4F58-432E-BFEF-C2EFB437A399}"/>
+    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3387578F-4E2A-44D5-91FC-64810AB9ADEE}"/>
+    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4DD2D032-1E4E-4577-A338-05D4B10A6A8D}"/>
+    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8BDEADEB-959E-4933-9EFA-F483253639C3}"/>
+    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E9C322A7-2FF8-42C2-8ACE-6EEB4FC6042F}"/>
+    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E83C7924-32ED-4B11-9F63-060BBCE3BD5C}"/>
+    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0FB4DFA4-F731-4E9C-B593-B28129FB787E}"/>
+    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{24286C2F-C7F1-4FA2-85A8-CA5233EB7B76}"/>
+    <hyperlink ref="D45" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{1BAF0833-2B72-4537-8DB4-81435C4C47A7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB75B22F-14B7-4654-B568-21A4EAB4B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1B4777-E498-4A09-9792-E2A827F73B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BF2EC69-A8A8-4FE4-BA79-388ABDDCE980}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7D7AB664-218A-4587-B368-08C08428CB4C}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-07-28.</t>
+    <t>De 2024-01-01 al 2024-08-03.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,40 +61,37 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">547, 695, 762, 820, 835, 851, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,823,839,</t>
+    <t xml:space="preserve">695, 762, 835, 868, 871, 875, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,820,823,839,851,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,</t>
+    <t xml:space="preserve">278, 835, 862, 884, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,879,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,</t>
+    <t xml:space="preserve">879, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>835 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, </t>
-  </si>
-  <si>
-    <t>846,847,848,849,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,</t>
+    <t xml:space="preserve">553, 835, 879, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,846,847,848,849,858,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -109,7 +106,7 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 835, 836, </t>
+    <t xml:space="preserve">625, 835, 836, 886, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,</t>
@@ -118,7 +115,7 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 752, </t>
+    <t xml:space="preserve">9, 752, 870, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,756,</t>
@@ -127,19 +124,28 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 34, 644, 657, 659, 685, 686, 699, 710, 750, 753, 769, 792, 829, 837, 840, </t>
-  </si>
-  <si>
-    <t>722,815,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,690,737,</t>
+    <t>888 , 891 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 644, 657, 659, 685, 699, 750, 753, 769, 792, 815, 829, 837, 840, 860, 864, 877, 879, </t>
+  </si>
+  <si>
+    <t>861,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,686,690,710,722,737,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,</t>
+    <t>890 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">867, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -160,28 +166,28 @@
     <t>675 , 710 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,</t>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">626, 631, 703, 726, 741, 742, 771, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,705,710,</t>
+    <t xml:space="preserve">631, 771, 835, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">739, 812, 821, 836, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,</t>
+    <t xml:space="preserve">739, 821, 836, 892, 894, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,812,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -205,19 +211,16 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>828,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">701, 712, 736, 758, 814, 824, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,710,720,</t>
+    <t xml:space="preserve">712, 736, 758, 814, 824, 869, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,720,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -229,7 +232,10 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,</t>
+    <t xml:space="preserve">553, 876, </t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,883,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -241,10 +247,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">734, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,</t>
+    <t xml:space="preserve">734, 879, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -256,7 +262,7 @@
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
-    <t>836 ,</t>
+    <t xml:space="preserve">836, </t>
   </si>
   <si>
     <t>147,190,350,355,476,582,710,729,</t>
@@ -268,7 +274,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">835, </t>
+    <t>888 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835, 879, </t>
   </si>
   <si>
     <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,</t>
@@ -277,10 +286,10 @@
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, 836, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,677,710,718,</t>
+    <t xml:space="preserve">210, 529, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,718,836,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
@@ -313,6 +322,9 @@
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
+    <t>710,</t>
+  </si>
+  <si>
     <t>SEXTA REGIDURÍA</t>
   </si>
   <si>
@@ -328,7 +340,7 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 750 , 829 ,</t>
+    <t>699 , 750 , 829 , 860 , 869 , 877 , 891 ,</t>
   </si>
   <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,753,769,</t>
@@ -352,7 +364,7 @@
     <t>92 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 880, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,</t>
@@ -370,13 +382,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">822, 826, </t>
-  </si>
-  <si>
-    <t>854,855,856,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,825,827,830,831,832,833,835,837,838,840,844,850,853,</t>
+    <t>887 , 888 , 889 , 890 , 893 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">826, 872, 880, 881, 885, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,873,874,879,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1427,10 +1439,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B3BC60-D425-4DF5-ABEC-B3F3E8C29342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C9266-1C07-4DDD-8E93-B0DF9C42AD0F}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1439,11 +1451,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1505,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1517,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1570,7 +1582,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>14</v>
@@ -1588,7 +1600,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>16</v>
@@ -1598,7 +1610,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>17</v>
@@ -1615,51 +1627,49 @@
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="72.5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12">
-        <v>4</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9">
+        <v>60</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="I9" s="9">
-        <v>55</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1667,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1679,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -1689,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1697,17 +1707,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1717,7 +1727,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1725,17 +1735,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1745,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="101.5">
@@ -1753,26 +1763,28 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="9">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>37</v>
@@ -1789,21 +1801,23 @@
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1811,19 +1825,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1833,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1841,29 +1855,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1871,57 +1885,55 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="43.5">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1929,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1939,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1949,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1957,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1967,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1977,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -1985,7 +1997,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -1995,17 +2007,15 @@
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -2013,7 +2023,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2023,17 +2033,17 @@
         <v>6</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2041,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2059,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2067,27 +2077,27 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2095,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2115,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2123,27 +2133,27 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2151,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2169,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2177,18 +2187,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="7">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="G28" s="6">
         <v>0</v>
       </c>
@@ -2197,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2205,7 +2215,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2223,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2231,27 +2241,31 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="I30" s="9">
         <v>32</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2259,27 +2273,27 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2287,7 +2301,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2307,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2315,7 +2329,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2333,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2341,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2351,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2367,7 +2381,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2393,7 +2407,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2419,7 +2433,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2445,14 +2459,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6">
         <v>0</v>
       </c>
@@ -2461,17 +2473,19 @@
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6"/>
+      <c r="I38" s="9">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="6">
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2497,7 +2511,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2523,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -2549,7 +2563,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2575,13 +2589,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C43" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2595,7 +2609,7 @@
         <v>36</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2603,19 +2617,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E44" s="10">
         <v>3</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -2625,7 +2639,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2633,19 +2647,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E45" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2655,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2663,7 +2677,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2673,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
@@ -2683,37 +2697,37 @@
         <v>12</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="319">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="333.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="C47" s="7">
+        <v>5</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="E47" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="12">
-        <v>3</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6"/>
       <c r="I47" s="9">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2731,22 +2745,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C49" s="6">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1166</v>
+        <v>1207</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2757,33 +2771,29 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A789A3AC-430F-4C0C-96B2-9F7AECA7BBB6}"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{2FF2E876-2A3F-4F62-B6F5-951B9ECF278B}"/>
-    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{42526C63-7EF2-4E13-87D4-192FFE694A53}"/>
-    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5EC5CFA2-A265-4577-B027-A5864A853404}"/>
-    <hyperlink ref="F10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{066F2E46-0BD9-4CAE-9EFC-52110DEC166E}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{7179C5E5-D4BF-4B65-B79C-B78AAF9B03A9}"/>
-    <hyperlink ref="D15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{4AF66644-CCD7-4502-A66E-235DC8FD4835}"/>
-    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{44DDBC4A-D4FC-4717-AA9A-E84162DF4E1A}"/>
-    <hyperlink ref="D17" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{183C2E61-AAB9-46E5-BDCD-862F7DF99B07}"/>
-    <hyperlink ref="F19" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{7D1DCE70-7FD0-47A8-B998-8C2C9C35D00F}"/>
-    <hyperlink ref="F20" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{DAD6B7CE-2E97-4693-8769-C3B978A9E669}"/>
-    <hyperlink ref="F24" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{D908660F-589E-44EB-999E-BF70CDDDD29C}"/>
-    <hyperlink ref="D25" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6487188F-695C-4892-AE1F-34110518E814}"/>
-    <hyperlink ref="F26" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00734-2024-iyf_202406281738.pdf" xr:uid="{EE987192-863F-472A-9489-C7C2DA20DE3B}"/>
-    <hyperlink ref="D28" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{AAEEA5AA-1559-46DD-BA44-87C93C264DE3}"/>
-    <hyperlink ref="F30" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{828B29CC-95AE-40E3-822D-33DA34DD4845}"/>
-    <hyperlink ref="D32" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5B6853F2-D1B4-43D6-9F01-6909C0E7E278}"/>
-    <hyperlink ref="F34" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5AD8AF88-3A5A-42AB-8D31-B3F712E8AF45}"/>
-    <hyperlink ref="D35" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{06116BA5-4F58-432E-BFEF-C2EFB437A399}"/>
-    <hyperlink ref="D36" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3387578F-4E2A-44D5-91FC-64810AB9ADEE}"/>
-    <hyperlink ref="D37" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4DD2D032-1E4E-4577-A338-05D4B10A6A8D}"/>
-    <hyperlink ref="D38" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8BDEADEB-959E-4933-9EFA-F483253639C3}"/>
-    <hyperlink ref="D39" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E9C322A7-2FF8-42C2-8ACE-6EEB4FC6042F}"/>
-    <hyperlink ref="D40" r:id="rId24" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E83C7924-32ED-4B11-9F63-060BBCE3BD5C}"/>
-    <hyperlink ref="D41" r:id="rId25" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0FB4DFA4-F731-4E9C-B593-B28129FB787E}"/>
-    <hyperlink ref="D42" r:id="rId26" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{24286C2F-C7F1-4FA2-85A8-CA5233EB7B76}"/>
-    <hyperlink ref="D45" r:id="rId27" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{1BAF0833-2B72-4537-8DB4-81435C4C47A7}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{991BDED7-DB08-4AB4-A59D-12CE9222DCE4}"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00879-2024-1104_202407301904.pdf" xr:uid="{B93D902B-28D8-4D86-99A2-828AA8A6ECF9}"/>
+    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{90778130-9711-41E5-A9BF-704AF8BD4EE7}"/>
+    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{64F1823F-7DF3-4761-ABDF-343D5FEA806F}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00890-2024-1131_202408011925.pdf" xr:uid="{3BB9493C-2FE2-421A-8F0A-10E54F2375A8}"/>
+    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00867-2024-estrgeneral_202407291740.pdf" xr:uid="{60B61198-91BB-4DF2-B270-8A2790080A56}"/>
+    <hyperlink ref="D15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{333B6B05-ECAD-4749-AE93-D9E54C587D33}"/>
+    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{02E4DB41-7CBA-42EB-8158-442F483DD883}"/>
+    <hyperlink ref="F19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{CDC6606E-06D7-4EC1-AD9F-BB4EBDC7D5A6}"/>
+    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{FED68645-BFD0-4211-92B5-7B763DBAB9A6}"/>
+    <hyperlink ref="D25" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0C4A346A-C305-427C-8D7F-CA84A98FE627}"/>
+    <hyperlink ref="F28" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{CFEBDE17-B627-431E-B1D6-B6DD70BC1EFC}"/>
+    <hyperlink ref="D30" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00888-2024-1122_202408011924.pdf" xr:uid="{8B9400B2-B7C1-49E4-84A3-16C6ABE76924}"/>
+    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EEBA2A02-D8AD-4E24-9329-2A768257C186}"/>
+    <hyperlink ref="F34" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5E40C599-DAFC-4808-A08C-50EB7F78A77C}"/>
+    <hyperlink ref="D35" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C6FAE6BF-293F-43D5-A80B-AC0406C6FA0F}"/>
+    <hyperlink ref="D36" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DC892885-FF56-4302-A54E-CB9A1A30D329}"/>
+    <hyperlink ref="D37" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BC567B2C-32A4-47DB-8429-992D913FD55A}"/>
+    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1B3E6752-A708-47A8-9E9C-C76093617557}"/>
+    <hyperlink ref="D40" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{95E9B4C6-4FA7-4CE4-AE7F-420990A56CAC}"/>
+    <hyperlink ref="D41" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C2333734-DAFD-420B-AAEA-866268C249F6}"/>
+    <hyperlink ref="D42" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D0F13DD8-3929-4BB9-9FDA-2483BFF19F05}"/>
+    <hyperlink ref="D45" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{D57871FB-AA02-4514-8408-2F0220B43805}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A1B4777-E498-4A09-9792-E2A827F73B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DDCCF4-1BFA-4459-9BF3-86F592DB8EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7D7AB664-218A-4587-B368-08C08428CB4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E701271E-4592-4579-8B21-7475EDDC5E01}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-08-03.</t>
+    <t>De 2024-01-01 al 2024-08-11.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,10 +61,13 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 762, 835, 868, 871, 875, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,820,823,839,851,</t>
+    <t>922 , 925 , 926 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695, 762, 835, 868, 875, 898, 916, 917, 920, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,820,823,839,851,871,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
@@ -79,16 +82,13 @@
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">879, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 835, 879, </t>
+    <t xml:space="preserve">553, 835, 879, 908, </t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,846,847,848,849,858,</t>
@@ -106,64 +106,55 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 835, 836, 886, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,</t>
+    <t xml:space="preserve">625, 835, 836, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,886,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 752, 870, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,756,</t>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>888 , 891 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 659, 685, 699, 750, 753, 769, 792, 815, 829, 837, 840, 860, 864, 877, 879, </t>
-  </si>
-  <si>
-    <t>861,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,686,690,710,722,737,</t>
+    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 753, 769, 792, 815, 829, 840, 860, 864, 877, 891, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,837,861,879,888,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t>890 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">867, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,</t>
+    <t xml:space="preserve">867, 890, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,904,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 ,</t>
+    <t>845 , 924 ,</t>
   </si>
   <si>
     <t xml:space="preserve">744, </t>
   </si>
   <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,755,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,755,904,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 ,</t>
+    <t>675 , 710 , 910 , 911 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, </t>
@@ -175,19 +166,19 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 771, 835, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,</t>
+    <t xml:space="preserve">631, 907, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">739, 821, 836, 892, 894, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,812,</t>
+    <t xml:space="preserve">821, 892, 909, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -202,25 +193,28 @@
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">691, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,710,</t>
+    <t xml:space="preserve">906, 913, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,691,710,</t>
   </si>
   <si>
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
+    <t>922 ,</t>
+  </si>
+  <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">712, 736, 758, 814, 824, 869, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,720,</t>
+    <t xml:space="preserve">758, 814, 824, 869, 896, 897, 907, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -247,6 +241,9 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
+    <t>924 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">734, 879, </t>
   </si>
   <si>
@@ -274,13 +271,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>888 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835, 879, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,</t>
+    <t xml:space="preserve">835, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -340,10 +334,10 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 750 , 829 , 860 , 869 , 877 , 891 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,753,769,</t>
+    <t>699 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -364,31 +358,28 @@
     <t>92 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 880, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,</t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">752, 837, </t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>887 , 888 , 889 , 890 , 893 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">826, 872, 880, 881, 885, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,873,874,879,</t>
+    <t xml:space="preserve">826, 872, 880, 890, 903, 915, 923, 927, 928, </t>
+  </si>
+  <si>
+    <t>919,921,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,873,874,879,881,885,887,888,889,893,895,899,900,901,902,905,912,914,918,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1439,10 +1430,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C9266-1C07-4DDD-8E93-B0DF9C42AD0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984FC2DD-9058-4FFB-8D6D-0B4EF876E80D}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1451,11 +1442,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1517,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1529,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1567,25 +1558,27 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="101.5">
@@ -1593,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -1603,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -1613,32 +1606,30 @@
         <v>77</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="43.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="58">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>20</v>
@@ -1656,7 +1647,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>22</v>
@@ -1714,7 +1705,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>28</v>
@@ -1724,7 +1715,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>29</v>
@@ -1742,9 +1733,9 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="6">
@@ -1752,42 +1743,38 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="101.5">
+    <row r="13" spans="1:10" ht="116">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10">
-        <v>18</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9">
+        <v>90</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="9">
-        <v>85</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1795,59 +1782,57 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="29">
       <c r="A15" s="6">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1855,19 +1840,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="10">
         <v>11</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1877,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1885,27 +1870,27 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1913,27 +1898,27 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1941,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1951,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -1961,7 +1946,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1969,27 +1954,27 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -1997,12 +1982,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
@@ -2015,7 +2002,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.5">
@@ -2023,27 +2010,27 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2051,7 +2038,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2069,7 +2056,7 @@
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2077,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2087,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -2097,7 +2084,7 @@
         <v>32</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2105,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2125,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2133,17 +2120,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E26" s="10">
         <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -2153,7 +2142,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2161,7 +2150,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2179,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2187,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2197,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -2207,7 +2196,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2215,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2233,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2241,31 +2230,27 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9">
+        <v>35</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="12">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="9">
-        <v>32</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2273,7 +2258,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2283,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2293,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2301,7 +2286,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2321,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2329,7 +2314,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2347,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2355,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2365,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2381,7 +2366,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2407,7 +2392,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -2433,7 +2418,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2459,7 +2444,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2477,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2485,7 +2470,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2511,7 +2496,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2537,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -2563,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
@@ -2584,18 +2569,18 @@
       </c>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="43.5">
+    <row r="43" spans="1:10" ht="58">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="7">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2606,10 +2591,10 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2617,19 +2602,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E44" s="10">
         <v>3</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -2639,7 +2624,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2647,29 +2632,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E45" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2677,57 +2662,57 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="10">
-        <v>2</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="333.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="362.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10">
+        <v>9</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="12">
+        <v>2</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="9">
+        <v>288</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="7">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="10">
-        <v>5</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="9">
-        <v>273</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2745,14 +2730,14 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" s="6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
@@ -2760,7 +2745,7 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1207</v>
+        <v>1253</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2771,29 +2756,29 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{991BDED7-DB08-4AB4-A59D-12CE9222DCE4}"/>
-    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00879-2024-1104_202407301904.pdf" xr:uid="{B93D902B-28D8-4D86-99A2-828AA8A6ECF9}"/>
-    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{90778130-9711-41E5-A9BF-704AF8BD4EE7}"/>
-    <hyperlink ref="F10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{64F1823F-7DF3-4761-ABDF-343D5FEA806F}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00890-2024-1131_202408011925.pdf" xr:uid="{3BB9493C-2FE2-421A-8F0A-10E54F2375A8}"/>
-    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00867-2024-estrgeneral_202407291740.pdf" xr:uid="{60B61198-91BB-4DF2-B270-8A2790080A56}"/>
-    <hyperlink ref="D15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00845-2024-estandarte_202407181855.pdf" xr:uid="{333B6B05-ECAD-4749-AE93-D9E54C587D33}"/>
-    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{02E4DB41-7CBA-42EB-8158-442F483DD883}"/>
-    <hyperlink ref="F19" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{CDC6606E-06D7-4EC1-AD9F-BB4EBDC7D5A6}"/>
-    <hyperlink ref="F20" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00691-2024-arcotecho_202406181848.pdf" xr:uid="{FED68645-BFD0-4211-92B5-7B763DBAB9A6}"/>
-    <hyperlink ref="D25" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0C4A346A-C305-427C-8D7F-CA84A98FE627}"/>
-    <hyperlink ref="F28" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{CFEBDE17-B627-431E-B1D6-B6DD70BC1EFC}"/>
-    <hyperlink ref="D30" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00888-2024-1122_202408011924.pdf" xr:uid="{8B9400B2-B7C1-49E4-84A3-16C6ABE76924}"/>
-    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EEBA2A02-D8AD-4E24-9329-2A768257C186}"/>
-    <hyperlink ref="F34" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{5E40C599-DAFC-4808-A08C-50EB7F78A77C}"/>
-    <hyperlink ref="D35" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C6FAE6BF-293F-43D5-A80B-AC0406C6FA0F}"/>
-    <hyperlink ref="D36" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{DC892885-FF56-4302-A54E-CB9A1A30D329}"/>
-    <hyperlink ref="D37" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BC567B2C-32A4-47DB-8429-992D913FD55A}"/>
-    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1B3E6752-A708-47A8-9E9C-C76093617557}"/>
-    <hyperlink ref="D40" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{95E9B4C6-4FA7-4CE4-AE7F-420990A56CAC}"/>
-    <hyperlink ref="D41" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C2333734-DAFD-420B-AAEA-866268C249F6}"/>
-    <hyperlink ref="D42" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D0F13DD8-3929-4BB9-9FDA-2483BFF19F05}"/>
-    <hyperlink ref="D45" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{D57871FB-AA02-4514-8408-2F0220B43805}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{44D68A16-CAA2-45D0-87BB-EE5F8C43E491}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D6D58FBC-3DD2-468D-A2C0-73F0F5AFEBAF}"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{1E3ECBB0-E490-4E65-99AD-AF779CD48A68}"/>
+    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{EB31C13A-6033-4CE6-8CA0-7AAE30BB50B0}"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{05957AD6-831A-4127-B975-396BC0C04D17}"/>
+    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{DC47F8D1-4C07-431C-AFF6-08FE3CAE3573}"/>
+    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00922-2024-1173_202408091922.pdf" xr:uid="{5A1E9397-1808-4D91-8E91-10E2CF902485}"/>
+    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C5F9434B-0679-40A9-89F8-B430103C1BB9}"/>
+    <hyperlink ref="D26" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00924-2024-1182_202408091924.pdf" xr:uid="{5BAB9D55-C7DF-41C3-A180-42462DC43118}"/>
+    <hyperlink ref="F28" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{D6A3C053-9BCA-4C41-AFD1-74553BE52617}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{282A93DB-6BAB-43C6-9DAC-3DC398E1E1A9}"/>
+    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D44C2119-E629-46DC-B755-123008AF3B1F}"/>
+    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{17852250-912E-4D75-A998-518C03817A71}"/>
+    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{076CF2A6-3F63-4FB5-AC35-E536D3A14CB8}"/>
+    <hyperlink ref="D36" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C00B7AA2-2B18-48EE-97A8-85AD09DAC332}"/>
+    <hyperlink ref="D37" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B06A3230-56B0-4DD2-B62B-AC881524CE46}"/>
+    <hyperlink ref="D39" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D59161E1-1624-41E1-BE5C-F82BF44BCC2F}"/>
+    <hyperlink ref="D40" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7B659B47-3520-4643-8B60-00F91AD95C0D}"/>
+    <hyperlink ref="D41" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1FB3FC05-697C-4610-99E4-C57C273A85A9}"/>
+    <hyperlink ref="D42" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A32B96E5-9EBF-4C7F-8769-60C69BAC4695}"/>
+    <hyperlink ref="D43" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{340FE947-0E49-4649-AA03-6D7F267FABF8}"/>
+    <hyperlink ref="D45" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{23BC1CB6-8064-4DBE-8C4E-12677114D09A}"/>
+    <hyperlink ref="F46" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{3077C7DA-C783-4C13-B5E1-F3A7870B28B2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DDCCF4-1BFA-4459-9BF3-86F592DB8EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13008E9A-693C-4D82-8EC9-6832537F4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E701271E-4592-4579-8B21-7475EDDC5E01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81AD5917-D7BD-4DBD-91F8-5594F4C47A03}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-08-11.</t>
+    <t>De 2024-01-01 al 2024-08-16.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,34 +61,37 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>922 , 925 , 926 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 762, 835, 868, 875, 898, 916, 917, 920, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,764,770,776,779,780,793,794,818,820,823,839,851,871,</t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 920, 925, 931, 2, </t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,922,926,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 862, 884, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,879,</t>
+    <t xml:space="preserve">278, 835, 931, 2, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">932, 2, </t>
+  </si>
+  <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 835, 879, 908, </t>
+    <t xml:space="preserve">553, 835, 908, 2, </t>
+  </si>
+  <si>
+    <t>879,</t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,846,847,848,849,858,</t>
@@ -97,16 +100,19 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, </t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,</t>
+    <t xml:space="preserve">745, 956, </t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,947,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 835, 836, </t>
+    <t xml:space="preserve">625, 835, 836, 929, 935, 2, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,886,</t>
@@ -115,7 +121,7 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, </t>
+    <t xml:space="preserve">9, 952, 2, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,</t>
@@ -124,19 +130,19 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 753, 769, 792, 815, 829, 840, 860, 864, 877, 891, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,837,861,879,888,</t>
+    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 753, 769, 792, 829, 860, 864, 877, 891, 941, 948, 2, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,815,837,840,861,879,888,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t xml:space="preserve">867, 890, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,904,</t>
+    <t xml:space="preserve">890, 930, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,904,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -154,10 +160,10 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, </t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,</t>
@@ -166,7 +172,7 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 907, </t>
+    <t xml:space="preserve">631, 907, 942, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,</t>
@@ -175,7 +181,7 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 909, </t>
+    <t xml:space="preserve">821, 892, 909, 929, 931, 933, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,</t>
@@ -184,202 +190,217 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
+    <t xml:space="preserve">752, 930, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>2 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">906, 913, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,691,710,</t>
+  </si>
+  <si>
+    <t>CONTRALORÍA MUNICIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933, 2, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL OPDAPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">758, 814, 897, 907, </t>
+  </si>
+  <si>
+    <t>869,2,</t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,824,896,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL IMCUFIDEM</t>
+  </si>
+  <si>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL SMDIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, 935, 2, </t>
+  </si>
+  <si>
+    <t>876,</t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,883,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>710 , 2 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734, 879, 924, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
+  </si>
+  <si>
+    <t>GERENCIA DE LA CIUDAD</t>
+  </si>
+  <si>
+    <t>955 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
+  </si>
+  <si>
+    <t>147,190,350,355,476,582,710,729,836,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASESORES</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">941, 944, </t>
+  </si>
+  <si>
+    <t>835,2,</t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210, 529, 929, 932, 933, 2, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,718,836,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
+  </si>
+  <si>
+    <t>190,350,366,476,</t>
+  </si>
+  <si>
+    <t>SÍNDICATURA MUNICIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+  </si>
+  <si>
+    <t>126,261,710,</t>
+  </si>
+  <si>
+    <t>PRIMER REGIDURIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710, </t>
+  </si>
+  <si>
+    <t>SEGUNDA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>TERCER REGIDURÍA</t>
+  </si>
+  <si>
+    <t>CUARTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>QUINTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>710,</t>
+  </si>
+  <si>
+    <t>SEXTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>SÉPTIMA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>OCTAVA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>NOVENA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
+  </si>
+  <si>
+    <t>699 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
+  </si>
+  <si>
+    <t>281 , 939 , 951 , 2 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, 289, 556, 934, </t>
+  </si>
+  <si>
+    <t>120,155,173,179,190,214,350,397,476,504,710,777,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
+  </si>
+  <si>
+    <t>92 , 2 , 955 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,</t>
+  </si>
+  <si>
+    <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">752, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">906, 913, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,691,710,</t>
-  </si>
-  <si>
-    <t>CONTRALORÍA MUNICIPAL</t>
-  </si>
-  <si>
-    <t>922 ,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL OPDAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">758, 814, 824, 869, 896, 897, 907, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL IMCUFIDEM</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL SMDIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 876, </t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,883,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
-  </si>
-  <si>
-    <t>190,350,476,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>924 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">734, 879, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
-  </si>
-  <si>
-    <t>GERENCIA DE LA CIUDAD</t>
-  </si>
-  <si>
-    <t>190,350,476,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">836, </t>
-  </si>
-  <si>
-    <t>147,190,350,355,476,582,710,729,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASESORES</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210, 529, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,677,710,718,836,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
-  </si>
-  <si>
-    <t>190,350,366,476,</t>
-  </si>
-  <si>
-    <t>SÍNDICATURA MUNICIPAL</t>
-  </si>
-  <si>
-    <t>126,261,710,</t>
-  </si>
-  <si>
-    <t>PRIMER REGIDURIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710, </t>
-  </si>
-  <si>
-    <t>SEGUNDA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>TERCER REGIDURÍA</t>
-  </si>
-  <si>
-    <t>CUARTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>QUINTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>710,</t>
-  </si>
-  <si>
-    <t>SEXTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>SÉPTIMA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>OCTAVA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>NOVENA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
-  </si>
-  <si>
-    <t>699 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
-  </si>
-  <si>
-    <t>281 , 710 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151, 289, 556, </t>
-  </si>
-  <si>
-    <t>120,155,173,179,190,214,350,397,476,504,777,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
-  </si>
-  <si>
-    <t>92 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,</t>
-  </si>
-  <si>
-    <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
-  </si>
-  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">826, 872, 880, 890, 903, 915, 923, 927, 928, </t>
-  </si>
-  <si>
-    <t>919,921,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,873,874,879,881,885,887,888,889,893,895,899,900,901,902,905,912,914,918,</t>
+    <t xml:space="preserve">826, 890, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1031,10 +1052,10 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,10 +1451,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984FC2DD-9058-4FFB-8D6D-0B4EF876E80D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80100B5-E5C3-462B-B405-DC59F0DF796C}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1442,11 +1463,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1491,7 +1512,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1520,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1551,34 +1572,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="188.5">
+    <row r="6" spans="1:10" ht="203">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="10">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="101.5">
@@ -1586,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -1596,17 +1615,17 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1614,16 +1633,18 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>0</v>
       </c>
@@ -1652,15 +1673,17 @@
       <c r="F9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6"/>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="9">
         <v>60</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1668,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1677,20 +1700,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1698,17 +1723,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1718,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1726,17 +1751,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -1746,7 +1771,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="116">
@@ -1754,27 +1779,27 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1782,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1792,17 +1817,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1810,29 +1837,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="F15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="9">
         <v>13</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1840,19 +1869,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1862,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1870,27 +1899,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="9">
         <v>36</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1898,27 +1929,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I18" s="9">
         <v>29</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1926,27 +1959,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I19" s="9">
         <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1954,17 +1989,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E20" s="10">
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1974,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -1982,55 +2019,57 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="58">
       <c r="A22" s="6">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="I22" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2038,7 +2077,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2048,15 +2087,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6"/>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" s="9">
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2064,27 +2105,29 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="I24" s="9">
         <v>32</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2092,13 +2135,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2112,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2120,19 +2163,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" s="6">
         <v>0</v>
@@ -2142,7 +2185,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2150,25 +2193,29 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E27" s="6">
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6"/>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I27" s="9">
         <v>4</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2176,27 +2223,27 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6">
         <v>0</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2204,7 +2251,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2214,15 +2261,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6"/>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I29" s="9">
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2230,27 +2279,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="I30" s="9">
         <v>35</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2258,17 +2309,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2278,7 +2329,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2286,13 +2337,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -2306,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2314,16 +2365,18 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
@@ -2332,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2340,17 +2393,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>93</v>
+      <c r="F34" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2366,13 +2421,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2392,13 +2447,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2418,13 +2473,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2444,12 +2499,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
@@ -2462,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2470,13 +2527,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
@@ -2496,13 +2553,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2522,13 +2579,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2548,13 +2605,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2574,27 +2631,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6"/>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I43" s="9">
         <v>42</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2602,29 +2661,29 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C44" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2632,19 +2691,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E45" s="10">
         <v>12</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2654,7 +2713,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2662,7 +2721,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2671,48 +2730,50 @@
       <c r="E46" s="10">
         <v>1</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6"/>
+      <c r="F46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I46" s="9">
         <v>13</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="362.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="377">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="12">
-        <v>2</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I47" s="9">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2730,22 +2791,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1253</v>
+        <v>1288</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2756,29 +2817,19 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{44D68A16-CAA2-45D0-87BB-EE5F8C43E491}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D6D58FBC-3DD2-468D-A2C0-73F0F5AFEBAF}"/>
-    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{1E3ECBB0-E490-4E65-99AD-AF779CD48A68}"/>
-    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{EB31C13A-6033-4CE6-8CA0-7AAE30BB50B0}"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{05957AD6-831A-4127-B975-396BC0C04D17}"/>
-    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{DC47F8D1-4C07-431C-AFF6-08FE3CAE3573}"/>
-    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00922-2024-1173_202408091922.pdf" xr:uid="{5A1E9397-1808-4D91-8E91-10E2CF902485}"/>
-    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C5F9434B-0679-40A9-89F8-B430103C1BB9}"/>
-    <hyperlink ref="D26" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00924-2024-1182_202408091924.pdf" xr:uid="{5BAB9D55-C7DF-41C3-A180-42462DC43118}"/>
-    <hyperlink ref="F28" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00836-2024-1069_202407171917.pdf" xr:uid="{D6A3C053-9BCA-4C41-AFD1-74553BE52617}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00835-2024-1068_202407171917.pdf" xr:uid="{282A93DB-6BAB-43C6-9DAC-3DC398E1E1A9}"/>
-    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D44C2119-E629-46DC-B755-123008AF3B1F}"/>
-    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{17852250-912E-4D75-A998-518C03817A71}"/>
-    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{076CF2A6-3F63-4FB5-AC35-E536D3A14CB8}"/>
-    <hyperlink ref="D36" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C00B7AA2-2B18-48EE-97A8-85AD09DAC332}"/>
-    <hyperlink ref="D37" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B06A3230-56B0-4DD2-B62B-AC881524CE46}"/>
-    <hyperlink ref="D39" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D59161E1-1624-41E1-BE5C-F82BF44BCC2F}"/>
-    <hyperlink ref="D40" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7B659B47-3520-4643-8B60-00F91AD95C0D}"/>
-    <hyperlink ref="D41" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{1FB3FC05-697C-4610-99E4-C57C273A85A9}"/>
-    <hyperlink ref="D42" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A32B96E5-9EBF-4C7F-8769-60C69BAC4695}"/>
-    <hyperlink ref="D43" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{340FE947-0E49-4649-AA03-6D7F267FABF8}"/>
-    <hyperlink ref="D45" r:id="rId22" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{23BC1CB6-8064-4DBE-8C4E-12677114D09A}"/>
-    <hyperlink ref="F46" r:id="rId23" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{3077C7DA-C783-4C13-B5E1-F3A7870B28B2}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D0584240-98A0-4CFF-89E8-7756B0205368}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2334F52D-DF3D-473E-8D60-03CE22E0D151}"/>
+    <hyperlink ref="F15" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{258AA2C2-8CB8-4BC1-B34A-6F3E7EF6E00F}"/>
+    <hyperlink ref="D20" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{6113A1A6-A9F8-40FF-8678-01D5CFC863FE}"/>
+    <hyperlink ref="D26" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{27F63AC4-C6CD-4091-AC21-4FB3AD290D7B}"/>
+    <hyperlink ref="D27" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00955-2024-1207_202408151936.pdf" xr:uid="{5AC2988C-997C-4E85-AB0D-8B895FDBC559}"/>
+    <hyperlink ref="D28" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9AFEE9F5-0550-4BC8-A99E-E129F28D50E7}"/>
+    <hyperlink ref="F33" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{AE692391-CFCC-4CA5-84D1-F68ADA82A531}"/>
+    <hyperlink ref="D34" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{97F8800D-AA3F-46B9-B70E-BF401ACFD617}"/>
+    <hyperlink ref="F34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{390BE87B-A5B7-47ED-8847-0221EEE1DA74}"/>
+    <hyperlink ref="D38" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{B884BC1B-0A44-4390-B1E0-7A5AEA3200C6}"/>
+    <hyperlink ref="D43" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{4A2E27DC-82CD-436A-99C1-26694F17126F}"/>
+    <hyperlink ref="F46" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{EFBF77B3-446F-45CB-9DC4-F20FDD41FCA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13008E9A-693C-4D82-8EC9-6832537F4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64DA363-479F-4505-B103-F285FE0580B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81AD5917-D7BD-4DBD-91F8-5594F4C47A03}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0CB10565-6920-49BF-A030-9DD7BE2C9223}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-08-16.</t>
+    <t>De 2024-01-01 al 2024-08-25.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,58 +61,55 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 920, 925, 931, 2, </t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,922,926,</t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 931, 972, </t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 2, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,</t>
+    <t xml:space="preserve">278, 835, 931, 965, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">932, 2, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,</t>
+    <t xml:space="preserve">966, 981, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 835, 908, 2, </t>
-  </si>
-  <si>
-    <t>879,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,846,847,848,849,858,</t>
+    <t xml:space="preserve">553, 963, 980, 983, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, 956, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,947,</t>
+    <t xml:space="preserve">745, </t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,947,956,960,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 835, 836, 929, 935, 2, </t>
+    <t xml:space="preserve">625, 835, 836, 929, 935, 2, 960, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,886,</t>
@@ -121,25 +118,34 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 952, 2, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,</t>
+    <t xml:space="preserve">9, 965, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 753, 769, 792, 829, 860, 864, 877, 891, 941, 948, 2, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,815,837,840,861,879,888,</t>
+    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 877, 891, 948, 2, </t>
+  </si>
+  <si>
+    <t>753,769,792,829,860,864,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,815,837,840,861,879,888,941,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t xml:space="preserve">890, 930, </t>
+    <t>984 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967, 973, </t>
+  </si>
+  <si>
+    <t>890,930,2,</t>
   </si>
   <si>
     <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,904,</t>
@@ -148,7 +154,7 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 ,</t>
+    <t>845 , 924 , 958 ,</t>
   </si>
   <si>
     <t xml:space="preserve">744, </t>
@@ -160,7 +166,7 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 ,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, </t>
@@ -172,6 +178,9 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
+    <t>989 , 990 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">631, 907, 942, </t>
   </si>
   <si>
@@ -181,7 +190,7 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 909, 929, 931, 933, </t>
+    <t xml:space="preserve">821, 892, 909, 929, 931, 933, 987, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,</t>
@@ -190,138 +199,135 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">752, 930, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,</t>
+    <t xml:space="preserve">752, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">906, 913, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,691,710,</t>
+  </si>
+  <si>
+    <t>CONTRALORÍA MUNICIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933, 981, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL OPDAPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814, 907, 974, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,973,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL IMCUFIDEM</t>
+  </si>
+  <si>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL SMDIF</t>
+  </si>
+  <si>
+    <t>961 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, </t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>710 , 2 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734, 879, 924, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
+  </si>
+  <si>
+    <t>GERENCIA DE LA CIUDAD</t>
+  </si>
+  <si>
+    <t>984 , 990 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,710,955,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
+  </si>
+  <si>
+    <t>147,190,350,355,476,582,710,729,836,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASESORES</t>
+  </si>
+  <si>
+    <t>190,350,476,710,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">835, 941, 944, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,962,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210, 529, 932, 933, 2, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,718,836,929,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
+  </si>
+  <si>
+    <t>190,350,366,476,</t>
+  </si>
+  <si>
+    <t>SÍNDICATURA MUNICIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+  </si>
+  <si>
+    <t>126,261,710,</t>
+  </si>
+  <si>
+    <t>PRIMER REGIDURIA</t>
+  </si>
+  <si>
     <t>2 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">906, 913, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,691,710,</t>
-  </si>
-  <si>
-    <t>CONTRALORÍA MUNICIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">933, 2, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL OPDAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">758, 814, 897, 907, </t>
-  </si>
-  <si>
-    <t>869,2,</t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,824,896,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL IMCUFIDEM</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL SMDIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 935, 2, </t>
-  </si>
-  <si>
-    <t>876,</t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,883,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
-  </si>
-  <si>
-    <t>710 , 2 ,</t>
-  </si>
-  <si>
-    <t>190,350,476,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">734, 879, 924, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
-  </si>
-  <si>
-    <t>GERENCIA DE LA CIUDAD</t>
-  </si>
-  <si>
-    <t>955 ,</t>
-  </si>
-  <si>
-    <t>190,350,476,710,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
-  </si>
-  <si>
-    <t>147,190,350,355,476,582,710,729,836,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASESORES</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">941, 944, </t>
-  </si>
-  <si>
-    <t>835,2,</t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210, 529, 929, 932, 933, 2, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,677,710,718,836,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
-  </si>
-  <si>
-    <t>190,350,366,476,</t>
-  </si>
-  <si>
-    <t>SÍNDICATURA MUNICIPAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, </t>
-  </si>
-  <si>
-    <t>126,261,710,</t>
-  </si>
-  <si>
-    <t>PRIMER REGIDURIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">710, </t>
   </si>
   <si>
@@ -355,7 +361,7 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 ,</t>
+    <t>699 , 980 ,</t>
   </si>
   <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,</t>
@@ -364,10 +370,10 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 951 , 2 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151, 289, 556, 934, </t>
+    <t>281 , 939 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, 289, 556, 934, 951, </t>
   </si>
   <si>
     <t>120,155,173,179,190,214,350,397,476,504,710,777,</t>
@@ -376,31 +382,31 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 2 , 955 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,</t>
+    <t>92 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">752, </t>
-  </si>
-  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">826, 890, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,</t>
+    <t>991 , 992 , 993 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">826, 963, 975, 978, 979, 986, 988, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,964,971,977,985,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1451,10 +1457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80100B5-E5C3-462B-B405-DC59F0DF796C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A135CC-B5CD-4019-8C48-66C32AC7F0C0}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1463,11 +1469,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1512,7 +1518,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1541,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1584,20 +1590,22 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6"/>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="101.5">
@@ -1605,7 +1613,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -1615,17 +1623,19 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1633,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1643,17 +1653,19 @@
         <v>2</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1661,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -1671,16 +1683,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I9" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>24</v>
@@ -1700,22 +1712,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="I10" s="9">
-        <v>8</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5">
@@ -1723,17 +1735,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1743,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1751,27 +1763,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="116">
@@ -1779,24 +1793,26 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11">
+        <v>6</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6"/>
       <c r="I13" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>37</v>
@@ -1809,27 +1825,29 @@
       <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="10">
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9">
         <v>31</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1837,31 +1855,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I15" s="9">
         <v>13</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1869,19 +1887,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="10">
         <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1891,7 +1909,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1899,29 +1917,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="10">
         <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I17" s="9">
         <v>36</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1929,29 +1949,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I18" s="9">
         <v>29</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1959,29 +1979,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I19" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1989,29 +2009,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="10">
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="9">
         <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -2019,7 +2039,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -2029,17 +2049,19 @@
         <v>2</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I21" s="9">
+        <v>67</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="58">
@@ -2047,29 +2069,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="I22" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2077,7 +2099,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2091,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I23" s="9">
         <v>13</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2105,29 +2127,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E24" s="10">
-        <v>3</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="I24" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2135,13 +2159,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2155,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2163,29 +2187,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="10">
         <v>3</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="9">
         <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2193,13 +2217,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -2209,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I27" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2223,27 +2247,27 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>59</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6"/>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="9">
         <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2251,7 +2275,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2265,13 +2289,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I29" s="9">
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.5">
@@ -2279,29 +2303,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G30" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2309,27 +2333,27 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2337,27 +2361,29 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6"/>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2365,7 +2391,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2375,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2385,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2393,19 +2419,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2421,22 +2447,24 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6"/>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I35" s="6">
         <v>0</v>
       </c>
@@ -2447,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2473,13 +2501,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2499,13 +2527,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -2519,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2527,13 +2555,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="7">
         <v>2</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
@@ -2553,13 +2581,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="7">
         <v>2</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2579,13 +2607,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="7">
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2605,13 +2633,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2631,13 +2659,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>111</v>
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2647,13 +2675,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I43" s="9">
         <v>42</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2661,29 +2689,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C44" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I44" s="9">
         <v>12</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2691,29 +2721,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="E45" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2721,7 +2751,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2731,49 +2761,51 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I46" s="9">
         <v>13</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="377">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="391.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="E47" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G47" s="11">
         <v>1</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I47" s="9">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2791,22 +2823,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1288</v>
+        <v>1318</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2817,19 +2849,22 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D0584240-98A0-4CFF-89E8-7756B0205368}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{2334F52D-DF3D-473E-8D60-03CE22E0D151}"/>
-    <hyperlink ref="F15" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{258AA2C2-8CB8-4BC1-B34A-6F3E7EF6E00F}"/>
-    <hyperlink ref="D20" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{6113A1A6-A9F8-40FF-8678-01D5CFC863FE}"/>
-    <hyperlink ref="D26" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{27F63AC4-C6CD-4091-AC21-4FB3AD290D7B}"/>
-    <hyperlink ref="D27" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00955-2024-1207_202408151936.pdf" xr:uid="{5AC2988C-997C-4E85-AB0D-8B895FDBC559}"/>
-    <hyperlink ref="D28" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9AFEE9F5-0550-4BC8-A99E-E129F28D50E7}"/>
-    <hyperlink ref="F33" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{AE692391-CFCC-4CA5-84D1-F68ADA82A531}"/>
-    <hyperlink ref="D34" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{97F8800D-AA3F-46B9-B70E-BF401ACFD617}"/>
-    <hyperlink ref="F34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{390BE87B-A5B7-47ED-8847-0221EEE1DA74}"/>
-    <hyperlink ref="D38" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{B884BC1B-0A44-4390-B1E0-7A5AEA3200C6}"/>
-    <hyperlink ref="D43" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{4A2E27DC-82CD-436A-99C1-26694F17126F}"/>
-    <hyperlink ref="F46" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{EFBF77B3-446F-45CB-9DC4-F20FDD41FCA5}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8AFCB34F-42F5-400C-BED7-2015611F411C}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{761F2324-89DD-4FCE-9348-B8751EB74CD4}"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{FF49A3E7-3D4A-4F8A-89D7-682FAA737299}"/>
+    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{F9CBD5BB-E5F3-435B-84C6-86C04E0F8D2C}"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{EF35FB2F-1E16-4B75-BF06-0E9C80FBAC84}"/>
+    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{B5C5419B-EEC9-4CCC-A38F-E8338388E1B6}"/>
+    <hyperlink ref="D24" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00961-2024-ciclo_202408191857.pdf" xr:uid="{862D0C70-2A53-42F6-9B08-AB38DB924E57}"/>
+    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{A7495B20-4200-4934-B6C5-DFDD2E41B59E}"/>
+    <hyperlink ref="D32" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{11D7CFBC-D6AE-44A2-B90A-C74F64D20384}"/>
+    <hyperlink ref="F33" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{5A8478ED-9BAE-47F6-AEAB-26C5AA053203}"/>
+    <hyperlink ref="D34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7733EC9E-F398-4C6D-B36E-7F2B83D10663}"/>
+    <hyperlink ref="F34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0D80C3C3-62DF-43A8-B5C5-7A48BEF3F861}"/>
+    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C638DD3D-4CA3-4A04-AEAE-DBEB8E330A58}"/>
+    <hyperlink ref="D38" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C032BD53-8D61-4FFC-BB3A-C5F124396A52}"/>
+    <hyperlink ref="D45" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{581DB02D-B7F5-4913-9228-E604AC4C24ED}"/>
+    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{548BDD4C-661F-4B2D-A4E1-B9CE759116AC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64DA363-479F-4505-B103-F285FE0580B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB150FE1-B041-460A-9017-4AEFEB15D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0CB10565-6920-49BF-A030-9DD7BE2C9223}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{21FA6554-41C8-43DA-8F78-F0AC0A94A087}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-08-25.</t>
+    <t>De 2024-01-01 al 2024-08-31.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,40 +61,40 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 931, 972, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, </t>
+  </si>
+  <si>
+    <t>2,1016,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1023,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 965, 1016, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 965, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,1021,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">966, 981, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 963, 980, 983, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,</t>
+    <t xml:space="preserve">553, 963, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -109,10 +109,10 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">625, 835, 836, 929, 935, 2, 960, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,628,636,646,655,671,710,728,755,781,790,886,</t>
+    <t xml:space="preserve">960, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -127,13 +127,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 877, 891, 948, 2, </t>
-  </si>
-  <si>
-    <t>753,769,792,829,860,864,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,815,837,840,861,879,888,941,</t>
+    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 877, 891, 948, 1008, 1018, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,753,769,792,815,829,837,840,860,861,864,879,888,941,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -142,22 +139,19 @@
     <t>984 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">967, 973, </t>
-  </si>
-  <si>
-    <t>890,930,2,</t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,904,</t>
+    <t xml:space="preserve">967, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 958 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">744, </t>
+    <t>845 , 924 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744, 958, </t>
   </si>
   <si>
     <t>64,80,85,169,190,350,437,476,615,710,734,755,904,</t>
@@ -166,7 +160,7 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 ,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, </t>
@@ -178,19 +172,19 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t>989 , 990 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631, 907, 942, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,</t>
+    <t>1007 , 1017 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631, 907, 989, 990, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 909, 929, 931, 933, 987, </t>
+    <t xml:space="preserve">821, 892, 909, 929, 931, 933, 987, 1016, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,</t>
@@ -217,16 +211,19 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">933, 981, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,</t>
+    <t xml:space="preserve">933, 981, 1019, 1020, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,998,1012,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">814, 907, 974, </t>
+    <t>1028 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">814, 907, 974, 998, </t>
   </si>
   <si>
     <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,973,</t>
@@ -235,7 +232,7 @@
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
   </si>
   <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,</t>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL SMDIF</t>
@@ -247,7 +244,7 @@
     <t xml:space="preserve">553, </t>
   </si>
   <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -262,19 +259,19 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">734, 879, 924, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,743,873,</t>
+    <t>879,924,2,</t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
   </si>
   <si>
-    <t>984 , 990 ,</t>
-  </si>
-  <si>
-    <t>190,350,476,710,955,</t>
+    <t xml:space="preserve">984, </t>
+  </si>
+  <si>
+    <t>190,350,476,710,955,990,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
@@ -292,10 +289,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">835, 941, 944, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,861,879,888,962,</t>
+    <t>1027 ,</t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -316,10 +313,10 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2, </t>
-  </si>
-  <si>
-    <t>126,261,710,</t>
+    <t xml:space="preserve">2, 1001, </t>
+  </si>
+  <si>
+    <t>126,261,710,998,</t>
   </si>
   <si>
     <t>PRIMER REGIDURIA</t>
@@ -328,27 +325,36 @@
     <t>2 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">710, </t>
+    <t xml:space="preserve">710, 998, </t>
   </si>
   <si>
     <t>SEGUNDA REGIDURÍA</t>
   </si>
   <si>
+    <t>710 , 998 ,</t>
+  </si>
+  <si>
     <t>TERCER REGIDURÍA</t>
   </si>
   <si>
+    <t>710 , 2 , 998 ,</t>
+  </si>
+  <si>
     <t>CUARTA REGIDURÍA</t>
   </si>
   <si>
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
-    <t>710,</t>
+    <t>710,998,</t>
   </si>
   <si>
     <t>SEXTA REGIDURÍA</t>
   </si>
   <si>
+    <t>998,</t>
+  </si>
+  <si>
     <t>SÉPTIMA REGIDURÍA</t>
   </si>
   <si>
@@ -361,10 +367,13 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 980 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,</t>
+    <t>699 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1018, </t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -373,10 +382,10 @@
     <t>281 , 939 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">151, 289, 556, 934, 951, </t>
-  </si>
-  <si>
-    <t>120,155,173,179,190,214,350,397,476,504,710,777,</t>
+    <t xml:space="preserve">151, 289, 556, 951, </t>
+  </si>
+  <si>
+    <t>120,155,173,179,190,214,350,397,476,504,710,777,934,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
@@ -385,7 +394,7 @@
     <t>92 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, </t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,</t>
@@ -394,19 +403,19 @@
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,837,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>991 , 992 , 993 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">826, 963, 975, 978, 979, 986, 988, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,964,971,977,985,</t>
+    <t xml:space="preserve">826, 963, 975, 978, 1010, 1012, 1014, 1018, 1029, 1030, </t>
+  </si>
+  <si>
+    <t>2,1021,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,964,971,977,979,985,986,988,991,992,993,994,995,998,1011,1015,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1457,10 +1466,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A135CC-B5CD-4019-8C48-66C32AC7F0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC2509D-E6AD-4E0E-B332-1DD70A1858A8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1469,11 +1478,11 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1535,7 +1544,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1547,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1590,19 +1599,19 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
@@ -1620,7 +1629,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
@@ -1629,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1643,26 +1652,24 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>21</v>
@@ -1680,7 +1687,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>23</v>
@@ -1689,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>24</v>
@@ -1721,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9">
         <v>10</v>
@@ -1742,17 +1749,19 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>30</v>
@@ -1779,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9">
         <v>18</v>
@@ -1800,22 +1809,22 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="9">
+        <v>99</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="I13" s="9">
-        <v>93</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1823,31 +1832,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9">
+        <v>34</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="11">
-        <v>3</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="9">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1855,31 +1864,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9">
         <v>13</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1887,19 +1896,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="10">
         <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1909,7 +1918,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1917,31 +1926,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9">
+        <v>37</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9">
-        <v>36</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1949,29 +1958,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9">
         <v>29</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1979,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1989,19 +1998,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9">
         <v>19</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2009,7 +2018,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2019,19 +2028,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9">
         <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -2039,29 +2048,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="58">
@@ -2069,29 +2078,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9">
         <v>41</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2099,7 +2110,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2113,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9">
         <v>14</v>
       </c>
-      <c r="I23" s="9">
-        <v>13</v>
-      </c>
       <c r="J23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2127,31 +2138,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="9">
+        <v>35</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9">
-        <v>34</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2159,13 +2170,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2179,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2187,29 +2198,27 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10">
-        <v>3</v>
-      </c>
-      <c r="F26" s="10" t="s">
+      <c r="I26" s="9">
+        <v>16</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9">
-        <v>15</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2217,29 +2226,29 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="9">
-        <v>5</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2247,7 +2256,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2261,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9">
         <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2275,7 +2284,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2289,43 +2298,43 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9">
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="43.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="58">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10">
-        <v>3</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9">
+        <v>39</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="9">
-        <v>36</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2333,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2343,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2353,7 +2362,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2361,7 +2370,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2377,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2391,27 +2400,27 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2419,19 +2428,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="10">
+        <v>2</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2447,13 +2456,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2463,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -2478,10 +2487,10 @@
         <v>104</v>
       </c>
       <c r="C36" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2501,13 +2510,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2527,27 +2536,27 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>101</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6">
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6"/>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I38" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2555,39 +2564,43 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6"/>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6">
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C40" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2607,13 +2620,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C41" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2633,13 +2646,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2659,29 +2672,31 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="G43" s="11">
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2689,31 +2704,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E44" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2721,19 +2736,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E45" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2743,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2751,61 +2766,57 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="9">
         <v>14</v>
       </c>
-      <c r="I46" s="9">
-        <v>13</v>
-      </c>
       <c r="J46" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="391.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="406">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="7">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G47" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="I47" s="9">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2823,14 +2834,14 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49" s="6">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
@@ -2838,7 +2849,7 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1318</v>
+        <v>1372</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2849,23 +2860,26 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8AFCB34F-42F5-400C-BED7-2015611F411C}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{761F2324-89DD-4FCE-9348-B8751EB74CD4}"/>
-    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{FF49A3E7-3D4A-4F8A-89D7-682FAA737299}"/>
-    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{F9CBD5BB-E5F3-435B-84C6-86C04E0F8D2C}"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00744-2024-934_202407011950.pdf" xr:uid="{EF35FB2F-1E16-4B75-BF06-0E9C80FBAC84}"/>
-    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{B5C5419B-EEC9-4CCC-A38F-E8338388E1B6}"/>
-    <hyperlink ref="D24" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00961-2024-ciclo_202408191857.pdf" xr:uid="{862D0C70-2A53-42F6-9B08-AB38DB924E57}"/>
-    <hyperlink ref="F24" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{A7495B20-4200-4934-B6C5-DFDD2E41B59E}"/>
-    <hyperlink ref="D32" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{11D7CFBC-D6AE-44A2-B90A-C74F64D20384}"/>
-    <hyperlink ref="F33" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{5A8478ED-9BAE-47F6-AEAB-26C5AA053203}"/>
-    <hyperlink ref="D34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7733EC9E-F398-4C6D-B36E-7F2B83D10663}"/>
-    <hyperlink ref="F34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0D80C3C3-62DF-43A8-B5C5-7A48BEF3F861}"/>
-    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C638DD3D-4CA3-4A04-AEAE-DBEB8E330A58}"/>
-    <hyperlink ref="D38" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C032BD53-8D61-4FFC-BB3A-C5F124396A52}"/>
-    <hyperlink ref="D45" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{581DB02D-B7F5-4913-9228-E604AC4C24ED}"/>
-    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{548BDD4C-661F-4B2D-A4E1-B9CE759116AC}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8331EE7C-AE77-472A-B869-10377FB72C23}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BF7E5E52-A53F-464F-B986-FE9FB0ABBCD5}"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{22AD034E-CF06-4106-9DC8-E22CCF78945A}"/>
+    <hyperlink ref="F11" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00960-2024-1029_202408191748.pdf" xr:uid="{A1CCCCAF-89DC-453A-9656-F157238A029F}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{37EBDA5E-1349-4876-8023-C918E76B1290}"/>
+    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{A8C7163C-41B6-40DD-A18B-ED34F71E9B30}"/>
+    <hyperlink ref="F19" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{E7FEF0C8-EF0E-4944-8D3E-393443C6AF13}"/>
+    <hyperlink ref="D22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01028-2024-1312_202408301918.pdf" xr:uid="{91BF8610-B498-4CAD-A597-EAF1DA1DE386}"/>
+    <hyperlink ref="D24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00961-2024-ciclo_202408191857.pdf" xr:uid="{FFC4A8C2-FDBA-4D76-87B6-C9F05AAC0413}"/>
+    <hyperlink ref="F24" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{FBF6B49D-7EDF-4467-B31B-5C4B2E5B9418}"/>
+    <hyperlink ref="F27" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{AAE36E9B-2B89-49BE-8A54-078D0A750926}"/>
+    <hyperlink ref="D30" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01027-2024-1311_202408301918.pdf" xr:uid="{1FDAF07E-2A74-4E1F-A18F-00790B78071B}"/>
+    <hyperlink ref="D32" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C2F9CDA6-95B6-406C-9AB2-34671CB3E216}"/>
+    <hyperlink ref="D34" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{CEE78A4F-E80D-4B50-B0CC-3FA05806B37F}"/>
+    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A4952937-C1EA-47A8-88BF-94AB89E36838}"/>
+    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F991CD51-77A1-4BED-97B9-0520B15F6764}"/>
+    <hyperlink ref="F43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01018-2024-1294_202408281914.pdf" xr:uid="{02EA1295-2523-48FC-B44E-C0CB12F22F81}"/>
+    <hyperlink ref="D45" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{3332BC60-7826-4B4C-B372-F146B6A2896A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB150FE1-B041-460A-9017-4AEFEB15D9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BF3BFA-BB65-4851-8FBB-CEAB53939F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{21FA6554-41C8-43DA-8F78-F0AC0A94A087}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1C1BF45-9661-41C3-934D-45F6C12C6070}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-08-31.</t>
+    <t>De 2024-01-01 al 2024-09-08.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,25 +61,22 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, </t>
-  </si>
-  <si>
-    <t>2,1016,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1023,</t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1058, 1065, 1071, </t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 965, 1016, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,1021,</t>
+    <t xml:space="preserve">278, 835, 931, 1051, 1054, 1067, 1074, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
@@ -91,7 +88,7 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 963, </t>
+    <t xml:space="preserve">553, 963, 1063, 1074, </t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,</t>
@@ -100,7 +97,7 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, </t>
+    <t xml:space="preserve">745, 1034, </t>
   </si>
   <si>
     <t>190,259,350,476,509,641,655,947,956,960,</t>
@@ -109,10 +106,10 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,</t>
+    <t xml:space="preserve">960, 1034, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1040,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -127,10 +124,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 659, 699, 750, 877, 891, 948, 1008, 1018, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,669,675,685,686,690,710,722,737,753,769,792,815,829,837,840,860,861,864,879,888,941,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1049, </t>
+  </si>
+  <si>
+    <t>2,1008,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1064,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">967, </t>
   </si>
   <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,</t>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -160,7 +160,7 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 ,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1049 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, </t>
@@ -172,10 +172,7 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t>1007 , 1017 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631, 907, 989, 990, </t>
+    <t xml:space="preserve">631, 907, 989, 990, 1007, 1017, 1035, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,</t>
@@ -184,16 +181,19 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 909, 929, 931, 933, 987, 1016, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,</t>
+    <t xml:space="preserve">821, 892, 909, 931, 933, 987, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,929,1016,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">752, </t>
+    <t xml:space="preserve">752, 1076, </t>
+  </si>
+  <si>
+    <t>2,1059,</t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,</t>
@@ -211,22 +211,22 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">933, 981, 1019, 1020, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,998,1012,</t>
+    <t>1065 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933, 1019, 1020, 1031, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t>1028 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">814, 907, 974, 998, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,973,</t>
+    <t xml:space="preserve">814, 907, 1028, 1035, 1051, 1060, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,973,974,998,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -238,7 +238,7 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>961 ,</t>
+    <t>961 , 1076 ,</t>
   </si>
   <si>
     <t xml:space="preserve">553, </t>
@@ -259,10 +259,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t>879,924,2,</t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,</t>
+    <t>1083 ,</t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -277,6 +277,9 @@
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
+    <t>1077 ,</t>
+  </si>
+  <si>
     <t>147,190,350,355,476,582,710,729,836,</t>
   </si>
   <si>
@@ -289,10 +292,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>1027 ,</t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,</t>
+    <t xml:space="preserve">1039, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -313,7 +316,7 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2, 1001, </t>
+    <t xml:space="preserve">2, 1001, 1063, 1068, </t>
   </si>
   <si>
     <t>126,261,710,998,</t>
@@ -325,42 +328,54 @@
     <t>2 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">710, 998, </t>
+    <t xml:space="preserve">710, 998, 1068, </t>
   </si>
   <si>
     <t>SEGUNDA REGIDURÍA</t>
   </si>
   <si>
-    <t>710 , 998 ,</t>
+    <t>710 , 1068 ,</t>
+  </si>
+  <si>
+    <t>998,</t>
   </si>
   <si>
     <t>TERCER REGIDURÍA</t>
   </si>
   <si>
+    <t>710 , 2 , 998 , 1068 ,</t>
+  </si>
+  <si>
+    <t>CUARTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>QUINTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>1068 ,</t>
+  </si>
+  <si>
+    <t>710,998,</t>
+  </si>
+  <si>
+    <t>SEXTA REGIDURÍA</t>
+  </si>
+  <si>
+    <t>998,1068,</t>
+  </si>
+  <si>
+    <t>SÉPTIMA REGIDURÍA</t>
+  </si>
+  <si>
     <t>710 , 2 , 998 ,</t>
   </si>
   <si>
-    <t>CUARTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>QUINTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>710,998,</t>
-  </si>
-  <si>
-    <t>SEXTA REGIDURÍA</t>
-  </si>
-  <si>
-    <t>998,</t>
-  </si>
-  <si>
-    <t>SÉPTIMA REGIDURÍA</t>
-  </si>
-  <si>
     <t>OCTAVA REGIDURÍA</t>
   </si>
   <si>
+    <t>1068,</t>
+  </si>
+  <si>
     <t>NOVENA REGIDURÍA</t>
   </si>
   <si>
@@ -373,7 +388,7 @@
     <t xml:space="preserve">1018, </t>
   </si>
   <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1064,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -382,7 +397,7 @@
     <t>281 , 939 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">151, 289, 556, 951, </t>
+    <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
   </si>
   <si>
     <t>120,155,173,179,190,214,350,397,476,504,710,777,934,</t>
@@ -391,13 +406,13 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,</t>
+    <t>92 , 1072 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
@@ -409,13 +424,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">826, 963, 975, 978, 1010, 1012, 1014, 1018, 1029, 1030, </t>
-  </si>
-  <si>
-    <t>2,1021,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,964,971,977,979,985,986,988,991,992,993,994,995,998,1011,1015,</t>
+    <t>1084 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1051, 1052, 1075, 1077, 1078, 1079, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1056,1061,1062,1068,1070,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1466,10 +1481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC2509D-E6AD-4E0E-B332-1DD70A1858A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E598EAE2-F633-4F53-8282-92910B851EED}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1482,7 +1497,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1544,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1556,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1599,25 +1614,25 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="101.5">
+    <row r="7" spans="1:10" ht="116">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1629,7 +1644,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
@@ -1638,13 +1653,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9">
+        <v>84</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="9">
-        <v>82</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1652,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1666,13 +1681,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" s="9">
         <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1680,29 +1695,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" s="9">
         <v>68</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1710,7 +1725,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1719,52 +1734,52 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9">
         <v>10</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="58">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9">
+        <v>36</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="9">
-        <v>35</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1772,7 +1787,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1782,46 +1797,46 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9">
         <v>18</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="130.5">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="I13" s="9">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>36</v>
@@ -1850,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>40</v>
@@ -1882,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I15" s="9">
         <v>13</v>
@@ -1899,7 +1914,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>46</v>
@@ -1928,29 +1943,27 @@
       <c r="B17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="10">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="10">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I17" s="9">
         <v>37</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1958,29 +1971,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9">
+        <v>31</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="9">
-        <v>29</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1988,23 +2001,23 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I19" s="9">
         <v>19</v>
@@ -2034,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I20" s="9">
         <v>7</v>
@@ -2050,27 +2063,29 @@
       <c r="B21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E21" s="10">
         <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I21" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="58">
@@ -2078,16 +2093,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>67</v>
@@ -2096,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I22" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>68</v>
@@ -2124,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I23" s="9">
         <v>14</v>
@@ -2141,9 +2154,9 @@
         <v>71</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="10">
@@ -2156,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I24" s="9">
         <v>35</v>
@@ -2200,22 +2213,24 @@
       <c r="B26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="6">
         <v>0</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>80</v>
@@ -2242,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I27" s="9">
         <v>6</v>
@@ -2258,10 +2273,12 @@
       <c r="B28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E28" s="6">
         <v>0</v>
       </c>
@@ -2270,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9">
         <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2284,7 +2301,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2298,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I29" s="9">
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2312,29 +2329,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2342,7 +2359,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2352,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2362,7 +2379,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2370,7 +2387,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2386,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2400,17 +2417,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2420,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2428,19 +2445,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2456,13 +2473,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2472,25 +2489,27 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6">
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2510,13 +2529,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2536,12 +2555,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="E38" s="6">
         <v>0</v>
       </c>
@@ -2550,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I38" s="9">
         <v>2</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2564,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2580,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2594,13 +2615,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2620,13 +2641,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2636,23 +2657,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6"/>
+      <c r="I41" s="9">
+        <v>1</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="6">
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2672,31 +2695,31 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G43" s="11">
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I43" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2704,31 +2727,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E44" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I44" s="9">
         <v>13</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2736,29 +2759,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2766,7 +2789,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2780,43 +2803,45 @@
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I46" s="9">
         <v>14</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="406">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="409.5">
       <c r="A47" s="6">
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="E47" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G47" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="I47" s="9">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2834,22 +2859,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C49" s="6">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1372</v>
+        <v>1419</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2860,26 +2885,24 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8331EE7C-AE77-472A-B869-10377FB72C23}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BF7E5E52-A53F-464F-B986-FE9FB0ABBCD5}"/>
-    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00745-2024-935_202407011951.pdf" xr:uid="{22AD034E-CF06-4106-9DC8-E22CCF78945A}"/>
-    <hyperlink ref="F11" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00960-2024-1029_202408191748.pdf" xr:uid="{A1CCCCAF-89DC-453A-9656-F157238A029F}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{37EBDA5E-1349-4876-8023-C918E76B1290}"/>
-    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{A8C7163C-41B6-40DD-A18B-ED34F71E9B30}"/>
-    <hyperlink ref="F19" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00752-2024-945_202407021917.pdf" xr:uid="{E7FEF0C8-EF0E-4944-8D3E-393443C6AF13}"/>
-    <hyperlink ref="D22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01028-2024-1312_202408301918.pdf" xr:uid="{91BF8610-B498-4CAD-A597-EAF1DA1DE386}"/>
-    <hyperlink ref="D24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00961-2024-ciclo_202408191857.pdf" xr:uid="{FFC4A8C2-FDBA-4D76-87B6-C9F05AAC0413}"/>
-    <hyperlink ref="F24" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{FBF6B49D-7EDF-4467-B31B-5C4B2E5B9418}"/>
-    <hyperlink ref="F27" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{AAE36E9B-2B89-49BE-8A54-078D0A750926}"/>
-    <hyperlink ref="D30" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01027-2024-1311_202408301918.pdf" xr:uid="{1FDAF07E-2A74-4E1F-A18F-00790B78071B}"/>
-    <hyperlink ref="D32" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C2F9CDA6-95B6-406C-9AB2-34671CB3E216}"/>
-    <hyperlink ref="D34" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{CEE78A4F-E80D-4B50-B0CC-3FA05806B37F}"/>
-    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{A4952937-C1EA-47A8-88BF-94AB89E36838}"/>
-    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F991CD51-77A1-4BED-97B9-0520B15F6764}"/>
-    <hyperlink ref="F43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01018-2024-1294_202408281914.pdf" xr:uid="{02EA1295-2523-48FC-B44E-C0CB12F22F81}"/>
-    <hyperlink ref="D45" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00092-2024-113_202401221818.pdf" xr:uid="{3332BC60-7826-4B4C-B372-F146B6A2896A}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C16CC7A1-3009-48FA-A55E-6F64678CDBDD}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0E6E6946-D719-4EFC-9DAD-98117FE06452}"/>
+    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{F9BE47DF-8EF9-47F1-A162-401D6B97860C}"/>
+    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{CE13264E-0AEA-46CB-B0C0-5E9D9F510812}"/>
+    <hyperlink ref="D21" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01065-2024-1343_202409051452.pdf" xr:uid="{13F28AB6-F5A2-4DE9-9442-68F888946528}"/>
+    <hyperlink ref="F24" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{44361544-115B-44A5-A784-C34DFA14B051}"/>
+    <hyperlink ref="D26" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{1A8CFBCF-8213-44CF-BB6F-78CEDCAD2D71}"/>
+    <hyperlink ref="F27" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{0286BCFD-EAF2-48F2-A4B3-CDCE815016A4}"/>
+    <hyperlink ref="D28" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{256A81B7-7B17-4B36-BD61-A144F66DE3DF}"/>
+    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01039-2024-75761_202409031207.pdf" xr:uid="{4862AAF5-7358-451D-8D83-4D45CFE3F0F5}"/>
+    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{636062D8-FF30-43D7-BBD2-04EDED08F71F}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{FABAD76B-423B-4950-8982-42B65C35174F}"/>
+    <hyperlink ref="D38" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{48704F29-FA00-4452-9B2C-9BE3AE17A122}"/>
+    <hyperlink ref="D39" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{59AAC1D9-5172-4E65-9C6E-0AE2A53CE6CE}"/>
+    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{3D1BDB8C-59C5-48BD-95D7-1A0AF1A0B3DE}"/>
+    <hyperlink ref="F43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01018-2024-1294_202408281914.pdf" xr:uid="{96CEC9DC-103F-4BDE-8438-721DD98FF8D2}"/>
+    <hyperlink ref="D47" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01084-2024-1354_202409061914.pdf" xr:uid="{6E4A01DA-4173-49FC-82FA-07D4C5B4B7C0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BF3BFA-BB65-4851-8FBB-CEAB53939F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747C41EB-0624-4DDE-A64E-06CFAE703F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E1C1BF45-9661-41C3-934D-45F6C12C6070}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18BA2CEC-5642-49F9-A827-0C8102EB3A29}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte_general (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-09-08.</t>
+    <t>De 2024-01-01 al 2024-09-14.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,22 +61,25 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1058, 1065, 1071, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1109, 1146, </t>
+  </si>
+  <si>
+    <t>2,1071,1155,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1088,1108,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1074, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1051, 1054, 1067, 1074, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
@@ -88,6 +91,9 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
+    <t>1157 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">553, 963, 1063, 1074, </t>
   </si>
   <si>
@@ -106,31 +112,28 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1034, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1040,</t>
+    <t xml:space="preserve">960, 1101, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 965, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,</t>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1049, </t>
-  </si>
-  <si>
-    <t>2,1008,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1064,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -148,22 +151,22 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">744, 958, </t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,755,904,</t>
+    <t>845 , 924 , 1156 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">958, </t>
+  </si>
+  <si>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1049 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, </t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1049 , 1110 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 1090, 1091, 1092, 1093, 1094, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,</t>
@@ -172,7 +175,7 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 907, 989, 990, 1007, 1017, 1035, </t>
+    <t xml:space="preserve">631, 907, 989, 990, 1007, 1017, 1035, 1095, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,</t>
@@ -181,27 +184,27 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 909, 931, 933, 987, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,929,1016,</t>
+    <t xml:space="preserve">821, 892, 931, 933, 987, 1087, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,909,929,1016,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">752, 1076, </t>
-  </si>
-  <si>
-    <t>2,1059,</t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,</t>
+    <t xml:space="preserve">752, 1087, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
+    <t>1156 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">906, 913, </t>
   </si>
   <si>
@@ -211,22 +214,22 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1065 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">933, 1019, 1020, 1031, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,</t>
+    <t>1146 , 1157 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933, 1019, 1020, 1031, 1087, 1088, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,1065,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">814, 907, 1028, 1035, 1051, 1060, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,973,974,998,</t>
+    <t xml:space="preserve">814, 1028, 1051, 1060, 1095, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,907,973,974,998,1035,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -259,7 +262,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t>1083 ,</t>
+    <t xml:space="preserve">1083, </t>
   </si>
   <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,</t>
@@ -334,10 +337,7 @@
     <t>SEGUNDA REGIDURÍA</t>
   </si>
   <si>
-    <t>710 , 1068 ,</t>
-  </si>
-  <si>
-    <t>998,</t>
+    <t>998,1068,</t>
   </si>
   <si>
     <t>TERCER REGIDURÍA</t>
@@ -349,6 +349,12 @@
     <t>CUARTA REGIDURÍA</t>
   </si>
   <si>
+    <t>710 , 2 , 998 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1068, </t>
+  </si>
+  <si>
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
@@ -361,15 +367,9 @@
     <t>SEXTA REGIDURÍA</t>
   </si>
   <si>
-    <t>998,1068,</t>
-  </si>
-  <si>
     <t>SÉPTIMA REGIDURÍA</t>
   </si>
   <si>
-    <t>710 , 2 , 998 ,</t>
-  </si>
-  <si>
     <t>OCTAVA REGIDURÍA</t>
   </si>
   <si>
@@ -385,10 +385,7 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">1018, </t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1064,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -412,25 +409,25 @@
     <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, </t>
   </si>
   <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,</t>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1088,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
+    <t xml:space="preserve">1087, </t>
+  </si>
+  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1084 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1051, 1052, 1075, 1077, 1078, 1079, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1056,1061,1062,1068,1070,</t>
+    <t>2,1154,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1481,10 +1478,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E598EAE2-F633-4F53-8282-92910B851EED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9403D5F1-4A94-475A-B31B-2DEBC7364766}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1494,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1559,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1571,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1602,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="203">
+    <row r="6" spans="1:10" ht="217.5">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1614,19 +1611,19 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
@@ -1644,7 +1641,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
@@ -1653,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1667,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1681,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9">
         <v>41</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1695,29 +1692,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="10">
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9">
         <v>68</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1725,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1737,19 +1736,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9">
         <v>10</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1757,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1767,19 +1766,19 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1787,29 +1786,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="130.5">
@@ -1817,29 +1816,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.5">
@@ -1847,31 +1846,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9">
         <v>35</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1879,31 +1878,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9">
         <v>14</v>
       </c>
-      <c r="I15" s="9">
-        <v>13</v>
-      </c>
       <c r="J15" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1911,19 +1910,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1933,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.5">
@@ -1941,29 +1940,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9">
         <v>37</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1971,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1981,19 +1980,19 @@
         <v>6</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -2001,7 +2000,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2011,16 +2010,16 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>58</v>
@@ -2033,27 +2032,29 @@
       <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="10">
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9">
         <v>7</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="87">
@@ -2061,31 +2062,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="58">
@@ -2093,29 +2094,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2123,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2137,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9">
         <v>14</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="43.5">
@@ -2151,31 +2152,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9">
         <v>35</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2183,13 +2184,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2203,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2211,29 +2212,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9">
         <v>18</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2241,7 +2242,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2251,19 +2252,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9">
         <v>6</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2271,13 +2272,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2287,13 +2288,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9">
         <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2301,7 +2302,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2315,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9">
         <v>4</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2329,7 +2330,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2339,19 +2340,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9">
         <v>40</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2359,7 +2360,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2369,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -2379,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2387,7 +2388,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2403,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2417,7 +2418,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2427,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2437,7 +2438,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2445,19 +2446,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="10">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2473,13 +2474,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2489,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>105</v>
@@ -2532,15 +2533,17 @@
         <v>108</v>
       </c>
       <c r="C37" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="G37" s="6">
         <v>0</v>
       </c>
@@ -2555,13 +2558,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" s="6">
         <v>0</v>
@@ -2571,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9">
         <v>2</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2585,7 +2588,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2601,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9">
         <v>2</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2615,13 +2618,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2647,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2703,23 +2706,21 @@
       <c r="D43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9">
+        <v>46</v>
+      </c>
+      <c r="J43" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="9">
-        <v>45</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2727,31 +2728,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9">
         <v>13</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2759,29 +2760,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="10">
         <v>17</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2789,21 +2790,23 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6"/>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9">
         <v>14</v>
@@ -2819,29 +2822,25 @@
       <c r="B47" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="7">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11">
+        <v>2</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="10">
-        <v>6</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="I47" s="9">
+        <v>362</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="9">
-        <v>347</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2859,22 +2858,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="6">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1419</v>
+        <v>1453</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2885,23 +2884,27 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{C16CC7A1-3009-48FA-A55E-6F64678CDBDD}"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{0E6E6946-D719-4EFC-9DAD-98117FE06452}"/>
-    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{F9BE47DF-8EF9-47F1-A162-401D6B97860C}"/>
-    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{CE13264E-0AEA-46CB-B0C0-5E9D9F510812}"/>
-    <hyperlink ref="D21" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01065-2024-1343_202409051452.pdf" xr:uid="{13F28AB6-F5A2-4DE9-9442-68F888946528}"/>
-    <hyperlink ref="F24" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{44361544-115B-44A5-A784-C34DFA14B051}"/>
-    <hyperlink ref="D26" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{1A8CFBCF-8213-44CF-BB6F-78CEDCAD2D71}"/>
-    <hyperlink ref="F27" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{0286BCFD-EAF2-48F2-A4B3-CDCE815016A4}"/>
-    <hyperlink ref="D28" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{256A81B7-7B17-4B36-BD61-A144F66DE3DF}"/>
-    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01039-2024-75761_202409031207.pdf" xr:uid="{4862AAF5-7358-451D-8D83-4D45CFE3F0F5}"/>
-    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{636062D8-FF30-43D7-BBD2-04EDED08F71F}"/>
-    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{FABAD76B-423B-4950-8982-42B65C35174F}"/>
-    <hyperlink ref="D38" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{48704F29-FA00-4452-9B2C-9BE3AE17A122}"/>
-    <hyperlink ref="D39" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{59AAC1D9-5172-4E65-9C6E-0AE2A53CE6CE}"/>
-    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{3D1BDB8C-59C5-48BD-95D7-1A0AF1A0B3DE}"/>
-    <hyperlink ref="F43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01018-2024-1294_202408281914.pdf" xr:uid="{96CEC9DC-103F-4BDE-8438-721DD98FF8D2}"/>
-    <hyperlink ref="D47" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01084-2024-1354_202409061914.pdf" xr:uid="{6E4A01DA-4173-49FC-82FA-07D4C5B4B7C0}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3E6D74CA-7871-44C7-B9B4-403EABEA3922}"/>
+    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01157-2024-1393_202409131903.pdf" xr:uid="{4AFD86BF-A10C-42A1-8240-91B74A20FFD9}"/>
+    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{09ECB2D1-25FF-4384-BE71-0233D5273D23}"/>
+    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{35055E81-8ADA-4652-BA0C-39282AF59C6C}"/>
+    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{5EA1D56C-2A47-4275-A81C-ED3AB7603CF6}"/>
+    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{70AF4B00-1B85-4B66-A3C0-89D2C168F524}"/>
+    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{D086F11D-A670-421B-97DA-9BBD9C63033C}"/>
+    <hyperlink ref="D20" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01156-2024-1389_202409131902.pdf" xr:uid="{393E9792-516D-46E6-8B93-560FF1D68E49}"/>
+    <hyperlink ref="F24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{3F05C001-405B-4BFD-A249-F40427105CA8}"/>
+    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{3C01F296-5221-4233-90D7-5E6EBE853E16}"/>
+    <hyperlink ref="F27" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{A2B79D9C-E926-4BFC-96B7-CD20D3C2D67C}"/>
+    <hyperlink ref="D28" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{FAD52145-093C-44B3-A67A-FE23237A6295}"/>
+    <hyperlink ref="F30" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01039-2024-75761_202409031207.pdf" xr:uid="{B89D0E04-42B1-4969-A381-811E9FE1242D}"/>
+    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FF496B54-6468-4E58-A0B8-533742D38664}"/>
+    <hyperlink ref="D34" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{50C815CB-2717-4EE3-A344-5DFFE2E3130F}"/>
+    <hyperlink ref="D35" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{23EED7DD-41AD-4288-A344-4350E128DB83}"/>
+    <hyperlink ref="F37" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{497E5554-5B2B-4B02-8E4A-27D6AE3DEA6C}"/>
+    <hyperlink ref="D38" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D8CC4D45-A17A-472B-9144-592ACD76CE5A}"/>
+    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BA0C3940-D85A-488C-A114-0508AFB9886F}"/>
+    <hyperlink ref="D43" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{D6EF29DF-5511-4AFA-A29C-1B658695F567}"/>
+    <hyperlink ref="F46" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{82015B58-669B-4E30-A2DF-5DBFF41D5B81}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747C41EB-0624-4DDE-A64E-06CFAE703F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4761E0-8C9E-4BE2-AB98-C759D4EAAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{18BA2CEC-5642-49F9-A827-0C8102EB3A29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A81496F-DA9A-4F90-A0EC-5A5028EF1C57}"/>
   </bookViews>
   <sheets>
-    <sheet name="reporte_general (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-09-14.</t>
+    <t>De 2024-01-01 al 2024-09-22.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,40 +61,43 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1109, 1146, </t>
-  </si>
-  <si>
-    <t>2,1071,1155,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1088,1108,</t>
+    <t>1192 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1163, 1174, 1180, </t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1166,1173,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1074, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,</t>
+    <t>1194 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1169, 1192, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,</t>
+    <t xml:space="preserve">1169, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>1157 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 963, 1063, 1074, </t>
+    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1166, </t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,</t>
@@ -103,7 +106,7 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, 1034, </t>
+    <t xml:space="preserve">745, 1034, 1166, 1181, </t>
   </si>
   <si>
     <t>190,259,350,476,509,641,655,947,956,960,</t>
@@ -112,7 +115,10 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1101, </t>
+    <t>1179 , 1184 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960, 1101, 1166, 1169, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,</t>
@@ -124,16 +130,16 @@
     <t xml:space="preserve">9, </t>
   </si>
   <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,</t>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -142,52 +148,52 @@
     <t>984 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">967, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,</t>
+    <t xml:space="preserve">967, 1158, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1156 ,</t>
+    <t>845 , 924 ,</t>
   </si>
   <si>
     <t xml:space="preserve">958, </t>
   </si>
   <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,1156,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 982 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1049 , 1110 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 1090, 1091, 1092, 1093, 1094, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1170 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,1049,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 907, 989, 990, 1007, 1017, 1035, 1095, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,</t>
+    <t xml:space="preserve">631, 907, 989, 990, 1017, 1035, 1095, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,1007,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">821, 892, 931, 933, 987, 1087, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,836,894,909,929,1016,</t>
+    <t xml:space="preserve">931, 987, 1087, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,1016,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -196,46 +202,40 @@
     <t xml:space="preserve">752, 1087, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,</t>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
-    <t>1156 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">906, 913, </t>
   </si>
   <si>
-    <t>190,192,350,438,476,691,710,</t>
+    <t>190,192,350,438,476,691,710,1156,1166,</t>
   </si>
   <si>
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1146 , 1157 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">933, 1019, 1020, 1031, 1087, 1088, </t>
   </si>
   <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,1065,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,1065,1146,1157,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">814, 1028, 1051, 1060, 1095, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,824,869,896,897,907,973,974,998,1035,</t>
+    <t xml:space="preserve">1060, 1175, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
   </si>
   <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,</t>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL SMDIF</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">553, </t>
   </si>
   <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,</t>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -256,7 +256,7 @@
     <t>710 , 2 ,</t>
   </si>
   <si>
-    <t>190,350,476,</t>
+    <t>190,350,476,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">1083, </t>
   </si>
   <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,</t>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1166,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">984, </t>
   </si>
   <si>
-    <t>190,350,476,710,955,990,</t>
+    <t>190,350,476,710,955,990,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
@@ -283,28 +283,28 @@
     <t>1077 ,</t>
   </si>
   <si>
-    <t>147,190,350,355,476,582,710,729,836,</t>
+    <t>147,190,350,355,476,582,710,729,836,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASESORES</t>
   </si>
   <si>
-    <t>190,350,476,710,</t>
+    <t>190,350,476,710,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">1039, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,</t>
+    <t xml:space="preserve">1039, 1179, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, 932, 933, 2, </t>
+    <t xml:space="preserve">210, 529, 932, 933, 2, 1166, </t>
   </si>
   <si>
     <t>136,190,350,355,471,476,677,710,718,836,929,</t>
@@ -313,6 +313,9 @@
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
   </si>
   <si>
+    <t xml:space="preserve">1166, </t>
+  </si>
+  <si>
     <t>190,350,366,476,</t>
   </si>
   <si>
@@ -358,10 +361,7 @@
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
-    <t>1068 ,</t>
-  </si>
-  <si>
-    <t>710,998,</t>
+    <t>710,998,1068,</t>
   </si>
   <si>
     <t>SEXTA REGIDURÍA</t>
@@ -373,9 +373,6 @@
     <t>OCTAVA REGIDURÍA</t>
   </si>
   <si>
-    <t>1068,</t>
-  </si>
-  <si>
     <t>NOVENA REGIDURÍA</t>
   </si>
   <si>
@@ -385,13 +382,13 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 ,</t>
+    <t>281 , 939 , 1166 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
@@ -406,7 +403,7 @@
     <t>92 , 1072 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, </t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, 1166, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1088,</t>
@@ -418,16 +415,22 @@
     <t xml:space="preserve">1087, </t>
   </si>
   <si>
+    <t>2,1166,</t>
+  </si>
+  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>2,1154,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,</t>
+    <t xml:space="preserve">1169, 1172, 1177, 1178, 1182, 1184, 1186, </t>
+  </si>
+  <si>
+    <t>2,1185,1189,1193,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1478,10 +1481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9403D5F1-4A94-475A-B31B-2DEBC7364766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C538D63A-9969-4254-8FA5-4D65AA9A7949}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1494,7 +1497,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1539,7 +1542,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1568,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1599,34 +1602,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="217.5">
+    <row r="6" spans="1:10" ht="232">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="116">
@@ -1634,29 +1639,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E7" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" s="9">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1664,27 +1671,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1692,31 +1701,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9">
         <v>68</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1724,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1733,22 +1740,22 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9">
         <v>10</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1756,29 +1763,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" s="9">
         <v>37</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1786,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1796,19 +1805,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="130.5">
@@ -1816,61 +1825,61 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="58">
       <c r="A14" s="6">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1878,31 +1887,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1910,59 +1919,59 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E16" s="10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="43.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="58">
       <c r="A17" s="6">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.5">
@@ -1970,29 +1979,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -2000,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2010,19 +2019,19 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2030,46 +2039,42 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="10">
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="87">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="101.5">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="10">
         <v>6</v>
       </c>
@@ -2080,16 +2085,16 @@
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I21" s="9">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="58">
+    <row r="22" spans="1:10" ht="72.5">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -2101,7 +2106,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>68</v>
@@ -2110,10 +2115,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>69</v>
@@ -2138,16 +2143,16 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I23" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="43.5">
+    <row r="24" spans="1:10" ht="58">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -2170,10 +2175,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>75</v>
@@ -2201,7 +2206,7 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>78</v>
@@ -2214,10 +2219,12 @@
       <c r="B26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E26" s="10">
         <v>1</v>
       </c>
@@ -2228,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>81</v>
@@ -2258,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I27" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>84</v>
@@ -2288,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>87</v>
@@ -2316,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>89</v>
@@ -2337,19 +2344,19 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>92</v>
@@ -2367,7 +2374,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>94</v>
@@ -2396,21 +2403,23 @@
       <c r="D32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6"/>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="G32" s="11">
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2418,7 +2427,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2428,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2438,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2446,19 +2455,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E34" s="10">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2474,7 +2483,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2490,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9">
         <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2504,13 +2513,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2530,19 +2539,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2558,14 +2567,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8" t="s">
         <v>112</v>
       </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6">
         <v>0</v>
       </c>
@@ -2574,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>113</v>
@@ -2604,13 +2611,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I39" s="9">
         <v>2</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2624,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2647,10 +2654,10 @@
         <v>116</v>
       </c>
       <c r="C41" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E41" s="6">
         <v>0</v>
@@ -2661,10 +2668,10 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2672,13 +2679,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="7">
         <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2698,13 +2705,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2714,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2728,31 +2735,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9">
         <v>13</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2760,19 +2767,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="7">
         <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="10">
+        <v>18</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="E45" s="10">
-        <v>17</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2782,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2790,7 +2797,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2800,13 +2807,13 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2</v>
+      </c>
+      <c r="H46" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="G46" s="11">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I46" s="9">
         <v>14</v>
@@ -2826,21 +2833,23 @@
         <v>0</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6"/>
+      <c r="E47" s="10">
+        <v>7</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G47" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I47" s="9">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2858,22 +2867,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C49" s="6">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1453</v>
+        <v>1504</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2884,27 +2893,27 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3E6D74CA-7871-44C7-B9B4-403EABEA3922}"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01157-2024-1393_202409131903.pdf" xr:uid="{4AFD86BF-A10C-42A1-8240-91B74A20FFD9}"/>
-    <hyperlink ref="D10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{09ECB2D1-25FF-4384-BE71-0233D5273D23}"/>
-    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{35055E81-8ADA-4652-BA0C-39282AF59C6C}"/>
-    <hyperlink ref="D14" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{5EA1D56C-2A47-4275-A81C-ED3AB7603CF6}"/>
-    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{70AF4B00-1B85-4B66-A3C0-89D2C168F524}"/>
-    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{D086F11D-A670-421B-97DA-9BBD9C63033C}"/>
-    <hyperlink ref="D20" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01156-2024-1389_202409131902.pdf" xr:uid="{393E9792-516D-46E6-8B93-560FF1D68E49}"/>
-    <hyperlink ref="F24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{3F05C001-405B-4BFD-A249-F40427105CA8}"/>
-    <hyperlink ref="F26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{3C01F296-5221-4233-90D7-5E6EBE853E16}"/>
-    <hyperlink ref="F27" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{A2B79D9C-E926-4BFC-96B7-CD20D3C2D67C}"/>
-    <hyperlink ref="D28" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{FAD52145-093C-44B3-A67A-FE23237A6295}"/>
-    <hyperlink ref="F30" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01039-2024-75761_202409031207.pdf" xr:uid="{B89D0E04-42B1-4969-A381-811E9FE1242D}"/>
-    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{FF496B54-6468-4E58-A0B8-533742D38664}"/>
-    <hyperlink ref="D34" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{50C815CB-2717-4EE3-A344-5DFFE2E3130F}"/>
-    <hyperlink ref="D35" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{23EED7DD-41AD-4288-A344-4350E128DB83}"/>
-    <hyperlink ref="F37" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{497E5554-5B2B-4B02-8E4A-27D6AE3DEA6C}"/>
-    <hyperlink ref="D38" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D8CC4D45-A17A-472B-9144-592ACD76CE5A}"/>
-    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{BA0C3940-D85A-488C-A114-0508AFB9886F}"/>
-    <hyperlink ref="D43" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{D6EF29DF-5511-4AFA-A29C-1B658695F567}"/>
-    <hyperlink ref="F46" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{82015B58-669B-4E30-A2DF-5DBFF41D5B81}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6A90C336-6E02-46C6-9CC4-FB595FE9786D}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01192-2024-seminariosecfinanzas_202409201832.pdf" xr:uid="{15DAD05F-6392-4CFB-AC96-2579BF7767AE}"/>
+    <hyperlink ref="D7" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01194-2024-1417_202409201918.pdf" xr:uid="{6A0C4058-A3F1-441F-8C16-7BFC67A1FA30}"/>
+    <hyperlink ref="F8" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01169-2024-1397_202409181933.pdf" xr:uid="{055F7FFA-9696-4A9A-A7BA-14DFC1736971}"/>
+    <hyperlink ref="D10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{560BEA15-DA84-469F-B1BC-E47569AA8532}"/>
+    <hyperlink ref="F12" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{CB081E56-30AD-4D93-BD68-46D03829A635}"/>
+    <hyperlink ref="D14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{702D7F13-DE02-4656-9B2D-C7D62ECE8AB5}"/>
+    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{5D8AFB81-E4AB-4168-B7E6-149868C74923}"/>
+    <hyperlink ref="F24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{1CECEF78-E5B7-4356-BCB5-CA82F10CE4F4}"/>
+    <hyperlink ref="D26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01194-2024-1417_202409201918.pdf" xr:uid="{6BE0E28B-E6CE-48BB-BFA5-114643B1AD08}"/>
+    <hyperlink ref="F26" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{EE7FD5DE-C045-43D5-B620-15214B1B9AEC}"/>
+    <hyperlink ref="F27" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{C5AE04C5-EEDD-4894-82B7-FF0144F42426}"/>
+    <hyperlink ref="D28" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{8F92DAEA-4BCA-4EC9-AB33-A8590F2A6EDD}"/>
+    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E6CDC1F3-B328-441A-AF03-EA6ECDD3D996}"/>
+    <hyperlink ref="F32" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01166-2024-circular03_202409172004.pdf" xr:uid="{D8AB6875-23BE-4023-B828-C60BCC60ED4A}"/>
+    <hyperlink ref="D34" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F732240E-A09E-435E-828C-C2E416DDD788}"/>
+    <hyperlink ref="D35" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{9D458BD8-B1FE-4A39-A399-C8911EB105C0}"/>
+    <hyperlink ref="F37" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D3CB2CE7-3E3C-457A-8A79-E84895FB0EB6}"/>
+    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{214867F2-45BA-4270-970E-0B78678E2028}"/>
+    <hyperlink ref="D43" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{23106D8B-4259-455C-860A-1EC03CAEEF24}"/>
+    <hyperlink ref="F46" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{68520B4E-0937-4CA4-9D5E-FA4B78FF5E5B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E4761E0-8C9E-4BE2-AB98-C759D4EAAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEBEF33-0362-4644-A655-D40181781236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A81496F-DA9A-4F90-A0EC-5A5028EF1C57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B17C6B5E-D0C8-4FEF-9D00-6A59FCD0508B}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-09-22.</t>
+    <t>De 2024-01-01 al 2024-09-29.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,37 +61,31 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1192 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1163, 1174, 1180, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1163, 1214, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1166,1173,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1166,1173,1174,1180,1192,1205,1210,1212,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t>1194 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1169, 1192, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,</t>
+    <t>1227 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1169, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1192,1194,1203,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1169, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
@@ -106,22 +100,19 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, 1034, 1166, 1181, </t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,947,956,960,</t>
+    <t xml:space="preserve">745, 1034, 1181, 1211, </t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,947,956,960,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t>1179 , 1184 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960, 1101, 1166, 1169, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,</t>
+    <t xml:space="preserve">960, 1101, 1166, 1184, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1169,1179,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -136,7 +127,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, </t>
+    <t>1226 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, 1204, </t>
   </si>
   <si>
     <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1166,</t>
@@ -145,13 +139,13 @@
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
   </si>
   <si>
-    <t>984 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967, 1158, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1166,</t>
+    <t>984 , 1227 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967, 1195, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -172,7 +166,7 @@
     <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1170 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, </t>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, 1217, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,1049,</t>
@@ -190,10 +184,10 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 987, 1087, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,1016,1166,</t>
+    <t xml:space="preserve">931, 1087, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -217,7 +211,10 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">933, 1019, 1020, 1031, 1087, 1088, </t>
+    <t xml:space="preserve">933, 1019, 1020, 1031, 1088, 1214, </t>
+  </si>
+  <si>
+    <t>2,1087,</t>
   </si>
   <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,1065,1146,1157,1166,</t>
@@ -226,10 +223,10 @@
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1060, 1175, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,</t>
+    <t xml:space="preserve">1060, 1207, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,1175,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -244,7 +241,7 @@
     <t>961 , 1076 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">553, </t>
+    <t xml:space="preserve">553, 1199, </t>
   </si>
   <si>
     <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
@@ -262,7 +259,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1083, </t>
+    <t xml:space="preserve">1083, 1194, </t>
   </si>
   <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1166,</t>
@@ -295,19 +292,19 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">1039, 1179, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1166,</t>
+    <t>2,1039,</t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1166,1179,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, 932, 933, 2, 1166, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,677,710,718,836,929,</t>
+    <t xml:space="preserve">210, 529, 932, 933, 2, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,718,836,929,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
@@ -388,25 +385,25 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 1166 ,</t>
+    <t>281 , 939 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
   </si>
   <si>
-    <t>120,155,173,179,190,214,350,397,476,504,710,777,934,</t>
+    <t>120,155,173,179,190,214,350,397,476,504,710,777,934,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, 1166, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1088,</t>
+    <t>92 , 1072 , 1225 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
@@ -415,22 +412,16 @@
     <t xml:space="preserve">1087, </t>
   </si>
   <si>
-    <t>2,1166,</t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1166,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">1169, 1172, 1177, 1178, 1182, 1184, 1186, </t>
-  </si>
-  <si>
-    <t>2,1185,1189,1193,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,</t>
+    <t xml:space="preserve">1196, 1216, 1222, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1197,1198,1200,1201,1202,1203,1209,1213,1215,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1481,10 +1472,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C538D63A-9969-4254-8FA5-4D65AA9A7949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E4DF4F-B841-4A96-BABA-195E56B5ADA4}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1488,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1542,7 +1533,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1571,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1609,29 +1600,27 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>186</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>180</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="116">
@@ -1639,31 +1628,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9">
+        <v>90</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9">
-        <v>87</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1671,29 +1660,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9">
+        <v>43</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="9">
-        <v>42</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1701,29 +1688,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="10">
         <v>6</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="9">
         <v>68</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1731,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1743,19 +1732,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1763,31 +1752,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="10">
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1795,7 +1782,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1805,19 +1792,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="9">
         <v>20</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="130.5">
@@ -1825,29 +1812,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="9">
         <v>108</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1855,31 +1844,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="10">
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1887,31 +1876,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="9">
         <v>16</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1919,19 +1908,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1941,7 +1930,7 @@
         <v>41</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1949,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1959,49 +1948,49 @@
         <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="9">
         <v>39</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="43.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="58">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -2009,7 +1998,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2019,19 +2008,19 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="9">
         <v>22</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2039,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2049,19 +2038,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I20" s="9">
         <v>9</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="101.5">
@@ -2069,7 +2058,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -2079,19 +2068,19 @@
         <v>6</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9">
         <v>74</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2099,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2109,19 +2098,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9">
+        <v>51</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="9">
-        <v>50</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2129,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2143,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I23" s="9">
         <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2157,31 +2146,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>74</v>
-      </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="9">
         <v>37</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2189,13 +2178,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2209,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2217,31 +2206,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I26" s="9">
         <v>19</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2249,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2259,19 +2246,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I27" s="9">
         <v>7</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2279,13 +2266,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2295,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I28" s="9">
         <v>10</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2309,7 +2296,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2323,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="9">
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2337,57 +2324,57 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="I30" s="9">
+        <v>42</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="9">
-        <v>41</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:10" ht="29">
       <c r="A31" s="6">
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2395,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2407,19 +2394,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I32" s="9">
         <v>4</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2427,7 +2414,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2437,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2447,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2455,19 +2442,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="E34" s="10">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2483,7 +2470,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2499,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="9">
         <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2513,13 +2500,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2539,19 +2526,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2567,7 +2554,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2581,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="9">
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2595,7 +2582,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2611,13 +2598,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="9">
         <v>2</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2625,13 +2612,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2651,27 +2638,27 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6"/>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2679,13 +2666,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="7">
         <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2705,13 +2692,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2721,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="9">
         <v>47</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2735,31 +2722,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C44" s="7">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="9">
+        <v>14</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="9">
-        <v>13</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2767,29 +2754,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="10">
+        <v>16</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E45" s="10">
-        <v>18</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2797,7 +2784,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2807,19 +2794,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9">
+        <v>15</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="G46" s="11">
-        <v>2</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="I46" s="9">
-        <v>14</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2827,29 +2814,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G47" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="I47" s="9">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2867,22 +2854,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1504</v>
+        <v>1547</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2893,27 +2880,24 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{6A90C336-6E02-46C6-9CC4-FB595FE9786D}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01192-2024-seminariosecfinanzas_202409201832.pdf" xr:uid="{15DAD05F-6392-4CFB-AC96-2579BF7767AE}"/>
-    <hyperlink ref="D7" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01194-2024-1417_202409201918.pdf" xr:uid="{6A0C4058-A3F1-441F-8C16-7BFC67A1FA30}"/>
-    <hyperlink ref="F8" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01169-2024-1397_202409181933.pdf" xr:uid="{055F7FFA-9696-4A9A-A7BA-14DFC1736971}"/>
-    <hyperlink ref="D10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{560BEA15-DA84-469F-B1BC-E47569AA8532}"/>
-    <hyperlink ref="F12" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{CB081E56-30AD-4D93-BD68-46D03829A635}"/>
-    <hyperlink ref="D14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{702D7F13-DE02-4656-9B2D-C7D62ECE8AB5}"/>
-    <hyperlink ref="F15" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{5D8AFB81-E4AB-4168-B7E6-149868C74923}"/>
-    <hyperlink ref="F24" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00553-2024-dipjusticiarest_202404301751.pdf" xr:uid="{1CECEF78-E5B7-4356-BCB5-CA82F10CE4F4}"/>
-    <hyperlink ref="D26" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01194-2024-1417_202409201918.pdf" xr:uid="{6BE0E28B-E6CE-48BB-BFA5-114643B1AD08}"/>
-    <hyperlink ref="F26" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01083-2024-1353_202409061914.pdf" xr:uid="{EE7FD5DE-C045-43D5-B620-15214B1B9AEC}"/>
-    <hyperlink ref="F27" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{C5AE04C5-EEDD-4894-82B7-FF0144F42426}"/>
-    <hyperlink ref="D28" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{8F92DAEA-4BCA-4EC9-AB33-A8590F2A6EDD}"/>
-    <hyperlink ref="D32" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E6CDC1F3-B328-441A-AF03-EA6ECDD3D996}"/>
-    <hyperlink ref="F32" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01166-2024-circular03_202409172004.pdf" xr:uid="{D8AB6875-23BE-4023-B828-C60BCC60ED4A}"/>
-    <hyperlink ref="D34" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F732240E-A09E-435E-828C-C2E416DDD788}"/>
-    <hyperlink ref="D35" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{9D458BD8-B1FE-4A39-A399-C8911EB105C0}"/>
-    <hyperlink ref="F37" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{D3CB2CE7-3E3C-457A-8A79-E84895FB0EB6}"/>
-    <hyperlink ref="D39" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{214867F2-45BA-4270-970E-0B78678E2028}"/>
-    <hyperlink ref="D43" r:id="rId20" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{23106D8B-4259-455C-860A-1EC03CAEEF24}"/>
-    <hyperlink ref="F46" r:id="rId21" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{68520B4E-0937-4CA4-9D5E-FA4B78FF5E5B}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3ED17078-46AD-4B08-B06B-D2E57F62C25B}"/>
+    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01227-2024-1449_202409271911.pdf" xr:uid="{D65807FF-318B-4327-B0D0-E7D38E4C733C}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01227-2024-1449_202409271911.pdf" xr:uid="{4E85D55A-8A67-47A3-A101-B3FAC97B09FC}"/>
+    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{88875EDD-3CA3-4C71-BFCF-6C5F122AE59C}"/>
+    <hyperlink ref="F12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{097B8288-C836-48B1-9708-512F79689860}"/>
+    <hyperlink ref="D13" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{9E50443D-8394-4221-B210-8F41D0D498D3}"/>
+    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{ED594F47-95CE-4E1F-8FA1-76E6AC56DDD5}"/>
+    <hyperlink ref="F27" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{B9311489-42F4-45B4-B82C-9914A6FA8A5E}"/>
+    <hyperlink ref="D28" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{187B766D-6E95-4571-932B-ACDF74668287}"/>
+    <hyperlink ref="D30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D5AAAF15-232E-49E3-85A6-5751BBE37B76}"/>
+    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B55D514C-32A7-4EC9-9C82-01561D7C9314}"/>
+    <hyperlink ref="F32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01166-2024-circular03_202409172004.pdf" xr:uid="{4F994453-C271-4310-B396-399E85BBBEF6}"/>
+    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{4C51B15C-CC46-45FE-8034-459B93EBE208}"/>
+    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E007B512-E845-4F07-8473-4E94D2985255}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{7F5D9ED3-820F-4D98-AFAA-E792AEEF37F2}"/>
+    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{85F5B295-FD1C-4301-B6FA-F3BE77F0B6F6}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{4B03BB86-C968-475A-BF6B-22198F87FBF0}"/>
+    <hyperlink ref="F46" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{C3B9B33F-2486-4590-9CCD-E10F5FBC0149}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEBEF33-0362-4644-A655-D40181781236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E5941B-D468-45BD-87A3-8C0E8F47838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B17C6B5E-D0C8-4FEF-9D00-6A59FCD0508B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{697F349B-4035-4777-8B0C-2B8CC1EF0B31}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-09-29.</t>
+    <t>De 2024-01-01 al 2024-10-06.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,25 +61,25 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1163, 1214, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1166,1173,1174,1180,1192,1205,1210,1212,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t>1227 ,</t>
+    <t>1264 ,</t>
   </si>
   <si>
     <t xml:space="preserve">278, 835, 931, 1054, 1067, 1169, </t>
   </si>
   <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1192,1194,1203,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1192,1194,1203,1227,1240,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
@@ -91,28 +91,28 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1166, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,</t>
+    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1227, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">745, 1034, 1181, 1211, </t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,947,956,960,1166,</t>
+    <t xml:space="preserve">745, 1034, 1211, </t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,947,956,960,1166,1181,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1101, 1166, 1184, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1169,1179,</t>
+    <t xml:space="preserve">960, 1101, 1184, 1254, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -127,13 +127,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>1226 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, 1204, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1166,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, 1204, 1226, 1247, 1259, 1260, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1166,1240,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -142,10 +139,10 @@
     <t>984 , 1227 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">967, 1195, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,</t>
+    <t xml:space="preserve">967, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1240,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -154,22 +151,19 @@
     <t>845 , 924 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">958, </t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,1156,1166,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1170 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, 1217, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,869,1049,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
@@ -184,10 +178,10 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 1087, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1166,</t>
+    <t xml:space="preserve">931, 1249, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
@@ -202,31 +196,28 @@
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">906, 913, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,691,710,1156,1166,</t>
+    <t xml:space="preserve">906, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,691,710,913,1156,1166,</t>
   </si>
   <si>
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">933, 1019, 1020, 1031, 1088, 1214, </t>
-  </si>
-  <si>
-    <t>2,1087,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,972,981,998,1012,1065,1146,1157,1166,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1060, 1207, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,1175,</t>
+    <t xml:space="preserve">1060, </t>
+  </si>
+  <si>
+    <t>2,1207,</t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,1175,1248,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -259,10 +250,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1083, 1194, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1166,</t>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -277,10 +265,7 @@
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
   </si>
   <si>
-    <t>1077 ,</t>
-  </si>
-  <si>
-    <t>147,190,350,355,476,582,710,729,836,1166,</t>
+    <t>147,190,350,355,476,582,710,729,836,1077,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ASESORES</t>
@@ -292,16 +277,16 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>2,1039,</t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1166,1179,</t>
+    <t xml:space="preserve">1226, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">210, 529, 932, 933, 2, </t>
+    <t xml:space="preserve">210, 529, 932, 933, </t>
   </si>
   <si>
     <t>136,190,350,355,471,476,677,710,718,836,929,1166,</t>
@@ -310,10 +295,7 @@
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1166, </t>
-  </si>
-  <si>
-    <t>190,350,366,476,</t>
+    <t>190,350,366,476,1166,</t>
   </si>
   <si>
     <t>SÍNDICATURA MUNICIPAL</t>
@@ -379,6 +361,9 @@
     <t>699 ,</t>
   </si>
   <si>
+    <t xml:space="preserve">1247, </t>
+  </si>
+  <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,</t>
   </si>
   <si>
@@ -397,10 +382,10 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 , 1225 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, </t>
+    <t>92 , 1072 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
@@ -409,19 +394,22 @@
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1087, </t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1166,</t>
+    <t xml:space="preserve">1260, </t>
+  </si>
+  <si>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">1196, 1216, 1222, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1197,1198,1200,1201,1202,1203,1209,1213,1215,</t>
+    <t>1265 , 1266 , 1267 , 1268 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1258, 1261, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1263,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1472,10 +1460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E4DF4F-B841-4A96-BABA-195E56B5ADA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CAD989-5F4E-4D9C-BF2D-BD48EBAC4BCC}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1550,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1562,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1593,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="232">
+    <row r="6" spans="1:10" ht="246.5">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -1605,7 +1593,7 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -1617,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
@@ -1649,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>19</v>
@@ -1709,13 +1697,13 @@
         <v>14</v>
       </c>
       <c r="I9" s="9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="29">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -1729,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>26</v>
@@ -1741,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>27</v>
@@ -1771,7 +1759,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>30</v>
@@ -1814,29 +1802,27 @@
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="9">
+        <v>109</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="9">
-        <v>108</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1844,31 +1830,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9">
+        <v>39</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9">
-        <v>37</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1876,31 +1862,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1908,29 +1892,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="10">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1938,7 +1922,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1948,7 +1932,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
@@ -1960,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1968,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1978,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -1987,10 +1971,10 @@
         <v>14</v>
       </c>
       <c r="I18" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1998,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2008,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -2020,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2028,17 +2012,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="10">
-        <v>2</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -2047,10 +2031,10 @@
         <v>14</v>
       </c>
       <c r="I20" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="101.5">
@@ -2058,29 +2042,27 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="10">
-        <v>6</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I21" s="9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2088,29 +2070,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="11">
         <v>2</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2118,7 +2100,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2138,7 +2120,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2146,19 +2128,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -2170,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2178,13 +2160,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2198,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2206,18 +2188,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="11">
         <v>1</v>
       </c>
@@ -2225,10 +2205,10 @@
         <v>14</v>
       </c>
       <c r="I26" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2236,7 +2216,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2246,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
@@ -2258,7 +2238,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2266,14 +2246,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <v>0</v>
       </c>
@@ -2285,10 +2263,10 @@
         <v>14</v>
       </c>
       <c r="I28" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2296,7 +2274,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2316,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2324,29 +2302,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="I30" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2354,27 +2332,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="9">
         <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2382,7 +2362,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2390,12 +2370,10 @@
       <c r="D32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>96</v>
-      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="11">
         <v>1</v>
       </c>
@@ -2403,10 +2381,10 @@
         <v>14</v>
       </c>
       <c r="I32" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2414,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2424,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2434,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2442,19 +2420,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E34" s="10">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2470,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2492,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2500,13 +2478,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C36" s="7">
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2526,19 +2504,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2554,7 +2532,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2574,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2582,7 +2560,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -2604,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2612,13 +2590,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7">
         <v>3</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2638,7 +2616,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2658,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2666,13 +2644,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C42" s="7">
         <v>4</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2692,18 +2670,20 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="G43" s="11">
         <v>1</v>
       </c>
@@ -2714,7 +2694,7 @@
         <v>47</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2722,19 +2702,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
@@ -2746,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2754,19 +2734,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E45" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2776,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2784,7 +2764,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2794,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G46" s="11">
         <v>1</v>
@@ -2803,10 +2783,10 @@
         <v>14</v>
       </c>
       <c r="I46" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2814,17 +2794,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E47" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G47" s="11">
         <v>1</v>
@@ -2833,10 +2815,10 @@
         <v>14</v>
       </c>
       <c r="I47" s="9">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2854,14 +2836,14 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C49" s="6">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
@@ -2869,7 +2851,7 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1547</v>
+        <v>1591</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2880,24 +2862,24 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{3ED17078-46AD-4B08-B06B-D2E57F62C25B}"/>
-    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01227-2024-1449_202409271911.pdf" xr:uid="{D65807FF-318B-4327-B0D0-E7D38E4C733C}"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01227-2024-1449_202409271911.pdf" xr:uid="{4E85D55A-8A67-47A3-A101-B3FAC97B09FC}"/>
-    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{88875EDD-3CA3-4C71-BFCF-6C5F122AE59C}"/>
-    <hyperlink ref="F12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{097B8288-C836-48B1-9708-512F79689860}"/>
-    <hyperlink ref="D13" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{9E50443D-8394-4221-B210-8F41D0D498D3}"/>
-    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00958-2024-3202024.pdf" xr:uid="{ED594F47-95CE-4E1F-8FA1-76E6AC56DDD5}"/>
-    <hyperlink ref="F27" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{B9311489-42F4-45B4-B82C-9914A6FA8A5E}"/>
-    <hyperlink ref="D28" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01077-2024-Infoem.pdf" xr:uid="{187B766D-6E95-4571-932B-ACDF74668287}"/>
-    <hyperlink ref="D30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D5AAAF15-232E-49E3-85A6-5751BBE37B76}"/>
-    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{B55D514C-32A7-4EC9-9C82-01561D7C9314}"/>
-    <hyperlink ref="F32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01166-2024-circular03_202409172004.pdf" xr:uid="{4F994453-C271-4310-B396-399E85BBBEF6}"/>
-    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{4C51B15C-CC46-45FE-8034-459B93EBE208}"/>
-    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{E007B512-E845-4F07-8473-4E94D2985255}"/>
-    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{7F5D9ED3-820F-4D98-AFAA-E792AEEF37F2}"/>
-    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{85F5B295-FD1C-4301-B6FA-F3BE77F0B6F6}"/>
-    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{4B03BB86-C968-475A-BF6B-22198F87FBF0}"/>
-    <hyperlink ref="F46" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{C3B9B33F-2486-4590-9CCD-E10F5FBC0149}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D18F9C85-9A47-40D6-ADBC-1AE248295B2E}"/>
+    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01264-2024-dep1478_202410041842.pdf" xr:uid="{B12E5DE7-E8DE-4DFB-8C3F-EB54F67E7844}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01264-2024-dep1478_202410041842.pdf" xr:uid="{2F3C693B-0F21-4686-ADAD-B3D0A678D87B}"/>
+    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{261E69BA-C431-4987-8828-B20EBFCFC88B}"/>
+    <hyperlink ref="F12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{8AE40A38-CA2A-492D-8B6E-55E4D7803BFD}"/>
+    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{C8E0C731-E4D8-4B65-B482-D67BB1E0BCFF}"/>
+    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{F26117E1-EE52-4778-B1A9-456FBEDE3F0A}"/>
+    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01060-2024-comision058_202409041746.pdf" xr:uid="{1A6DD966-8BCC-4D3E-8785-D46C6825D74B}"/>
+    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{DD8994D4-5037-406A-AC86-335700BA84D2}"/>
+    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D6B4D6E9-8258-46DF-AEB2-DF4084139049}"/>
+    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4367FC10-7CC1-4F1E-971E-E464FD9342D7}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{22695C0E-29DC-46BC-9103-48A250BA99E9}"/>
+    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8F06B954-D231-4B76-A906-068623235349}"/>
+    <hyperlink ref="F37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{660889BF-972D-44F8-BD82-1EF831382634}"/>
+    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EA5652C2-8F5D-4D96-948D-19AE8E4252E7}"/>
+    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{C4D6FA74-7ECB-4C92-A859-FF3B054B31FC}"/>
+    <hyperlink ref="F43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01247-2024-encuestanacional_202410021124.pdf" xr:uid="{59E9E86A-F8E1-4EDF-B4CC-09B374125FFE}"/>
+    <hyperlink ref="F46" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01260-2024-1464_202410032007.pdf" xr:uid="{CA9A9CC4-B415-4899-BE0A-A13A97F1687A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E5941B-D468-45BD-87A3-8C0E8F47838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E9A06B-1092-453B-85B8-6FE5AF717D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{697F349B-4035-4777-8B0C-2B8CC1EF0B31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7994A360-BFF3-4E26-B65C-C02703A91479}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-10-06.</t>
+    <t>De 2024-01-01 al 2024-10-13.</t>
   </si>
   <si>
     <t>No.</t>
@@ -52,249 +52,258 @@
     <t>SECRETARÍA TÉCNICA DE PRESIDENCIA</t>
   </si>
   <si>
+    <t>350,476,521,710,</t>
+  </si>
+  <si>
+    <t>TESORERÍA</t>
+  </si>
+  <si>
+    <t>1282 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1292, 1293, </t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1291,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1264, 1289, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
+  </si>
+  <si>
+    <t>CONSEJERÍA JURÍDICO</t>
+  </si>
+  <si>
+    <t>1299 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1227, 1264, 1277, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBERNACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1211, </t>
+  </si>
+  <si>
+    <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960, 1101, 1184, 1294, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
+  </si>
+  <si>
+    <t>1306 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1226, 1259, 1260, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1240,1247,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
+  </si>
+  <si>
+    <t>984 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967, </t>
+  </si>
+  <si>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1227,1240,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CULTURA</t>
+  </si>
+  <si>
+    <t>845 , 924 , 1299 ,</t>
+  </si>
+  <si>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
+  </si>
+  <si>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1295 , 1296 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631, 990, 1017, 1035, 1095, 1300, </t>
+  </si>
+  <si>
+    <t>907,2,989,</t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,1007,1166,1295,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">931, 1249, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">752, 1087, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE EDUCACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">906, </t>
+  </si>
+  <si>
+    <t>190,192,350,438,476,691,710,913,1156,1166,</t>
+  </si>
+  <si>
+    <t>CONTRALORÍA MUNICIPAL</t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL OPDAPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1273, 1293, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL IMCUFIDEM</t>
+  </si>
+  <si>
+    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL SMDIF</t>
+  </si>
+  <si>
+    <t>961 , 1076 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553, 1199, 1275, </t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
+  </si>
+  <si>
+    <t>710 , 2 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,1166,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1272, 1288, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,</t>
+  </si>
+  <si>
+    <t>GERENCIA DE LA CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">984, </t>
+  </si>
+  <si>
+    <t>190,350,476,710,955,990,1166,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
+  </si>
+  <si>
+    <t>147,190,350,355,476,582,710,729,836,1077,1166,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASESORES</t>
+  </si>
+  <si>
+    <t>190,350,476,710,1166,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1226, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210, 529, 932, 933, </t>
+  </si>
+  <si>
+    <t>136,190,350,355,471,476,677,710,718,836,929,1166,</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
+  </si>
+  <si>
     <t>710 ,</t>
   </si>
   <si>
-    <t>350,476,521,</t>
-  </si>
-  <si>
-    <t>TESORERÍA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t>1264 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1169, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1192,1194,1203,1227,1240,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
-  </si>
-  <si>
-    <t>CONSEJERÍA JURÍDICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1227, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBERNACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745, 1034, 1211, </t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,947,956,960,1166,1181,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960, 1101, 1184, 1254, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1158, 1183, 1204, 1226, 1247, 1259, 1260, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1166,1240,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
-  </si>
-  <si>
-    <t>984 , 1227 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1240,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CULTURA</t>
-  </si>
-  <si>
-    <t>845 , 924 ,</t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
-  </si>
-  <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631, 907, 989, 990, 1017, 1035, 1095, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,1007,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">931, 1249, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">752, 1087, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE EDUCACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">906, </t>
-  </si>
-  <si>
-    <t>190,192,350,438,476,691,710,913,1156,1166,</t>
-  </si>
-  <si>
-    <t>CONTRALORÍA MUNICIPAL</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL OPDAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1060, </t>
-  </si>
-  <si>
-    <t>2,1207,</t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1095,1166,1175,1248,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL IMCUFIDEM</t>
-  </si>
-  <si>
-    <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL SMDIF</t>
-  </si>
-  <si>
-    <t>961 , 1076 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 1199, </t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
-  </si>
-  <si>
-    <t>710 , 2 ,</t>
-  </si>
-  <si>
-    <t>190,350,476,1166,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,</t>
-  </si>
-  <si>
-    <t>GERENCIA DE LA CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">984, </t>
-  </si>
-  <si>
-    <t>190,350,476,710,955,990,1166,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
-  </si>
-  <si>
-    <t>147,190,350,355,476,582,710,729,836,1077,1166,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASESORES</t>
-  </si>
-  <si>
-    <t>190,350,476,710,1166,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1226, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210, 529, 932, 933, </t>
-  </si>
-  <si>
-    <t>136,190,350,355,471,476,677,710,718,836,929,1166,</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
-  </si>
-  <si>
     <t>190,350,366,476,1166,</t>
   </si>
   <si>
@@ -361,10 +370,7 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">1247, </t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -385,7 +391,7 @@
     <t>92 , 1072 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, </t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
@@ -394,22 +400,19 @@
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1260, </t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1265 , 1266 , 1267 , 1268 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1258, 1261, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1263,</t>
+    <t>1303 , 1304 , 1305 , 1307 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1286, 1290, 1297, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1298,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -793,13 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E4BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,10 +1055,10 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CAD989-5F4E-4D9C-BF2D-BD48EBAC4BCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD20AEE-C2BF-48A2-9D8E-1C4D35296234}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1476,7 +1479,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1538,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1550,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1560,12 +1563,10 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6">
         <v>0</v>
       </c>
@@ -1574,11 +1575,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>11</v>
+      <c r="I5" s="7">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="246.5">
@@ -1586,14 +1587,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
       <c r="E6" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
@@ -1604,10 +1607,10 @@
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="9">
-        <v>191</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="7">
+        <v>193</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1618,29 +1621,27 @@
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>93</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="9">
-        <v>92</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1648,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1664,11 +1665,11 @@
       <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>43</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>21</v>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1676,16 +1677,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>23</v>
@@ -1696,10 +1697,10 @@
       <c r="H9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>69</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1710,16 +1711,14 @@
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="11">
@@ -1728,10 +1727,10 @@
       <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="9">
-        <v>12</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1758,10 +1757,10 @@
       <c r="H11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9">
-        <v>40</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="7">
+        <v>41</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1788,29 +1787,31 @@
       <c r="H12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>20</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="130.5">
+    <row r="13" spans="1:10" ht="145">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
@@ -1818,11 +1819,11 @@
       <c r="H13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="9">
-        <v>109</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>36</v>
+      <c r="I13" s="7">
+        <v>112</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1830,19 +1831,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="10">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -1850,11 +1851,11 @@
       <c r="H14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="9">
-        <v>39</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="7">
         <v>40</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1862,13 +1863,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1880,11 +1881,11 @@
       <c r="H15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="9">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>43</v>
+      <c r="I15" s="7">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1892,29 +1893,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>17</v>
-      </c>
-      <c r="D16" s="7" t="s">
         <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="10">
         <v>16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>48</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>47</v>
+      <c r="J16" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1922,29 +1923,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9">
-        <v>39</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="I17" s="7">
+        <v>40</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1952,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1962,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
@@ -1970,11 +1971,11 @@
       <c r="H18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>38</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>53</v>
+      <c r="J18" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1982,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1992,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -2000,11 +2001,11 @@
       <c r="H19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>22</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>56</v>
+      <c r="J19" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2012,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2022,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -2030,19 +2031,19 @@
       <c r="H20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>10</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="101.5">
+      <c r="J20" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="116">
       <c r="A21" s="6">
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -2058,11 +2059,11 @@
       <c r="H21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="9">
-        <v>81</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>61</v>
+      <c r="I21" s="7">
+        <v>82</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2070,29 +2071,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G22" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="9">
-        <v>52</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="I22" s="7">
+        <v>54</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2100,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2116,11 +2117,11 @@
       <c r="H23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>15</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>67</v>
+      <c r="J23" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2128,19 +2129,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="7">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>69</v>
+      <c r="D24" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
@@ -2148,11 +2149,11 @@
       <c r="H24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>37</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>71</v>
+      <c r="J24" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2160,13 +2161,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>73</v>
+      <c r="D25" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2176,11 +2177,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <v>4</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>74</v>
+      <c r="J25" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2188,27 +2189,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
+      <c r="E26" s="10">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="7">
         <v>21</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>76</v>
+      <c r="J26" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2216,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2226,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
@@ -2234,11 +2237,11 @@
       <c r="H27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>7</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>79</v>
+      <c r="J27" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2246,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2262,11 +2265,11 @@
       <c r="H28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>11</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>81</v>
+      <c r="J28" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2274,7 +2277,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2290,11 +2293,11 @@
       <c r="H29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>5</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>83</v>
+      <c r="J29" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2302,17 +2305,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
@@ -2320,11 +2325,11 @@
       <c r="H30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <v>43</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>86</v>
+      <c r="J30" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2332,7 +2337,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2342,7 +2347,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G31" s="11">
         <v>1</v>
@@ -2350,11 +2355,11 @@
       <c r="H31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>12</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>89</v>
+      <c r="J31" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2362,13 +2367,13 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -2380,11 +2385,11 @@
       <c r="H32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>5</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>91</v>
+      <c r="J32" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2392,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2402,17 +2407,17 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>4</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>94</v>
+      <c r="J33" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2420,19 +2425,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="10">
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2448,13 +2453,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
@@ -2466,11 +2471,11 @@
       <c r="H35" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>2</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>99</v>
+      <c r="J35" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2478,13 +2483,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="7">
+        <v>103</v>
+      </c>
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>101</v>
+      <c r="D36" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2504,19 +2509,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="7">
+        <v>105</v>
+      </c>
+      <c r="C37" s="8">
         <v>3</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>103</v>
+      <c r="D37" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2532,7 +2537,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2548,11 +2553,11 @@
       <c r="H38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <v>3</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>106</v>
+      <c r="J38" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2560,13 +2565,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
@@ -2578,11 +2583,11 @@
       <c r="H39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>2</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>99</v>
+      <c r="J39" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2590,13 +2595,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="7">
+        <v>111</v>
+      </c>
+      <c r="C40" s="8">
         <v>3</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>103</v>
+      <c r="D40" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2616,7 +2621,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2632,11 +2637,11 @@
       <c r="H41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>3</v>
       </c>
-      <c r="J41" s="9" t="s">
-        <v>106</v>
+      <c r="J41" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2644,13 +2649,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="7">
+        <v>113</v>
+      </c>
+      <c r="C42" s="8">
         <v>4</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>101</v>
+      <c r="D42" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2665,36 +2670,34 @@
       </c>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" ht="58">
+    <row r="43" spans="1:10" ht="72.5">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="11">
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="9">
-        <v>47</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>114</v>
+      <c r="I43" s="7">
+        <v>48</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2702,19 +2705,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="7">
+        <v>117</v>
+      </c>
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>116</v>
+      <c r="D44" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="E44" s="10">
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
@@ -2722,11 +2725,11 @@
       <c r="H44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="9">
-        <v>14</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>118</v>
+      <c r="I44" s="7">
+        <v>14</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2734,29 +2737,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="7">
+        <v>121</v>
+      </c>
+      <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>120</v>
+      <c r="D45" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E45" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>19</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>122</v>
+      <c r="J45" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2764,29 +2767,27 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="9">
-        <v>16</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>125</v>
+      <c r="I46" s="7">
+        <v>17</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2794,19 +2795,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="7">
+        <v>127</v>
+      </c>
+      <c r="C47" s="8">
         <v>4</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>127</v>
+      <c r="D47" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E47" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G47" s="11">
         <v>1</v>
@@ -2814,11 +2815,11 @@
       <c r="H47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="9">
-        <v>396</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>129</v>
+      <c r="I47" s="7">
+        <v>411</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2836,22 +2837,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="6">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1591</v>
+        <v>1625</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2862,24 +2863,23 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{D18F9C85-9A47-40D6-ADBC-1AE248295B2E}"/>
-    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01264-2024-dep1478_202410041842.pdf" xr:uid="{B12E5DE7-E8DE-4DFB-8C3F-EB54F67E7844}"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01264-2024-dep1478_202410041842.pdf" xr:uid="{2F3C693B-0F21-4686-ADAD-B3D0A678D87B}"/>
-    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{261E69BA-C431-4987-8828-B20EBFCFC88B}"/>
-    <hyperlink ref="F12" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{8AE40A38-CA2A-492D-8B6E-55E4D7803BFD}"/>
-    <hyperlink ref="F14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{C8E0C731-E4D8-4B65-B482-D67BB1E0BCFF}"/>
-    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{F26117E1-EE52-4778-B1A9-456FBEDE3F0A}"/>
-    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01060-2024-comision058_202409041746.pdf" xr:uid="{1A6DD966-8BCC-4D3E-8785-D46C6825D74B}"/>
-    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{DD8994D4-5037-406A-AC86-335700BA84D2}"/>
-    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D6B4D6E9-8258-46DF-AEB2-DF4084139049}"/>
-    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{4367FC10-7CC1-4F1E-971E-E464FD9342D7}"/>
-    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{22695C0E-29DC-46BC-9103-48A250BA99E9}"/>
-    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{8F06B954-D231-4B76-A906-068623235349}"/>
-    <hyperlink ref="F37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{660889BF-972D-44F8-BD82-1EF831382634}"/>
-    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EA5652C2-8F5D-4D96-948D-19AE8E4252E7}"/>
-    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{C4D6FA74-7ECB-4C92-A859-FF3B054B31FC}"/>
-    <hyperlink ref="F43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01247-2024-encuestanacional_202410021124.pdf" xr:uid="{59E9E86A-F8E1-4EDF-B4CC-09B374125FFE}"/>
-    <hyperlink ref="F46" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01260-2024-1464_202410032007.pdf" xr:uid="{CA9A9CC4-B415-4899-BE0A-A13A97F1687A}"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01282-2024-363ihaem_202410081848.pdf" xr:uid="{D8C1C33D-CF06-4988-8522-0BD55AE4FA0C}"/>
+    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01299-2024-SACM.pdf" xr:uid="{4A4A15E1-A9FB-45A3-9F4C-56375392C8D0}"/>
+    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01211-2024-ma3155_202409021803.pdf" xr:uid="{F21FF7C6-4B8D-4EA5-841C-6ACB3830776B}"/>
+    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{FD3C0924-2EC8-4019-87CD-2D70F7991BEE}"/>
+    <hyperlink ref="D13" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01306-2024-1526.pdf" xr:uid="{312BB549-7129-4BC9-81FF-C2184F4D321C}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{18D3B67F-DDF6-4745-9E62-A4FA20A161FA}"/>
+    <hyperlink ref="F14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{D87911A6-D5AB-4DF7-8F60-AD2708BF1008}"/>
+    <hyperlink ref="F20" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{19F851B5-7389-4A69-9DF0-4A5C3415E2BD}"/>
+    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{1F7B5731-BCD7-44FB-B7B7-64912A57D25A}"/>
+    <hyperlink ref="D30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01306-2024-1526.pdf" xr:uid="{51275BB7-8555-4D5D-961E-C15B04E75281}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{B1982EE6-2B6B-4E9A-A1CB-FC378B929091}"/>
+    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{93C2E528-1ACE-41DB-8AB0-CA17BF5EA8E5}"/>
+    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{890F9D70-B7AA-4A85-B488-E168CAC165A9}"/>
+    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F82C2C08-B332-4C4D-9D08-D642842D7CF2}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{02AD1038-4957-49A0-9F5B-BED169B93FBF}"/>
+    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CF27F9F0-3736-4C8F-9529-CA8CBA3A8906}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F0393D7C-B951-49B3-BBB7-AA1D18F20FCC}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E9A06B-1092-453B-85B8-6FE5AF717D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AED4A99-7A63-4254-83DA-8462FFFC3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7994A360-BFF3-4E26-B65C-C02703A91479}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8DAD9CD-517D-455D-8037-5059760EBACB}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-10-13.</t>
+    <t>De 2024-01-01 al 2024-10-20.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,43 +58,43 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1282 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1292, 1293, </t>
+    <t>1341 , 1342 , 1349 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1293, 1330, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1291,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1331,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1264, 1289, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,</t>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1264, 1289, 1319, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1316,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">1332, </t>
+  </si>
+  <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>1299 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553, 963, 1063, 1074, 1157, 1227, 1264, 1277, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
+    <t xml:space="preserve">963, 1063, 1074, 1157, 1227, 1264, 1277, 1299, 1322, 1324, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -109,6 +109,9 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
+    <t>1345 , 1347 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">960, 1101, 1184, 1294, </t>
   </si>
   <si>
@@ -118,7 +121,7 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, </t>
+    <t xml:space="preserve">9, 1333, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
@@ -127,13 +130,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>1306 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1226, 1259, 1260, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1240,1247,</t>
+    <t>1329 , 1348 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1259, 1260, 1306, 1312, 1318, 1325, 1337, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -151,7 +154,7 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1299 ,</t>
+    <t>845 , 924 , 1299 , 1347 ,</t>
   </si>
   <si>
     <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,</t>
@@ -160,10 +163,10 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1295 , 1296 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, </t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
@@ -172,13 +175,13 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 990, 1017, 1035, 1095, 1300, </t>
-  </si>
-  <si>
-    <t>907,2,989,</t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,942,1007,1166,1295,</t>
+    <t xml:space="preserve">631, 989, 990, 1095, 1300, </t>
+  </si>
+  <si>
+    <t>2,1017,1035,</t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1166,1295,1327,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
@@ -193,6 +196,9 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
+    <t>1348 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">752, 1087, </t>
   </si>
   <si>
@@ -211,16 +217,22 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
+    <t>1331 ,</t>
+  </si>
+  <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
+    <t>1346 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1273, 1293, </t>
   </si>
   <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,</t>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1316,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -253,10 +265,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1288, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,</t>
+    <t xml:space="preserve">1272, 1333, 1336, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -286,7 +298,7 @@
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -370,7 +382,7 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -391,7 +403,7 @@
     <t>92 , 1072 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, </t>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
@@ -406,13 +418,10 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1303 , 1304 , 1305 , 1307 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1286, 1290, 1297, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1298,</t>
+    <t>1334 , 1350 ,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1058,9 +1067,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1068,6 +1074,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,11 +1472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD20AEE-C2BF-48A2-9D8E-1C4D35296234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C78A85-6AB5-4B30-BF3B-64606C8CA346}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1479,7 +1488,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1541,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1553,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1590,31 +1599,31 @@
         <v>11</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="116">
+    <row r="7" spans="1:10" ht="130.5">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1625,20 +1634,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>18</v>
@@ -1655,21 +1664,23 @@
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="7">
         <v>43</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="87">
@@ -1677,28 +1688,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>24</v>
@@ -1715,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="7">
@@ -1741,27 +1750,29 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="7">
         <v>41</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1769,29 +1780,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="7">
         <v>20</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="145">
@@ -1799,31 +1810,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="10">
-        <v>9</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="E13" s="9">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1831,31 +1842,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="7">
         <v>40</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1863,29 +1874,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="7">
         <v>18</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1893,19 +1904,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="9">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10">
-        <v>16</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>47</v>
+      <c r="F16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1915,7 +1926,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1923,29 +1934,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="10">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>51</v>
+      <c r="H17" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="I17" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1953,29 +1964,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="F18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="7">
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1983,29 +1994,31 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="F19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7">
         <v>22</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2013,29 +2026,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2043,27 +2056,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="6">
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7">
         <v>82</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2071,29 +2086,31 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10">
+        <v>67</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="9">
         <v>2</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="F22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2101,7 +2118,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2111,17 +2128,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7">
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2129,31 +2146,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="10">
+        <v>74</v>
+      </c>
+      <c r="E24" s="9">
         <v>3</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="F24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7">
         <v>37</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2161,13 +2178,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2181,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2189,29 +2206,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="10">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="E26" s="9">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2219,29 +2236,29 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="s">
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7">
         <v>7</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2249,7 +2266,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2259,17 +2276,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7">
         <v>11</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2277,7 +2294,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2287,17 +2304,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7">
         <v>5</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2305,31 +2322,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2337,29 +2352,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>4</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="F31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2367,29 +2382,29 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>93</v>
+      <c r="D32" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="7">
         <v>5</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2397,17 +2412,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>96</v>
+      <c r="F33" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2417,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2425,19 +2440,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="9">
         <v>3</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>100</v>
+      <c r="F34" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2453,29 +2468,29 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>93</v>
+      <c r="D35" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="7">
         <v>2</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2483,13 +2498,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C36" s="8">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2509,19 +2524,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C37" s="8">
         <v>3</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2537,7 +2552,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2547,17 +2562,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2565,29 +2580,29 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>93</v>
+      <c r="D39" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="11">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11" t="s">
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2595,13 +2610,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="8">
         <v>3</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2621,7 +2636,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2631,17 +2646,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2649,13 +2664,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C42" s="8">
         <v>4</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2675,29 +2690,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>115</v>
+      <c r="D43" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2705,31 +2720,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C44" s="8">
         <v>2</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="10">
+        <v>122</v>
+      </c>
+      <c r="E44" s="9">
         <v>5</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11" t="s">
+      <c r="F44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="29">
@@ -2737,19 +2752,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="10">
-        <v>18</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="E45" s="9">
+        <v>20</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2759,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2767,7 +2782,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2777,17 +2792,17 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="11">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11" t="s">
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="7">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2795,31 +2810,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C47" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="10">
-        <v>3</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="7">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2837,14 +2850,14 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
@@ -2852,7 +2865,7 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1625</v>
+        <v>1657</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2863,24 +2876,24 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01282-2024-363ihaem_202410081848.pdf" xr:uid="{D8C1C33D-CF06-4988-8522-0BD55AE4FA0C}"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01299-2024-SACM.pdf" xr:uid="{4A4A15E1-A9FB-45A3-9F4C-56375392C8D0}"/>
-    <hyperlink ref="F10" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01211-2024-ma3155_202409021803.pdf" xr:uid="{F21FF7C6-4B8D-4EA5-841C-6ACB3830776B}"/>
-    <hyperlink ref="F12" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00009-2023-1698_202401081706.pdf" xr:uid="{FD3C0924-2EC8-4019-87CD-2D70F7991BEE}"/>
-    <hyperlink ref="D13" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01306-2024-1526.pdf" xr:uid="{312BB549-7129-4BC9-81FF-C2184F4D321C}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{18D3B67F-DDF6-4745-9E62-A4FA20A161FA}"/>
-    <hyperlink ref="F14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{D87911A6-D5AB-4DF7-8F60-AD2708BF1008}"/>
-    <hyperlink ref="F20" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{19F851B5-7389-4A69-9DF0-4A5C3415E2BD}"/>
-    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{1F7B5731-BCD7-44FB-B7B7-64912A57D25A}"/>
-    <hyperlink ref="D30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01306-2024-1526.pdf" xr:uid="{51275BB7-8555-4D5D-961E-C15B04E75281}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{B1982EE6-2B6B-4E9A-A1CB-FC378B929091}"/>
-    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{93C2E528-1ACE-41DB-8AB0-CA17BF5EA8E5}"/>
-    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{890F9D70-B7AA-4A85-B488-E168CAC165A9}"/>
-    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{F82C2C08-B332-4C4D-9D08-D642842D7CF2}"/>
-    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{02AD1038-4957-49A0-9F5B-BED169B93FBF}"/>
-    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{CF27F9F0-3736-4C8F-9529-CA8CBA3A8906}"/>
-    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F0393D7C-B951-49B3-BBB7-AA1D18F20FCC}"/>
+    <hyperlink ref="F8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01332-2024-HERMAS.pdf" xr:uid="{E99BF98A-5C66-4F75-965D-9C662B341683}"/>
+    <hyperlink ref="F10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01211-2024-ma3155_202409021803.pdf" xr:uid="{5A473452-BEA5-42DC-AFCD-8F2DFE017CC0}"/>
+    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{6BDC0245-8899-46DC-BE68-1B76B30C65FD}"/>
+    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{792E684A-71BD-42DF-9E75-E30BA5AE4881}"/>
+    <hyperlink ref="D19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01348-2024-1555.pdf" xr:uid="{52355F71-CD3C-4C07-B779-B129B27C6707}"/>
+    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{5A207183-FB1F-4D57-A36C-472778736223}"/>
+    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01331-2024-LDFEFM.pdf" xr:uid="{885B00F3-B030-446C-8216-0B88F5938D38}"/>
+    <hyperlink ref="D22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01346-2024-1552.pdf" xr:uid="{10688867-7B0A-4B73-8491-016E8E010C22}"/>
+    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{1AAC6E05-2F52-4735-8FDF-66E3655D786D}"/>
+    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{27E6AF00-1A46-4812-B654-32443E7D6F60}"/>
+    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{48DCA30F-D151-43BB-841A-B555056489F0}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9DA01D1E-67F6-4552-84EC-08D695062C49}"/>
+    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{57D69941-3215-433E-B828-93E3334A6328}"/>
+    <hyperlink ref="F37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{AB638C03-C4B2-4B01-BBDC-B7CF1464F71C}"/>
+    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{680EECC8-99DD-440C-B57F-E29107DBE3B0}"/>
+    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{5BC2CCBF-E14A-4D6D-B043-8E3D0F46C28B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AED4A99-7A63-4254-83DA-8462FFFC3247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CCDFCA-24FA-4E6D-8D00-7D48C5DCFA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D8DAD9CD-517D-455D-8037-5059760EBACB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E386BAE-780F-447D-B39A-F3A0C8505EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="136">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-10-20.</t>
+    <t>De 2024-01-01 al 2024-10-27.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,25 +58,25 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1341 , 1342 , 1349 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1293, 1330, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, </t>
+  </si>
+  <si>
+    <t>2,1363,1375,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1372, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1331,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1264, 1289, 1319, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1316,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
@@ -91,6 +91,9 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
+    <t>1372 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">963, 1063, 1074, 1157, 1227, 1264, 1277, 1299, 1322, 1324, </t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1211, </t>
+    <t xml:space="preserve">1211, 1357, </t>
   </si>
   <si>
     <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,</t>
@@ -109,19 +112,16 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t>1345 , 1347 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960, 1101, 1184, 1294, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,</t>
+    <t xml:space="preserve">960, 1101, 1184, 1294, 1347, 1358, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1345,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 1333, </t>
+    <t xml:space="preserve">9, 1333, 1354, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
@@ -130,13 +130,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>1329 , 1348 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1259, 1260, 1306, 1312, 1318, 1325, 1337, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1306, 1348, </t>
+  </si>
+  <si>
+    <t>2,1312,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1318,1325,1329,1337,1355,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -166,7 +166,7 @@
     <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, </t>
+    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, 1355, 1365, </t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
@@ -175,10 +175,7 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1095, 1300, </t>
-  </si>
-  <si>
-    <t>2,1017,1035,</t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1095, 1300, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1166,1295,1327,</t>
@@ -196,10 +193,7 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t>1348 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">752, 1087, </t>
+    <t xml:space="preserve">752, 1087, 1348, </t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,1166,</t>
@@ -217,7 +211,10 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1331 ,</t>
+    <t xml:space="preserve">1331, 1363, </t>
+  </si>
+  <si>
+    <t>2,1375,</t>
   </si>
   <si>
     <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,</t>
@@ -226,13 +223,10 @@
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t>1346 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1273, 1293, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1316,</t>
+    <t xml:space="preserve">1293, 1346, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -265,7 +259,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1333, 1336, </t>
+    <t xml:space="preserve">1272, 1333, 1336, 1354, </t>
   </si>
   <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,</t>
@@ -400,10 +394,10 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, </t>
+    <t>92 , 1072 , 1375 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
@@ -418,10 +412,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1334 , 1350 ,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,</t>
+    <t>1380 , 1381 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1334, 1360, 1370, 1371, 1374, 1377, </t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1361,1362,1372,1373,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -811,12 +808,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -824,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1067,13 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,10 +1469,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C78A85-6AB5-4B30-BF3B-64606C8CA346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE351D65-E9AC-4AE8-AF29-1B1ED66A3B1A}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1550,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1562,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1591,36 +1588,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="246.5">
+    <row r="6" spans="1:10" ht="261">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9">
-        <v>8</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="7">
+        <v>200</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>196</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="130.5">
@@ -1628,26 +1623,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>14</v>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>18</v>
@@ -1664,17 +1659,17 @@
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I8" s="7">
         <v>43</v>
@@ -1690,27 +1685,29 @@
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>14</v>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I9" s="7">
         <v>70</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1718,29 +1715,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I10" s="7">
         <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1748,28 +1745,26 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="9">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1786,17 +1781,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="9">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="7">
         <v>20</v>
@@ -1805,33 +1800,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="145">
+    <row r="13" spans="1:10" ht="159.5">
       <c r="A13" s="6">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="I13" s="7">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>38</v>
@@ -1844,23 +1837,23 @@
       <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="7">
         <v>40</v>
@@ -1876,21 +1869,21 @@
       <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="7">
         <v>18</v>
@@ -1906,16 +1899,16 @@
       <c r="B16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="9">
-        <v>19</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="8">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="6">
@@ -1940,23 +1933,23 @@
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="8">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="10">
-        <v>3</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>52</v>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="7">
         <v>42</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1964,29 +1957,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="7">
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1994,31 +1987,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>14</v>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="7">
         <v>22</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2026,29 +2017,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>14</v>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2056,29 +2047,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I21" s="7">
         <v>82</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2086,31 +2077,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="7">
+        <v>56</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7">
-        <v>55</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2118,7 +2107,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2128,17 +2117,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>14</v>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I23" s="7">
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2146,31 +2135,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="8">
-        <v>2</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>14</v>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="7">
         <v>37</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2178,13 +2167,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>78</v>
+      <c r="D25" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2198,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2206,29 +2195,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="9">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>14</v>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I26" s="7">
         <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2236,29 +2225,29 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>14</v>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="7">
         <v>7</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2266,7 +2255,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2276,17 +2265,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>14</v>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I28" s="7">
         <v>11</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2294,7 +2283,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2304,17 +2293,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>14</v>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="7">
         <v>5</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2322,29 +2311,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>14</v>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="7">
         <v>45</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2352,29 +2341,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>4</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>14</v>
+      <c r="F31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2382,29 +2371,29 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="8">
+        <v>94</v>
+      </c>
+      <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>14</v>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I32" s="7">
         <v>5</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2412,17 +2401,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9">
+        <v>97</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="8">
         <v>4</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>100</v>
+      <c r="F33" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2432,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2440,19 +2431,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="8">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2468,29 +2459,29 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="C35" s="11">
         <v>1</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>14</v>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="7">
         <v>2</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2498,13 +2489,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="8">
+        <v>105</v>
+      </c>
+      <c r="C36" s="11">
         <v>4</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>108</v>
+      <c r="D36" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2524,19 +2515,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="11">
+        <v>3</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2552,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2562,17 +2553,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>14</v>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2580,29 +2571,29 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="8">
+        <v>112</v>
+      </c>
+      <c r="C39" s="11">
         <v>1</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>14</v>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2610,13 +2601,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="8">
+        <v>113</v>
+      </c>
+      <c r="C40" s="11">
         <v>3</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>110</v>
+      <c r="D40" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2636,7 +2627,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2646,17 +2637,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>14</v>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2664,13 +2655,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="8">
+        <v>115</v>
+      </c>
+      <c r="C42" s="11">
         <v>4</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>108</v>
+      <c r="D42" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2690,29 +2681,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="8">
+        <v>116</v>
+      </c>
+      <c r="C43" s="11">
         <v>1</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>14</v>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="7">
         <v>49</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2720,51 +2711,51 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="9">
-        <v>5</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>14</v>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="29">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="43.5">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="11">
+        <v>3</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="8">
+        <v>21</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="9">
-        <v>20</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2774,7 +2765,7 @@
         <v>19</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2782,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2792,17 +2783,17 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>14</v>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I46" s="7">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2810,29 +2801,31 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="8">
-        <v>2</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="G47" s="9">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="7">
+        <v>438</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="10">
-        <v>1</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="7">
-        <v>430</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2850,22 +2843,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="6">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1657</v>
+        <v>1680</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2876,24 +2869,21 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01332-2024-HERMAS.pdf" xr:uid="{E99BF98A-5C66-4F75-965D-9C662B341683}"/>
-    <hyperlink ref="F10" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01211-2024-ma3155_202409021803.pdf" xr:uid="{5A473452-BEA5-42DC-AFCD-8F2DFE017CC0}"/>
-    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{6BDC0245-8899-46DC-BE68-1B76B30C65FD}"/>
-    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{792E684A-71BD-42DF-9E75-E30BA5AE4881}"/>
-    <hyperlink ref="D19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01348-2024-1555.pdf" xr:uid="{52355F71-CD3C-4C07-B779-B129B27C6707}"/>
-    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{5A207183-FB1F-4D57-A36C-472778736223}"/>
-    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01331-2024-LDFEFM.pdf" xr:uid="{885B00F3-B030-446C-8216-0B88F5938D38}"/>
-    <hyperlink ref="D22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01346-2024-1552.pdf" xr:uid="{10688867-7B0A-4B73-8491-016E8E010C22}"/>
-    <hyperlink ref="F27" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{1AAC6E05-2F52-4735-8FDF-66E3655D786D}"/>
-    <hyperlink ref="F30" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{27E6AF00-1A46-4812-B654-32443E7D6F60}"/>
-    <hyperlink ref="D32" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{48DCA30F-D151-43BB-841A-B555056489F0}"/>
-    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9DA01D1E-67F6-4552-84EC-08D695062C49}"/>
-    <hyperlink ref="D35" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{57D69941-3215-433E-B828-93E3334A6328}"/>
-    <hyperlink ref="F37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{AB638C03-C4B2-4B01-BBDC-B7CF1464F71C}"/>
-    <hyperlink ref="D39" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{680EECC8-99DD-440C-B57F-E29107DBE3B0}"/>
-    <hyperlink ref="D43" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{5BC2CCBF-E14A-4D6D-B043-8E3D0F46C28B}"/>
+    <hyperlink ref="F8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01332-2024-HERMAS.pdf" xr:uid="{A05867D5-8204-48AD-85DA-22EBE93D8246}"/>
+    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{CEE0E697-6CE6-446F-B65D-5BEB7534FB69}"/>
+    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{74B7368E-840A-4F77-8C61-5B0D25DC506D}"/>
+    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{20BB79D2-7B8A-4DFF-B931-122AD9402A82}"/>
+    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{8D303757-6317-4F65-846E-B1C6CB69F5CF}"/>
+    <hyperlink ref="F27" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{3D0BB762-BCEB-4E79-A48C-3BCE9F7D1D44}"/>
+    <hyperlink ref="F30" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{7536EC1A-8221-4A97-AFDF-C6AF3827E590}"/>
+    <hyperlink ref="D32" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{95BCAF30-35F7-413C-B5C6-B0DE433AC1D0}"/>
+    <hyperlink ref="D33" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{98B5848D-42C9-4834-B2C6-DA7BF889529C}"/>
+    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{0A3EA403-55BA-48B6-BEE2-C5034B046A78}"/>
+    <hyperlink ref="D35" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7BF4CCFE-7E47-4E7C-8668-990C2F0AC787}"/>
+    <hyperlink ref="F37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{95669474-6949-41D6-91E5-9599ADE99B27}"/>
+    <hyperlink ref="D39" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{051F1BCD-9C35-49CE-937C-EF3C11234D8B}"/>
+    <hyperlink ref="D43" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F84604AC-58F6-4876-B7F9-C3C687089527}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CCDFCA-24FA-4E6D-8D00-7D48C5DCFA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3214CCAC-F8D6-46ED-B987-9267F53AEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E386BAE-780F-447D-B39A-F3A0C8505EA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3F73919-541A-416E-A154-4F0E5226B6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-10-27.</t>
+    <t>De 2024-01-01 al 2024-11-02.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,31 +58,37 @@
     <t>TESORERÍA</t>
   </si>
   <si>
+    <t>1411 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, </t>
   </si>
   <si>
-    <t>2,1363,1375,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,</t>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1372, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,</t>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, </t>
+  </si>
+  <si>
+    <t>2,1401,</t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1332, </t>
+    <t xml:space="preserve">1383, </t>
+  </si>
+  <si>
+    <t>2,1332,</t>
   </si>
   <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
@@ -94,16 +100,22 @@
     <t>1372 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">963, 1063, 1074, 1157, 1227, 1264, 1277, 1299, 1322, 1324, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1166,</t>
+    <t xml:space="preserve">963, 1063, 1074, 1277, 1299, 1324, 1404, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1157,1166,1227,1264,1322,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1211, 1357, </t>
+    <t>1409 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1357, </t>
+  </si>
+  <si>
+    <t>2,1211,</t>
   </si>
   <si>
     <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,</t>
@@ -112,7 +124,7 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1101, 1184, 1294, 1347, 1358, </t>
+    <t xml:space="preserve">960, 1101, 1184, 1294, 1347, 1358, 1408, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1345,</t>
@@ -130,13 +142,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1306, 1348, </t>
-  </si>
-  <si>
-    <t>2,1312,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1318,1325,1329,1337,1355,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -148,7 +157,7 @@
     <t xml:space="preserve">967, </t>
   </si>
   <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1227,1240,</t>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1227,1240,1398,1402,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -163,7 +172,7 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 ,</t>
+    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 , 1402 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, 1355, 1365, </t>
@@ -175,7 +184,7 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1095, 1300, </t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1095, 1300, 1386, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1166,1295,1327,</t>
@@ -214,10 +223,7 @@
     <t xml:space="preserve">1331, 1363, </t>
   </si>
   <si>
-    <t>2,1375,</t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
@@ -268,10 +274,7 @@
     <t>GERENCIA DE LA CIUDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">984, </t>
-  </si>
-  <si>
-    <t>190,350,476,710,955,990,1166,</t>
+    <t>190,350,476,710,2,955,984,990,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE TRANSPARENCIA Y GOBIERNO ABIERTO</t>
@@ -292,6 +295,9 @@
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
+    <t>2,1388,</t>
+  </si>
+  <si>
     <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,</t>
   </si>
   <si>
@@ -319,7 +325,7 @@
     <t xml:space="preserve">2, 1001, 1063, 1068, </t>
   </si>
   <si>
-    <t>126,261,710,998,</t>
+    <t>126,261,710,998,1372,</t>
   </si>
   <si>
     <t>PRIMER REGIDURIA</t>
@@ -394,10 +400,10 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 , 1375 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, </t>
+    <t>92 , 1072 , 1399 , 1402 , 1411 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375, </t>
   </si>
   <si>
     <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
@@ -412,13 +418,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1380 , 1381 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1334, 1360, 1370, 1371, 1374, 1377, </t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1361,1362,1372,1373,</t>
+    <t xml:space="preserve">1334, 1370, 1393, 1406, </t>
+  </si>
+  <si>
+    <t>2,1407,1410,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1397,1403,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -808,6 +814,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -815,12 +827,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,16 +1070,16 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE351D65-E9AC-4AE8-AF29-1B1ED66A3B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6A99E-AB35-4951-99FC-D9E2F9E21815}">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" workbookViewId="0">
@@ -1547,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1559,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1595,27 +1601,29 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="7">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="130.5">
@@ -1623,29 +1631,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1653,61 +1661,61 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="7">
         <v>43</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="101.5">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>17</v>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1715,29 +1723,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
+      <c r="H10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="7">
         <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1745,29 +1755,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>17</v>
+      <c r="E11" s="10">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I11" s="7">
         <v>42</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1775,29 +1785,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="F12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I12" s="7">
         <v>20</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="159.5">
@@ -1805,29 +1815,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="9">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>37</v>
+      <c r="E13" s="10">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1835,31 +1845,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1867,29 +1877,29 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="11">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
+      <c r="D15" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>17</v>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I15" s="7">
         <v>18</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="58">
@@ -1897,19 +1907,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="8">
+        <v>49</v>
+      </c>
+      <c r="C16" s="8">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="10">
         <v>21</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>48</v>
+      <c r="F16" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -1919,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1927,29 +1937,31 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="10">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I17" s="7">
         <v>42</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1957,29 +1969,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
+      <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I18" s="7">
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1987,29 +1999,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="8">
+      <c r="E19" s="10">
         <v>3</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>17</v>
+      <c r="F19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I19" s="7">
         <v>22</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2017,29 +2029,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2047,29 +2059,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
+        <v>65</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10">
         <v>2</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>64</v>
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2077,29 +2091,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>17</v>
+      <c r="F22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I22" s="7">
         <v>56</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2107,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2117,17 +2131,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>17</v>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I23" s="7">
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2135,31 +2149,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="11">
+        <v>73</v>
+      </c>
+      <c r="C24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
+      <c r="F24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I24" s="7">
         <v>37</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2167,13 +2181,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="11">
+        <v>77</v>
+      </c>
+      <c r="C25" s="8">
         <v>2</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>76</v>
+      <c r="D25" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2187,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2195,29 +2209,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="8">
+      <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>17</v>
+      <c r="F26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I26" s="7">
         <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2225,29 +2239,25 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2255,7 +2265,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2265,17 +2275,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I28" s="7">
         <v>11</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2283,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2293,17 +2303,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>17</v>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I29" s="7">
         <v>5</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="58">
@@ -2311,29 +2321,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I30" s="7">
         <v>45</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2341,29 +2351,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>4</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
+      <c r="F31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2371,29 +2381,29 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="11">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>17</v>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I32" s="7">
         <v>5</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2401,29 +2411,27 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10">
         <v>4</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>98</v>
+      <c r="F33" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2431,19 +2439,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="11">
-        <v>1</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="8">
+        <v>102</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="10">
         <v>3</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>102</v>
+      <c r="F34" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2459,29 +2467,29 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="11">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>17</v>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I35" s="7">
         <v>2</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2489,13 +2497,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="11">
+        <v>107</v>
+      </c>
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>106</v>
+      <c r="D36" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2515,19 +2523,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="11">
+        <v>109</v>
+      </c>
+      <c r="C37" s="8">
         <v>3</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>109</v>
+      <c r="D37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2543,7 +2551,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2553,17 +2561,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2571,29 +2579,29 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>95</v>
+        <v>114</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>17</v>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I39" s="7">
         <v>2</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2601,13 +2609,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="11">
+        <v>115</v>
+      </c>
+      <c r="C40" s="8">
         <v>3</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>108</v>
+      <c r="D40" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2627,7 +2635,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2637,17 +2645,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>17</v>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2655,13 +2663,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="11">
+        <v>117</v>
+      </c>
+      <c r="C42" s="8">
         <v>4</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>106</v>
+      <c r="D42" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2681,29 +2689,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>17</v>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I43" s="7">
         <v>49</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2711,31 +2719,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="11">
+        <v>121</v>
+      </c>
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="D44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="10">
         <v>5</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>17</v>
+      <c r="F44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I44" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.5">
@@ -2743,19 +2751,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="11">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="8">
-        <v>21</v>
-      </c>
-      <c r="F45" s="8" t="s">
         <v>125</v>
+      </c>
+      <c r="C45" s="8">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="10">
+        <v>22</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2765,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2773,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2783,17 +2791,17 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>17</v>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I46" s="7">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2801,31 +2809,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" s="8">
-        <v>6</v>
-      </c>
-      <c r="F47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>17</v>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="10">
+        <v>4</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="I47" s="7">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2843,22 +2849,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="6">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1680</v>
+        <v>1709</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2869,20 +2875,23 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01332-2024-HERMAS.pdf" xr:uid="{A05867D5-8204-48AD-85DA-22EBE93D8246}"/>
-    <hyperlink ref="D9" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{CEE0E697-6CE6-446F-B65D-5BEB7534FB69}"/>
-    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{74B7368E-840A-4F77-8C61-5B0D25DC506D}"/>
-    <hyperlink ref="F14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{20BB79D2-7B8A-4DFF-B931-122AD9402A82}"/>
-    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{8D303757-6317-4F65-846E-B1C6CB69F5CF}"/>
-    <hyperlink ref="F27" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{3D0BB762-BCEB-4E79-A48C-3BCE9F7D1D44}"/>
-    <hyperlink ref="F30" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{7536EC1A-8221-4A97-AFDF-C6AF3827E590}"/>
-    <hyperlink ref="D32" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{95BCAF30-35F7-413C-B5C6-B0DE433AC1D0}"/>
-    <hyperlink ref="D33" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{98B5848D-42C9-4834-B2C6-DA7BF889529C}"/>
-    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{0A3EA403-55BA-48B6-BEE2-C5034B046A78}"/>
-    <hyperlink ref="D35" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{7BF4CCFE-7E47-4E7C-8668-990C2F0AC787}"/>
-    <hyperlink ref="F37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{95669474-6949-41D6-91E5-9599ADE99B27}"/>
-    <hyperlink ref="D39" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{051F1BCD-9C35-49CE-937C-EF3C11234D8B}"/>
-    <hyperlink ref="D43" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F84604AC-58F6-4876-B7F9-C3C687089527}"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01411-2024-1611.pdf" xr:uid="{D3061222-2CF0-41BC-A346-B79AC386E8B1}"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01383-2024-FCHTprestamopant.pdf" xr:uid="{5F2557EA-6A81-4A84-8D30-6B697BA6333E}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{B92A1F5A-4BC3-4F65-8F9D-FB2E24A2A9AC}"/>
+    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01409-2024-3934ma.pdf" xr:uid="{29A9DEBA-80C1-49FF-875A-28570936F44B}"/>
+    <hyperlink ref="F10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01357-2024-3859ma.pdf" xr:uid="{9DBBD959-F59A-4E57-8BFA-B35B6BF8060A}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{8EAD9629-5084-427B-B513-FEDDB29D2D88}"/>
+    <hyperlink ref="F14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{D2BD5CB0-938A-4D00-851C-070E4B9BCCE9}"/>
+    <hyperlink ref="D17" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01409-2024-3934ma.pdf" xr:uid="{7BC993F6-A592-49C6-A3CF-084BC2FC2BD4}"/>
+    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{C617A014-428E-4935-9FAE-49906023E8C3}"/>
+    <hyperlink ref="D21" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01411-2024-1611.pdf" xr:uid="{5407D5CC-706D-48F6-97C1-93686969E548}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{2DC95C44-AE03-4FDB-93AA-15202BD98EC6}"/>
+    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EF818A49-4A90-4C83-806A-DEF2E69858E5}"/>
+    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3781AF5A-DFFE-4A2F-9E6E-A954E2E3445D}"/>
+    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{55C8DB7E-FC57-4965-90B2-3272AC3C39BD}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{B14E6B8A-BE71-490C-B15D-2F4463770508}"/>
+    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{05E0C5B5-A604-4825-8B47-634BC8FFE823}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F7A1FFBA-7A24-4150-9C67-A60BF268042B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3214CCAC-F8D6-46ED-B987-9267F53AEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3931AD85-3B00-4049-8A2C-B89F90BCDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3F73919-541A-416E-A154-4F0E5226B6C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A89501B-7D87-4DCA-8FEF-F1B7DB09FC0B}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="136">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-02.</t>
+    <t>De 2024-01-01 al 2024-11-10.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,16 +58,16 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1411 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, </t>
+    <t>1452 , 1454 , 1455 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1414, 1430, 1435, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,1411,1414,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
@@ -76,46 +76,40 @@
     <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, </t>
   </si>
   <si>
-    <t>2,1401,</t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1383, </t>
-  </si>
-  <si>
-    <t>2,1332,</t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,</t>
+    <t>1453 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1414, 1435, </t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>1372 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963, 1063, 1074, 1277, 1299, 1324, 1404, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1157,1166,1227,1264,1322,</t>
+    <t>1372 , 1456 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">963, 1063, 1074, 1277, 1299, 1324, 1404, 1414, 1435, 1436, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1157,1166,1227,1264,1322,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
   </si>
   <si>
-    <t>1409 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1357, </t>
-  </si>
-  <si>
-    <t>2,1211,</t>
+    <t xml:space="preserve">1211, 1409, </t>
+  </si>
+  <si>
+    <t>2,1357,</t>
   </si>
   <si>
     <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,</t>
@@ -124,28 +118,28 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1101, 1184, 1294, 1347, 1358, 1408, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1345,</t>
+    <t xml:space="preserve">960, 1101, 1184, 1347, 1408, </t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1294,1345,1358,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 1333, 1354, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,</t>
+    <t xml:space="preserve">9, 1416, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,1333,1354,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1414, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -163,31 +157,34 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1299 , 1347 ,</t>
-  </si>
-  <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,</t>
+    <t>845 , 924 , 1424 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1347, </t>
+  </si>
+  <si>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 710 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 , 1402 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, 1355, 1365, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,443,476,485,505,526,527,528,584,607,618,673,703,737,773,774,869,982,1049,1166,1170,1171,1240,</t>
+    <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 , 1402 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1365, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1049,1166,1170,1171,1240,1295,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1095, 1300, 1386, </t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1166,1295,1327,</t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1424, 1438, </t>
+  </si>
+  <si>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
@@ -202,10 +199,10 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">752, 1087, 1348, </t>
-  </si>
-  <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,930,1059,1076,1166,</t>
+    <t xml:space="preserve">1087, 1348, </t>
+  </si>
+  <si>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
@@ -220,16 +217,19 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1331, 1363, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,</t>
+    <t>1452 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1331, 1363, 1425, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1293, 1346, </t>
+    <t xml:space="preserve">1293, 1346, 1434, </t>
   </si>
   <si>
     <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,</t>
@@ -256,10 +256,10 @@
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
   </si>
   <si>
-    <t>710 , 2 ,</t>
-  </si>
-  <si>
-    <t>190,350,476,1166,</t>
+    <t>2 ,</t>
+  </si>
+  <si>
+    <t>190,350,476,710,1166,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
@@ -286,19 +286,13 @@
     <t>COORDINACIÓN DE ASESORES</t>
   </si>
   <si>
-    <t>190,350,476,710,1166,</t>
-  </si>
-  <si>
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
-    <t>2,1388,</t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -313,10 +307,7 @@
     <t>COORDINACIÓN DE ASUNTOS RELIGIOSOS</t>
   </si>
   <si>
-    <t>710 ,</t>
-  </si>
-  <si>
-    <t>190,350,366,476,1166,</t>
+    <t>190,350,366,476,710,1166,</t>
   </si>
   <si>
     <t>SÍNDICATURA MUNICIPAL</t>
@@ -331,28 +322,28 @@
     <t>PRIMER REGIDURIA</t>
   </si>
   <si>
-    <t>2 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">710, 998, 1068, </t>
+    <t xml:space="preserve">998, 1068, </t>
+  </si>
+  <si>
+    <t>710,</t>
   </si>
   <si>
     <t>SEGUNDA REGIDURÍA</t>
   </si>
   <si>
-    <t>998,1068,</t>
+    <t>710,998,1068,</t>
   </si>
   <si>
     <t>TERCER REGIDURÍA</t>
   </si>
   <si>
-    <t>710 , 2 , 998 , 1068 ,</t>
+    <t>2 , 998 , 1068 ,</t>
   </si>
   <si>
     <t>CUARTA REGIDURÍA</t>
   </si>
   <si>
-    <t>710 , 2 , 998 ,</t>
+    <t>2 , 998 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1068, </t>
@@ -361,9 +352,6 @@
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
-    <t>710,998,1068,</t>
-  </si>
-  <si>
     <t>SEXTA REGIDURÍA</t>
   </si>
   <si>
@@ -400,31 +388,37 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 , 1399 , 1402 , 1411 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,780,823,880,955,1049,1069,1088,1166,</t>
+    <t>92 , 1072 , 1452 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375, 1399, 1402, 1411, </t>
+  </si>
+  <si>
+    <t>25,154,190,244,296,350,389,476,499,691,698,710,780,823,880,955,1049,1069,1088,1166,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
+    <t xml:space="preserve">1445, </t>
+  </si>
+  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">1334, 1370, 1393, 1406, </t>
-  </si>
-  <si>
-    <t>2,1407,1410,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1397,1403,</t>
+    <t>1446 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1334, 1417, 1419, 1431, 1437, </t>
+  </si>
+  <si>
+    <t>2,1448,1449,1451,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1450,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1070,13 +1064,13 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,10 +1469,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E6A99E-AB35-4951-99FC-D9E2F9E21815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2093B229-8E15-44ED-BAC0-5B4D40B5F343}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1491,7 +1485,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1553,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1565,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1602,25 +1596,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -1637,23 +1631,23 @@
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="11">
-        <v>2</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>97</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1661,29 +1655,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>46</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="101.5">
@@ -1691,31 +1687,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>75</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="7">
-        <v>74</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1723,31 +1719,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="I10" s="7">
         <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="58">
@@ -1755,29 +1749,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7">
+        <v>44</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>42</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1785,29 +1779,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="159.5">
@@ -1815,29 +1809,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9">
+        <v>8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>124</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10">
-        <v>7</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>123</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1845,31 +1839,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="7">
         <v>42</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1877,59 +1871,61 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7">
+        <v>19</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="7">
-        <v>18</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="58">
+    </row>
+    <row r="16" spans="1:10" ht="72.5">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="8">
-        <v>19</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="9">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="10">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1937,31 +1933,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="10">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
+        <v>43</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>42</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1969,29 +1963,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="7">
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29">
@@ -1999,29 +1993,29 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10">
-        <v>3</v>
-      </c>
-      <c r="F19" s="10" t="s">
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="7">
+        <v>23</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2029,29 +2023,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2059,28 +2053,28 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>67</v>
@@ -2097,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="9">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7">
@@ -2131,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7">
@@ -2157,16 +2151,16 @@
       <c r="D24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>3</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7">
@@ -2184,9 +2178,9 @@
         <v>77</v>
       </c>
       <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="6">
@@ -2198,7 +2192,7 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>79</v>
@@ -2215,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>4</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7">
@@ -2275,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7">
@@ -2303,47 +2297,47 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7">
         <v>5</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="58">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="72.5">
       <c r="A30" s="6">
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7">
+        <v>48</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G30" s="11">
-        <v>2</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="7">
-        <v>45</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2351,29 +2345,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>4</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="11">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="F31" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2381,29 +2375,27 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="11">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2411,17 +2403,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>100</v>
+      <c r="F33" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2431,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2439,57 +2431,57 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="10">
-        <v>3</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>104</v>
+      <c r="D34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="6">
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2497,13 +2489,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2513,45 +2505,49 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6"/>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="6">
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="10">
+        <v>107</v>
+      </c>
+      <c r="E37" s="9">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="6">
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2561,17 +2557,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2579,29 +2575,27 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6">
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="11">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11" t="s">
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2609,13 +2603,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C40" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2625,17 +2619,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6"/>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="6">
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2645,17 +2641,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11" t="s">
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2663,13 +2659,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2679,39 +2675,41 @@
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6"/>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
       <c r="A43" s="6">
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>119</v>
+      <c r="D43" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I43" s="7">
         <v>49</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2719,31 +2717,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="8">
         <v>2</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="10">
+        <v>118</v>
+      </c>
+      <c r="E44" s="9">
         <v>5</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="11">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11" t="s">
+      <c r="F44" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.5">
@@ -2751,29 +2749,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C45" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="10">
-        <v>22</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="E45" s="9">
+        <v>24</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2781,27 +2779,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="11">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11" t="s">
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="7">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2809,29 +2809,31 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="10">
-        <v>4</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="I47" s="7">
+        <v>463</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G47" s="11">
-        <v>3</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="7">
-        <v>449</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2849,22 +2851,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="6">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1709</v>
+        <v>1760</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2875,23 +2877,19 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01411-2024-1611.pdf" xr:uid="{D3061222-2CF0-41BC-A346-B79AC386E8B1}"/>
-    <hyperlink ref="F8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01383-2024-FCHTprestamopant.pdf" xr:uid="{5F2557EA-6A81-4A84-8D30-6B697BA6333E}"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{B92A1F5A-4BC3-4F65-8F9D-FB2E24A2A9AC}"/>
-    <hyperlink ref="D10" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01409-2024-3934ma.pdf" xr:uid="{29A9DEBA-80C1-49FF-875A-28570936F44B}"/>
-    <hyperlink ref="F10" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01357-2024-3859ma.pdf" xr:uid="{9DBBD959-F59A-4E57-8BFA-B35B6BF8060A}"/>
-    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{8EAD9629-5084-427B-B513-FEDDB29D2D88}"/>
-    <hyperlink ref="F14" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{D2BD5CB0-938A-4D00-851C-070E4B9BCCE9}"/>
-    <hyperlink ref="D17" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01409-2024-3934ma.pdf" xr:uid="{7BC993F6-A592-49C6-A3CF-084BC2FC2BD4}"/>
-    <hyperlink ref="F20" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{C617A014-428E-4935-9FAE-49906023E8C3}"/>
-    <hyperlink ref="D21" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01411-2024-1611.pdf" xr:uid="{5407D5CC-706D-48F6-97C1-93686969E548}"/>
-    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{2DC95C44-AE03-4FDB-93AA-15202BD98EC6}"/>
-    <hyperlink ref="D32" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{EF818A49-4A90-4C83-806A-DEF2E69858E5}"/>
-    <hyperlink ref="D34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3781AF5A-DFFE-4A2F-9E6E-A954E2E3445D}"/>
-    <hyperlink ref="D35" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{55C8DB7E-FC57-4965-90B2-3272AC3C39BD}"/>
-    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{B14E6B8A-BE71-490C-B15D-2F4463770508}"/>
-    <hyperlink ref="D39" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00710-2024-CIRCULAR-SP-03-2024.pdf" xr:uid="{05E0C5B5-A604-4825-8B47-634BC8FFE823}"/>
-    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{F7A1FFBA-7A24-4150-9C67-A60BF268042B}"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01453-2024-1643.pdf" xr:uid="{C06AA5AD-83B7-4819-AE70-D3CF63C6FD60}"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{351C8DCA-03A1-4F6E-8B99-C901BF8AEC40}"/>
+    <hyperlink ref="F14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{BB190CD1-8F80-4AF0-9937-BC222E44EA54}"/>
+    <hyperlink ref="F15" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{6FDF62E6-C9FC-426E-A6F3-0B658F81583E}"/>
+    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{3FD6C2EA-F9A7-46FC-960A-CA580C1ECC13}"/>
+    <hyperlink ref="D21" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01452-2024-1642.pdf" xr:uid="{37B3E4B5-6B25-47D6-9B23-E9036F2B270B}"/>
+    <hyperlink ref="D25" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{6E4BF619-3F29-46BA-BF60-29019B5ED25B}"/>
+    <hyperlink ref="F30" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{FCE02D73-2518-4284-A81A-721CA0BE59B9}"/>
+    <hyperlink ref="D34" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{D75E576C-E030-4D5C-9EC5-D1CCBECD7ED2}"/>
+    <hyperlink ref="F37" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{7770697E-0F53-45FD-9299-F9FE2009919B}"/>
+    <hyperlink ref="D43" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{118253E4-47AA-42A6-B600-4AA14FB3D8F7}"/>
+    <hyperlink ref="F46" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{F4AE1012-6252-46A5-8DF9-2972A4F64D14}"/>
+    <hyperlink ref="D47" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01446-2024-1638.pdf" xr:uid="{79978115-B3B7-43B2-84E4-657718DF8D0A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3931AD85-3B00-4049-8A2C-B89F90BCDA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28970E1A-1FB3-43EE-9E2E-69BCFD67DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A89501B-7D87-4DCA-8FEF-F1B7DB09FC0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{70C7B38A-BF64-4142-94B6-6F5CE6C19F64}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-10.</t>
+    <t>De 2024-01-01 al 2024-11-14.</t>
   </si>
   <si>
     <t>No.</t>
@@ -58,16 +58,13 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t>1452 , 1454 , 1455 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1414, 1430, 1435, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1430, 1435, 1454, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,1411,1414,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,1411,1414,1452,1455,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
@@ -76,16 +73,16 @@
     <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, </t>
   </si>
   <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1414,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>1453 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1414, 1435, </t>
+    <t xml:space="preserve">1435, 1461, </t>
+  </si>
+  <si>
+    <t>2,1453,</t>
   </si>
   <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,</t>
@@ -94,10 +91,13 @@
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>1372 , 1456 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">963, 1063, 1074, 1277, 1299, 1324, 1404, 1414, 1435, 1436, </t>
+    <t>1372 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1277, 1435, 1456, </t>
+  </si>
+  <si>
+    <t>2,963,1063,1074,1299,1324,1404,1436,1471,</t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1157,1166,1227,1264,1322,1414,</t>
@@ -109,19 +109,19 @@
     <t xml:space="preserve">1211, 1409, </t>
   </si>
   <si>
-    <t>2,1357,</t>
-  </si>
-  <si>
-    <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,</t>
+    <t>190,259,350,476,509,641,655,710,745,947,956,960,1034,1166,1181,1357,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1101, 1184, 1347, 1408, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1294,1345,1358,</t>
+    <t xml:space="preserve">960, 1347, </t>
+  </si>
+  <si>
+    <t>2,1101,1184,</t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1294,1345,1358,1408,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -136,7 +136,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1414, </t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1458, 1460, 1477, </t>
+  </si>
+  <si>
+    <t>2,1348,</t>
   </si>
   <si>
     <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,</t>
@@ -148,10 +151,7 @@
     <t>984 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">967, </t>
-  </si>
-  <si>
-    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,973,1049,1158,1166,1195,1227,1240,1398,1402,</t>
+    <t>11,62,78,121,123,160,161,190,236,244,251,259,267,268,293,350,369,371,390,433,442,476,499,531,578,621,710,713,835,867,890,904,930,967,973,1049,1158,1166,1195,1227,1240,1398,1402,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CULTURA</t>
@@ -169,13 +169,13 @@
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1017 , 1021 , 1110 , 1346 , 1402 ,</t>
+    <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1021 , 1110 , 1346 , 1402 ,</t>
   </si>
   <si>
     <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1365, </t>
   </si>
   <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1049,1166,1170,1171,1240,1295,</t>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1166,1170,1171,1240,1295,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
@@ -199,7 +199,7 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t xml:space="preserve">1087, 1348, </t>
+    <t xml:space="preserve">1087, </t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,</t>
@@ -217,13 +217,10 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1452 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">1331, 1363, 1425, </t>
   </si>
   <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,</t>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
@@ -247,10 +244,10 @@
     <t>961 , 1076 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">553, 1199, 1275, </t>
-  </si>
-  <si>
-    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
+    <t xml:space="preserve">1199, 1275, </t>
+  </si>
+  <si>
+    <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,553,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE GIRAS Y LOGÍSTICA</t>
@@ -292,7 +289,7 @@
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1414,</t>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -370,7 +367,7 @@
     <t>699 ,</t>
   </si>
   <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,</t>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
@@ -388,13 +385,13 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 , 1452 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166, 254, 361, 371, 473, 609, 697, 700, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375, 1399, 1402, 1411, </t>
-  </si>
-  <si>
-    <t>25,154,190,244,296,350,389,476,499,691,698,710,780,823,880,955,1049,1069,1088,1166,</t>
+    <t>92 , 1072 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361, 473, 700, 841, 842, 843, 2, 984, 1225, 1269, 1311, 1328, 1363, 1399, 1452, </t>
+  </si>
+  <si>
+    <t>25,154,166,190,244,254,296,350,371,389,476,499,609,691,697,698,710,780,823,880,955,976,1020,1049,1069,1088,1166,1375,1402,1411,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
@@ -409,16 +406,13 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1446 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">1334, 1417, 1419, 1431, 1437, </t>
   </si>
   <si>
-    <t>2,1448,1449,1451,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1450,</t>
+    <t>2,1446,1470,1480,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1472,1476,1478,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -808,12 +802,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCC0DA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -821,6 +809,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,10 +1064,10 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1469,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2093B229-8E15-44ED-BAC0-5B4D40B5F343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43922B7-3815-4CE4-A6F5-63B7F926C53F}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1485,7 +1479,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1530,7 +1524,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1559,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1595,29 +1589,27 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
         <v>12</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="7">
+        <v>207</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>205</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="130.5">
@@ -1625,29 +1617,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7">
+        <v>99</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="58">
@@ -1655,31 +1647,29 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="7">
         <v>46</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="101.5">
@@ -1687,25 +1677,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="I9" s="7">
         <v>75</v>
@@ -1725,50 +1715,50 @@
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="7">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="58">
+    </row>
+    <row r="11" spans="1:10" ht="72.5">
       <c r="A11" s="6">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>33</v>
@@ -1785,17 +1775,17 @@
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>2</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>14</v>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I12" s="7">
         <v>22</v>
@@ -1815,23 +1805,23 @@
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="9">
-        <v>8</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="8">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="I13" s="7">
         <v>124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1839,28 +1829,26 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>14</v>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>43</v>
@@ -1873,23 +1861,23 @@
       <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>14</v>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="7">
         <v>19</v>
@@ -1905,16 +1893,16 @@
       <c r="B16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="8">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="10">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>16</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="6">
@@ -1922,7 +1910,7 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>51</v>
@@ -1939,17 +1927,17 @@
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>10</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I17" s="7">
         <v>43</v>
@@ -1969,17 +1957,17 @@
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I18" s="7">
         <v>38</v>
@@ -1999,17 +1987,17 @@
         <v>0</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>14</v>
+      <c r="H19" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="7">
         <v>23</v>
@@ -2029,17 +2017,17 @@
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>14</v>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
@@ -2055,29 +2043,27 @@
       <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="9">
-        <v>3</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="7">
+        <v>86</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>85</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="72.5">
@@ -2085,29 +2071,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>14</v>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="7">
         <v>56</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2115,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2125,17 +2111,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>14</v>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I23" s="7">
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2143,31 +2129,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="8">
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>38</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2175,13 +2161,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2195,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2203,29 +2189,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9">
-        <v>4</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>14</v>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I26" s="7">
         <v>22</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2233,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2251,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2259,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2269,17 +2255,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>14</v>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I28" s="7">
         <v>11</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2287,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2297,17 +2283,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>14</v>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I29" s="7">
         <v>5</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2315,29 +2301,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>47</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="7">
-        <v>48</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2345,29 +2331,29 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8">
+        <v>4</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9">
-        <v>4</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>14</v>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I31" s="7">
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2375,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2385,17 +2371,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>14</v>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I32" s="7">
         <v>6</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2403,17 +2389,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="8">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="9">
-        <v>4</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2423,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2431,19 +2417,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="9">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2453,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2461,7 +2447,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2471,17 +2457,17 @@
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>14</v>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I35" s="7">
         <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2489,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2509,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2517,19 +2503,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="8">
-        <v>2</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="9">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2539,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2547,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2557,17 +2543,17 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>14</v>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I38" s="7">
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2575,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2585,17 +2571,17 @@
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="10">
-        <v>1</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>14</v>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I39" s="7">
         <v>3</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2603,13 +2589,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="8">
+        <v>110</v>
+      </c>
+      <c r="C40" s="10">
         <v>2</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>107</v>
+      <c r="D40" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2623,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2631,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2641,17 +2627,17 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="10">
-        <v>1</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>14</v>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I41" s="7">
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2659,13 +2645,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="8">
+        <v>112</v>
+      </c>
+      <c r="C42" s="10">
         <v>3</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>105</v>
+      <c r="D42" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2679,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2687,29 +2673,29 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="7">
+        <v>50</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="7">
-        <v>49</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2717,31 +2703,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="8">
-        <v>2</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="9">
-        <v>5</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="10">
-        <v>1</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>14</v>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I44" s="7">
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.5">
@@ -2749,29 +2735,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="8">
-        <v>3</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8">
+        <v>15</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="E45" s="9">
-        <v>24</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2779,29 +2765,29 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>14</v>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="I46" s="7">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2809,31 +2795,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8">
+        <v>5</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="11" t="s">
+      <c r="G47" s="9">
+        <v>4</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="9">
-        <v>5</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="I47" s="7">
+        <v>475</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G47" s="10">
-        <v>4</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" s="7">
-        <v>463</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2851,22 +2835,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C49" s="6">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1760</v>
+        <v>1789</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2877,19 +2861,17 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01453-2024-1643.pdf" xr:uid="{C06AA5AD-83B7-4819-AE70-D3CF63C6FD60}"/>
-    <hyperlink ref="D14" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{351C8DCA-03A1-4F6E-8B99-C901BF8AEC40}"/>
-    <hyperlink ref="F14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00967-2024-1223_202408191949.pdf" xr:uid="{BB190CD1-8F80-4AF0-9937-BC222E44EA54}"/>
-    <hyperlink ref="F15" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{6FDF62E6-C9FC-426E-A6F3-0B658F81583E}"/>
-    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{3FD6C2EA-F9A7-46FC-960A-CA580C1ECC13}"/>
-    <hyperlink ref="D21" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01452-2024-1642.pdf" xr:uid="{37B3E4B5-6B25-47D6-9B23-E9036F2B270B}"/>
-    <hyperlink ref="D25" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{6E4BF619-3F29-46BA-BF60-29019B5ED25B}"/>
-    <hyperlink ref="F30" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{FCE02D73-2518-4284-A81A-721CA0BE59B9}"/>
-    <hyperlink ref="D34" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{D75E576C-E030-4D5C-9EC5-D1CCBECD7ED2}"/>
-    <hyperlink ref="F37" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{7770697E-0F53-45FD-9299-F9FE2009919B}"/>
-    <hyperlink ref="D43" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{118253E4-47AA-42A6-B600-4AA14FB3D8F7}"/>
-    <hyperlink ref="F46" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{F4AE1012-6252-46A5-8DF9-2972A4F64D14}"/>
-    <hyperlink ref="D47" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01446-2024-1638.pdf" xr:uid="{79978115-B3B7-43B2-84E4-657718DF8D0A}"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{D40860AF-47E4-45E6-B10F-627BB95396AB}"/>
+    <hyperlink ref="D14" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{FA525876-D2CF-418F-A3C0-E46A30F44F94}"/>
+    <hyperlink ref="F15" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{6B3AEB1B-F1BF-4C7B-B165-AB91124F2241}"/>
+    <hyperlink ref="F19" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{EE4F3278-0876-40F1-AE75-35FC6BDA7F32}"/>
+    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{BB7CEE53-6722-4B7E-95CF-DEBF6093D352}"/>
+    <hyperlink ref="D25" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{800FC394-4C82-4891-9FD4-6FE934FC84CB}"/>
+    <hyperlink ref="F30" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D7DB91D4-413A-4850-A4D8-44A9C72D7DB0}"/>
+    <hyperlink ref="D34" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BBD89175-38D8-4032-B075-3C75A53B96C0}"/>
+    <hyperlink ref="F37" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{BF395A63-0B49-48A8-80D3-15CD9DFA5264}"/>
+    <hyperlink ref="D43" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{203CECB1-CEB3-4B2D-87B0-764AFDCCBFDA}"/>
+    <hyperlink ref="F46" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{E2ECCBF9-54DF-4FB2-8AF3-C383A6F18F8D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28970E1A-1FB3-43EE-9E2E-69BCFD67DBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CB16D4-40DE-46A2-AD6E-27995B69CC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{70C7B38A-BF64-4142-94B6-6F5CE6C19F64}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2987C7B6-B62E-42CB-868E-92EC9D44F3F4}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-14.</t>
+    <t>De 2024-01-01 al 2024-11-16.</t>
   </si>
   <si>
     <t>No.</t>
@@ -70,7 +70,7 @@
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, </t>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1492, </t>
   </si>
   <si>
     <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,</t>
@@ -82,25 +82,19 @@
     <t xml:space="preserve">1435, 1461, </t>
   </si>
   <si>
-    <t>2,1453,</t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1453,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t>1372 ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">1277, 1435, 1456, </t>
   </si>
   <si>
-    <t>2,963,1063,1074,1299,1324,1404,1436,1471,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,980,983,996,997,1009,1157,1166,1227,1264,1322,1414,</t>
+    <t>2,1372,</t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1404,1414,1436,1471,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -115,13 +109,13 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
+    <t>1504 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">960, 1347, </t>
   </si>
   <si>
-    <t>2,1101,1184,</t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1166,1169,1179,1254,1294,1345,1358,1408,</t>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1358,1408,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
@@ -136,10 +130,7 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1458, 1460, 1477, </t>
-  </si>
-  <si>
-    <t>2,1348,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1458, 1460, 1477, </t>
   </si>
   <si>
     <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,</t>
@@ -172,7 +163,10 @@
     <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1021 , 1110 , 1346 , 1402 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1365, </t>
+    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1494, </t>
+  </si>
+  <si>
+    <t>1365,</t>
   </si>
   <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1166,1170,1171,1240,1295,</t>
@@ -181,7 +175,10 @@
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1424, 1438, </t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, </t>
+  </si>
+  <si>
+    <t>2,1424,</t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,</t>
@@ -199,10 +196,13 @@
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
+    <t>1496 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1087, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,</t>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
@@ -226,10 +226,10 @@
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1293, 1346, 1434, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,</t>
+    <t xml:space="preserve">1293, 1434, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -241,7 +241,7 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>961 , 1076 ,</t>
+    <t>961 , 1076 , 1499 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1199, 1275, </t>
@@ -262,7 +262,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1333, 1336, 1354, </t>
+    <t xml:space="preserve">1272, 1333, 1336, 1354, 1489, </t>
   </si>
   <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,</t>
@@ -286,6 +286,9 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
+    <t>1499 , 1501 , 1504 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1226, </t>
   </si>
   <si>
@@ -319,10 +322,10 @@
     <t>PRIMER REGIDURIA</t>
   </si>
   <si>
-    <t xml:space="preserve">998, 1068, </t>
-  </si>
-  <si>
-    <t>710,</t>
+    <t xml:space="preserve">1068, </t>
+  </si>
+  <si>
+    <t>710,998,</t>
   </si>
   <si>
     <t>SEGUNDA REGIDURÍA</t>
@@ -334,18 +337,12 @@
     <t>TERCER REGIDURÍA</t>
   </si>
   <si>
-    <t>2 , 998 , 1068 ,</t>
+    <t>2 , 1068 ,</t>
   </si>
   <si>
     <t>CUARTA REGIDURÍA</t>
   </si>
   <si>
-    <t>2 , 998 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1068, </t>
-  </si>
-  <si>
     <t>QUINTA REGIDURÍA</t>
   </si>
   <si>
@@ -373,7 +370,7 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 ,</t>
+    <t>281 , 939 , 1491 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
@@ -388,10 +385,7 @@
     <t>92 , 1072 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">361, 473, 700, 841, 842, 843, 2, 984, 1225, 1269, 1311, 1328, 1363, 1399, 1452, </t>
-  </si>
-  <si>
-    <t>25,154,166,190,244,254,296,350,371,389,476,499,609,691,697,698,710,780,823,880,955,976,1020,1049,1069,1088,1166,1375,1402,1411,</t>
+    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1328,1375,1399,1402,1411,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
@@ -406,13 +400,16 @@
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
+    <t>1502 , 1503 , 1505 , 1506 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1334, 1417, 1419, 1431, 1437, </t>
   </si>
   <si>
-    <t>2,1446,1470,1480,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1472,1476,1478,</t>
+    <t>2,1485,1490,1497,1498,1500,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>FoliosC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700, 1225, 1269, 1311, 1363, 1452, 1493, </t>
   </si>
 </sst>
 </file>
@@ -1463,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43922B7-3815-4CE4-A6F5-63B7F926C53F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F685BE-EC6E-435B-BA4B-B4C364D67989}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1479,7 +1479,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1524,7 +1524,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1553,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -1660,48 +1660,46 @@
         <v>19</v>
       </c>
       <c r="G8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>47</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7">
-        <v>46</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="101.5">
+    </row>
+    <row r="9" spans="1:10" ht="116">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="8">
         <v>3</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7">
+        <v>83</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="9">
-        <v>9</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7">
-        <v>75</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1709,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1719,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -1731,7 +1729,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72.5">
@@ -1739,29 +1737,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="8">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>47</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G11" s="9">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7">
-        <v>45</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29">
@@ -1769,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -1791,7 +1791,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="159.5">
@@ -1799,29 +1799,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
         <v>124</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1829,13 +1831,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1851,7 +1853,7 @@
         <v>43</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1859,19 +1861,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10">
         <v>3</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -1883,7 +1885,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72.5">
@@ -1891,29 +1893,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10">
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8">
         <v>16</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="I16" s="7">
         <v>55</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1921,29 +1925,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="I17" s="7">
         <v>43</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1951,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -1961,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -1973,20 +1977,22 @@
         <v>38</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.5">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6"/>
       <c r="E19" s="8">
         <v>1</v>
       </c>
@@ -1994,13 +2000,13 @@
         <v>59</v>
       </c>
       <c r="G19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>60</v>
@@ -2066,7 +2072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="72.5">
+    <row r="22" spans="1:10" ht="87">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>68</v>
@@ -2090,7 +2096,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>69</v>
@@ -2132,7 +2138,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>73</v>
@@ -2196,7 +2202,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>80</v>
@@ -2303,15 +2309,17 @@
       <c r="B30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6"/>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="E30" s="8">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -2323,7 +2331,7 @@
         <v>47</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2331,7 +2339,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2341,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -2353,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2361,7 +2369,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2381,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2389,7 +2397,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2399,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2409,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2417,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="10">
         <v>1</v>
@@ -2426,20 +2434,20 @@
         <v>77</v>
       </c>
       <c r="E34" s="8">
-        <v>2</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2447,7 +2455,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2467,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2475,13 +2483,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C36" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2492,10 +2500,10 @@
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2503,29 +2511,29 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="10">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2533,7 +2541,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2553,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2561,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2581,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2589,13 +2597,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="10">
-        <v>2</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2606,10 +2614,10 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2617,7 +2625,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2637,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2645,13 +2653,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2662,10 +2670,10 @@
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2673,13 +2681,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2695,7 +2703,7 @@
         <v>50</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2703,19 +2711,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="10">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="E44" s="8">
         <v>5</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -2727,37 +2735,37 @@
         <v>14</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="43.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="58">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2765,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2775,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -2787,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2795,29 +2803,31 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="E47" s="8">
         <v>5</v>
       </c>
       <c r="F47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="9">
+        <v>6</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="9">
-        <v>4</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="7">
+        <v>478</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="I47" s="7">
-        <v>475</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2835,22 +2845,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="6">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1789</v>
+        <v>1818</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2861,17 +2871,22 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01372-2024-Circular01legestmex.pdf" xr:uid="{D40860AF-47E4-45E6-B10F-627BB95396AB}"/>
-    <hyperlink ref="D14" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{FA525876-D2CF-418F-A3C0-E46A30F44F94}"/>
-    <hyperlink ref="F15" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{6B3AEB1B-F1BF-4C7B-B165-AB91124F2241}"/>
-    <hyperlink ref="F19" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{EE4F3278-0876-40F1-AE75-35FC6BDA7F32}"/>
-    <hyperlink ref="F20" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{BB7CEE53-6722-4B7E-95CF-DEBF6093D352}"/>
-    <hyperlink ref="D25" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{800FC394-4C82-4891-9FD4-6FE934FC84CB}"/>
-    <hyperlink ref="F30" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{D7DB91D4-413A-4850-A4D8-44A9C72D7DB0}"/>
-    <hyperlink ref="D34" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BBD89175-38D8-4032-B075-3C75A53B96C0}"/>
-    <hyperlink ref="F37" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{BF395A63-0B49-48A8-80D3-15CD9DFA5264}"/>
-    <hyperlink ref="D43" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{203CECB1-CEB3-4B2D-87B0-764AFDCCBFDA}"/>
-    <hyperlink ref="F46" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{E2ECCBF9-54DF-4FB2-8AF3-C383A6F18F8D}"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01504-2024-1674.pdf" xr:uid="{1B3D15FE-E770-462B-9C66-3E328821CF86}"/>
+    <hyperlink ref="D13" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01504-2024-1674.pdf" xr:uid="{96707743-EE11-4A7F-9307-A2E792EE7BAE}"/>
+    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{95BCDEC6-0528-47B6-B3E0-40B609296C30}"/>
+    <hyperlink ref="F15" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{0219EB68-58F2-40FA-8A5C-142256DEEB6E}"/>
+    <hyperlink ref="D19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01496-2024-SecBienestar.pdf" xr:uid="{97FA38F6-EA22-4434-A8DD-7B299CE202BF}"/>
+    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{52F13B94-448D-4B41-80A2-139782E566BA}"/>
+    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{F05C853B-0672-4418-A26B-3AAB530609F4}"/>
+    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C27778EA-F591-47EB-A469-71A5B6A99DED}"/>
+    <hyperlink ref="F30" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{F36A975A-6CC2-4B73-B410-603A4C61879D}"/>
+    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{E2207EFC-4229-4C83-9BDF-D60A630BA492}"/>
+    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{11F5ABF4-1F8F-4467-B475-C288623A4A42}"/>
+    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{CEED424F-3221-4B91-BCBA-FCE208343B5E}"/>
+    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{5344BE44-228D-4232-8D96-9F02EE74A4C1}"/>
+    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BD481943-227A-492D-B1D3-09D7CAE60291}"/>
+    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{2BC074F0-7BFD-438F-B934-076A166E2420}"/>
+    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{AF44EB51-413A-4FE4-8AD3-60B05BFF7931}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CB16D4-40DE-46A2-AD6E-27995B69CC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02106BFA-0754-493E-8524-8430946933F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2987C7B6-B62E-42CB-868E-92EC9D44F3F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{856BFF7B-63C3-4097-AB37-624651B70055}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-16.</t>
+    <t>De 2024-01-01 al 2024-11-24.</t>
   </si>
   <si>
     <t>No.</t>
@@ -52,49 +52,55 @@
     <t>SECRETARÍA TÉCNICA DE PRESIDENCIA</t>
   </si>
   <si>
+    <t>1548 ,</t>
+  </si>
+  <si>
     <t>350,476,521,710,</t>
   </si>
   <si>
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1430, 1435, 1454, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1430, 1435, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1394,1411,1414,1452,1455,</t>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1452,1454,1455,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1492, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,</t>
+    <t>1527 , 1544 , 1550 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1507, 1517, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1492,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">1435, 1461, </t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1453,</t>
+    <t>1540 ,</t>
+  </si>
+  <si>
+    <t>2,1524,</t>
+  </si>
+  <si>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1435,1453,1461,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">1277, 1435, 1456, </t>
-  </si>
-  <si>
-    <t>2,1372,</t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1404,1414,1436,1471,</t>
+    <t xml:space="preserve">1277, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -109,10 +115,7 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t>1504 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960, 1347, </t>
+    <t xml:space="preserve">960, 1347, 1504, 1538, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1358,1408,</t>
@@ -121,16 +124,22 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 1416, </t>
-  </si>
-  <si>
-    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,1333,1354,</t>
+    <t xml:space="preserve">9, 1515, </t>
+  </si>
+  <si>
+    <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,1333,1354,1416,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1458, 1460, 1477, </t>
+    <t>1543 , 1544 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, </t>
+  </si>
+  <si>
+    <t>2,1458,</t>
   </si>
   <si>
     <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,</t>
@@ -148,28 +157,25 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1424 ,</t>
+    <t>845 , 924 , 1424 , 1520 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1347, </t>
   </si>
   <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1521,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
   </si>
   <si>
-    <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1021 , 1110 , 1346 , 1402 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1494, </t>
-  </si>
-  <si>
-    <t>1365,</t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1166,1170,1171,1240,1295,</t>
+    <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1021 , 1110 , 1346 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
@@ -178,28 +184,22 @@
     <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, </t>
   </si>
   <si>
-    <t>2,1424,</t>
-  </si>
-  <si>
-    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,</t>
+    <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,1424,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 1249, </t>
-  </si>
-  <si>
-    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,</t>
+    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, </t>
+  </si>
+  <si>
+    <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,1507,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE IGUALDAD DE GÉNERO</t>
   </si>
   <si>
-    <t>1496 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1087, </t>
+    <t xml:space="preserve">1087, 1496, 1524, </t>
   </si>
   <si>
     <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,</t>
@@ -217,6 +217,9 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
+    <t>1550 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">1331, 1363, 1425, </t>
   </si>
   <si>
@@ -241,10 +244,10 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>961 , 1076 , 1499 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199, 1275, </t>
+    <t>961 , 1076 , 1548 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199, 1275, 1499, 1530, </t>
   </si>
   <si>
     <t>6,107,114,124,132,170,190,280,306,350,371,386,411,451,470,476,506,536,553,567,568,578,594,604,613,624,633,634,710,752,756,790,876,883,935,998,1166,1179,</t>
@@ -262,10 +265,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1333, 1336, 1354, 1489, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,</t>
+    <t xml:space="preserve">1272, 1333, 1336, 1354, 1517, 1527, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1489,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -286,13 +289,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t>1499 , 1501 , 1504 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1226, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,</t>
+    <t xml:space="preserve">1226, 1530, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1499,1501,1504,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -361,7 +361,7 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 ,</t>
+    <t>699 , 1528 ,</t>
   </si>
   <si>
     <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,</t>
@@ -370,7 +370,7 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 1491 ,</t>
+    <t>281 , 939 , 1491 , 1547 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
@@ -385,31 +385,31 @@
     <t>92 , 1072 ,</t>
   </si>
   <si>
-    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1328,1375,1399,1402,1411,</t>
+    <t xml:space="preserve">700, 2, 1311, 1493, </t>
+  </si>
+  <si>
+    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1225,1269,1328,1363,1375,1399,1402,1411,1452,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1445, </t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1502 , 1503 , 1505 , 1506 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1334, 1417, 1419, 1431, 1437, </t>
-  </si>
-  <si>
-    <t>2,1485,1490,1497,1498,1500,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1432,1433,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,</t>
+    <t>1541 , 1542 , 1544 , 1545 , 1546 , 1549 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1417, 1419, </t>
+  </si>
+  <si>
+    <t>2,1334,1437,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1431,1432,1433,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -419,9 +419,6 @@
   </si>
   <si>
     <t>FoliosC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700, 1225, 1269, 1311, 1363, 1452, 1493, </t>
   </si>
 </sst>
 </file>
@@ -796,6 +793,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD8E4BC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -809,12 +812,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,6 +1052,9 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1064,10 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1463,11 +1460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F685BE-EC6E-435B-BA4B-B4C364D67989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324E145E-F2CB-4C69-86D8-2DB92B636128}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1479,7 +1476,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1563,10 +1560,12 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
@@ -1575,41 +1574,41 @@
         <v>0</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="261">
+      <c r="J5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="275.5">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7">
-        <v>207</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="9">
+        <v>209</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="130.5">
@@ -1617,59 +1616,61 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>99</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="58">
+      <c r="E7" s="10">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9">
+        <v>100</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72.5">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>47</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="9">
+        <v>49</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="116">
@@ -1677,29 +1678,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7">
-        <v>83</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>24</v>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="9">
+        <v>86</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1707,29 +1708,29 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="8">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="9">
         <v>16</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>27</v>
+      <c r="J10" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72.5">
@@ -1737,61 +1738,59 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-      <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="10">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9">
         <v>47</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29">
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.5">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="8">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="9">
+        <v>23</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="159.5">
@@ -1799,31 +1798,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="8">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10">
+        <v>11</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9">
         <v>124</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
+      <c r="J13" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1831,29 +1830,29 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="9">
         <v>43</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>40</v>
+      <c r="J14" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1861,31 +1860,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="8">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="7">
-        <v>19</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="9">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72.5">
@@ -1893,31 +1892,29 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="10">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="8">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E16" s="10">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9">
+        <v>58</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1925,29 +1922,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="8">
+      <c r="E17" s="10">
         <v>11</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>43</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="F17" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1955,29 +1952,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>2</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="9">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>38</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="9">
+        <v>39</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.5">
@@ -1985,30 +1982,28 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="9">
-        <v>1</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="9">
         <v>24</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2023,22 +2018,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="8">
+      <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="9">
         <v>10</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2049,27 +2044,29 @@
       <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="F21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="9">
         <v>86</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>66</v>
+      <c r="J21" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="87">
@@ -2077,29 +2074,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="8">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="F22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="9">
         <v>57</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>69</v>
+      <c r="J22" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2107,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2117,17 +2114,17 @@
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="9">
         <v>15</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>71</v>
+      <c r="J23" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2135,31 +2132,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="10">
+        <v>73</v>
+      </c>
+      <c r="C24" s="7">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="8">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9">
         <v>38</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>75</v>
+      <c r="J24" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2167,13 +2164,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2183,11 +2180,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <v>5</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>78</v>
+      <c r="J25" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2195,29 +2192,31 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>5</v>
-      </c>
-      <c r="F26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>22</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="10">
+        <v>6</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>81</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="9">
+        <v>23</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2225,7 +2224,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2239,11 +2238,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>9</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>83</v>
+      <c r="J27" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2251,7 +2250,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2261,17 +2260,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="9">
         <v>11</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>85</v>
+      <c r="J28" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2279,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2289,17 +2288,17 @@
         <v>0</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="9">
-        <v>1</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="9">
         <v>5</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>78</v>
+      <c r="J29" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2307,30 +2306,28 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="8">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="9">
-        <v>1</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="7">
-        <v>47</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="9">
+        <v>50</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2345,22 +2342,22 @@
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="8">
+      <c r="E31" s="10">
         <v>4</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="9">
-        <v>1</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9">
         <v>12</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2379,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="9">
-        <v>1</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="9">
         <v>6</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2403,20 +2400,20 @@
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="8">
+      <c r="E33" s="10">
         <v>4</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="H33" s="6"/>
-      <c r="I33" s="7">
+      <c r="I33" s="9">
         <v>5</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2427,13 +2424,13 @@
       <c r="B34" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="10">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -2443,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="6"/>
-      <c r="I34" s="7">
+      <c r="I34" s="9">
         <v>2</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2465,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="9">
-        <v>1</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="9">
         <v>3</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2485,10 +2482,10 @@
       <c r="B36" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="7">
         <v>2</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="6">
@@ -2499,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <v>2</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2513,13 +2510,13 @@
       <c r="B37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
@@ -2529,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <v>2</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2551,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="9">
-        <v>1</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="9">
         <v>3</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2579,16 +2576,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="9">
-        <v>1</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="9">
         <v>3</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2599,11 +2596,11 @@
       <c r="B40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>77</v>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2613,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="7">
+      <c r="I40" s="9">
         <v>2</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2635,16 +2632,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="7">
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9">
         <v>3</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2655,10 +2652,10 @@
       <c r="B42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="7">
         <v>2</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="6">
@@ -2669,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="6"/>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <v>2</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2683,26 +2680,26 @@
       <c r="B43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="7">
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="9">
         <v>50</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2713,28 +2710,28 @@
       <c r="B44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="10">
-        <v>3</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="7">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="10">
         <v>5</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="7">
-        <v>14</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="9">
+        <v>14</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2745,27 +2742,27 @@
       <c r="B45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>2</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="8">
-        <v>8</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>133</v>
+      <c r="E45" s="10">
+        <v>4</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
-      <c r="I45" s="7">
-        <v>38</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>121</v>
+      <c r="I45" s="9">
+        <v>42</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2773,28 +2770,26 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="7">
-        <v>17</v>
-      </c>
-      <c r="J46" s="7" t="s">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9">
+        <v>18</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2805,28 +2800,28 @@
       <c r="B47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="10">
-        <v>4</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="7">
+        <v>6</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="8">
-        <v>5</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="10">
+        <v>2</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="9">
-        <v>6</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="G47" s="11">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I47" s="7">
-        <v>478</v>
-      </c>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="9">
+        <v>504</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2848,19 +2843,19 @@
         <v>130</v>
       </c>
       <c r="C49" s="6">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1818</v>
+        <v>1868</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2871,22 +2866,20 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01504-2024-1674.pdf" xr:uid="{1B3D15FE-E770-462B-9C66-3E328821CF86}"/>
-    <hyperlink ref="D13" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01504-2024-1674.pdf" xr:uid="{96707743-EE11-4A7F-9307-A2E792EE7BAE}"/>
-    <hyperlink ref="D14" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{95BCDEC6-0528-47B6-B3E0-40B609296C30}"/>
-    <hyperlink ref="F15" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{0219EB68-58F2-40FA-8A5C-142256DEEB6E}"/>
-    <hyperlink ref="D19" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01496-2024-SecBienestar.pdf" xr:uid="{97FA38F6-EA22-4434-A8DD-7B299CE202BF}"/>
-    <hyperlink ref="F19" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01087-2024-semujeres_202409091455.pdf" xr:uid="{52F13B94-448D-4B41-80A2-139782E566BA}"/>
-    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{F05C853B-0672-4418-A26B-3AAB530609F4}"/>
-    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C27778EA-F591-47EB-A469-71A5B6A99DED}"/>
-    <hyperlink ref="F30" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{F36A975A-6CC2-4B73-B410-603A4C61879D}"/>
-    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{E2207EFC-4229-4C83-9BDF-D60A630BA492}"/>
-    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{11F5ABF4-1F8F-4467-B475-C288623A4A42}"/>
-    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{CEED424F-3221-4B91-BCBA-FCE208343B5E}"/>
-    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{5344BE44-228D-4232-8D96-9F02EE74A4C1}"/>
-    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BD481943-227A-492D-B1D3-09D7CAE60291}"/>
-    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{2BC074F0-7BFD-438F-B934-076A166E2420}"/>
-    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01445-2024-1635.pdf" xr:uid="{AF44EB51-413A-4FE4-8AD3-60B05BFF7931}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{DA3A01B1-6537-42AF-BE3A-963CC9701D7C}"/>
+    <hyperlink ref="D8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01540-2024-1696.pdf" xr:uid="{C5E2FF6F-3A12-4370-9816-D911DB2448DD}"/>
+    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{9BF1FBE3-0EC7-4C10-A576-D0569990058C}"/>
+    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{3C2FEEAC-D604-4BF4-BC38-ABD2A807FE2F}"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{85B2448B-14AF-4BBB-88BE-7BBF3A1FA1A1}"/>
+    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{ABABFAF5-99C5-4DAF-B5C6-E66A97F92FFA}"/>
+    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01550-2024-Convocatoriapremioanualanticorrup2024.pdf" xr:uid="{EA19DD82-1C99-4F07-9D25-5193357FCF8A}"/>
+    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{39CB4398-0657-4C7D-801C-F6D27CFAFA45}"/>
+    <hyperlink ref="D26" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01550-2024-Convocatoriapremioanualanticorrup2024.pdf" xr:uid="{4EF8EB39-9852-4414-8DF4-C942B6D8850D}"/>
+    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9F458A10-8740-43EA-B0A1-A9C28835308B}"/>
+    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{69B6CB9F-3730-4FB4-9A2A-4840AF84A217}"/>
+    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F5A3509F-8ABD-428B-A88A-8511D7F0EC40}"/>
+    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{6748A267-00D4-4515-8182-CB4D8F87CC60}"/>
+    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C013CD46-BB1F-4B15-9BDA-416807C35D5B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02106BFA-0754-493E-8524-8430946933F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FA95907D-B22D-4344-B505-7769B9C67E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{856BFF7B-63C3-4097-AB37-624651B70055}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AA0C36EF-A971-4D70-9DCE-B591322E5FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-24.</t>
+    <t>De 2024-01-01 al 2024-11-30.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,46 +61,43 @@
     <t>TESORERÍA</t>
   </si>
   <si>
-    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1430, 1435, </t>
+    <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1596, </t>
+  </si>
+  <si>
+    <t>2,1636,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
+  </si>
+  <si>
+    <t>1631 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1507, 1517, 1550, </t>
   </si>
   <si>
     <t>2,</t>
   </si>
   <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1452,1454,1455,</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DEL AYUNTAMIENTO</t>
-  </si>
-  <si>
-    <t>1527 , 1544 , 1550 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1507, 1517, </t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1492,</t>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1492,1527,1544,1595,1615,1619,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
-    <t>1540 ,</t>
-  </si>
-  <si>
-    <t>2,1524,</t>
-  </si>
-  <si>
-    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1435,1453,1461,</t>
+    <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1435,1453,1461,1524,1540,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">1277, </t>
-  </si>
-  <si>
-    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,</t>
+    <t xml:space="preserve">1277, 1616, </t>
+  </si>
+  <si>
+    <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,1608,1609,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBERNACIÓN</t>
@@ -115,7 +112,10 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t xml:space="preserve">960, 1347, 1504, 1538, </t>
+    <t>1634 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960, 1347, 1504, 1538, 1604, 1628, </t>
   </si>
   <si>
     <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1358,1408,</t>
@@ -124,7 +124,7 @@
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 1515, </t>
+    <t xml:space="preserve">9, 1515, 1596, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,1333,1354,1416,</t>
@@ -133,16 +133,10 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>1543 , 1544 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, </t>
-  </si>
-  <si>
-    <t>2,1458,</t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,</t>
+    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, 1543, 1544, 1607, </t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -157,13 +151,13 @@
     <t>DIRECCIÓN DE CULTURA</t>
   </si>
   <si>
-    <t>845 , 924 , 1424 , 1520 ,</t>
+    <t>845 , 924 , 1520 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1347, </t>
   </si>
   <si>
-    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1521,</t>
+    <t>64,80,85,169,190,350,437,476,615,710,734,744,755,904,958,1156,1166,1294,1299,1424,1521,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE SERVICIOS PÚBLICOS</t>
@@ -172,10 +166,10 @@
     <t>675 , 910 , 911 , 942 , 953 , 954 , 965 , 1002 , 1003 , 1004 , 1005 , 1006 , 1007 , 1021 , 1110 , 1346 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">354, 389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508, </t>
-  </si>
-  <si>
-    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,</t>
+    <t xml:space="preserve">389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508, </t>
+  </si>
+  <si>
+    <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,354,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
@@ -190,7 +184,7 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, </t>
+    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, 1614, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,1507,</t>
@@ -202,12 +196,15 @@
     <t xml:space="preserve">1087, 1496, 1524, </t>
   </si>
   <si>
-    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,</t>
+    <t>53,132,142,190,235,248,350,370,385,476,592,613,629,653,704,710,711,721,752,930,1059,1076,1166,1348,1613,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
+    <t>1615 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">906, </t>
   </si>
   <si>
@@ -217,27 +214,27 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t>1550 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1331, 1363, 1425, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,</t>
+    <t xml:space="preserve">1331, 1363, 1425, 1550, 1631, 1636, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,1596,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1293, 1434, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,</t>
+    <t xml:space="preserve">1293, 1606, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,1434,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
   </si>
   <si>
+    <t xml:space="preserve">1592, </t>
+  </si>
+  <si>
     <t>66,188,190,245,350,443,476,492,516,538,633,634,710,998,1166,</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1333, 1336, 1354, 1517, 1527, </t>
+    <t xml:space="preserve">1272, 1333, 1336, 1354, 1517, 1527, 1550, 1595, 1619, 1629, </t>
   </si>
   <si>
     <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1489,</t>
@@ -361,19 +358,19 @@
     <t>SECRETARÍA TÉCNICA DEL CONSEJO MUNICIPAL DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t>699 , 1528 ,</t>
-  </si>
-  <si>
-    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,</t>
+    <t>699 ,</t>
+  </si>
+  <si>
+    <t>18,22,36,43,69,108,128,177,190,196,209,211,290,350,407,417,427,429,430,452,476,479,496,511,535,549,554,581,583,627,659,669,685,710,750,753,769,829,860,869,877,891,980,1008,1018,1064,1166,1247,1329,1460,1528,</t>
   </si>
   <si>
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 1491 , 1547 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151, 289, 556, 951, 1047, </t>
+    <t>281 , 939 , 1491 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, 289, 556, 951, 1047, 1547, </t>
   </si>
   <si>
     <t>120,155,173,179,190,214,350,397,476,504,710,777,934,1166,</t>
@@ -382,34 +379,34 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 ,</t>
+    <t>92 , 1072 , 1636 ,</t>
   </si>
   <si>
     <t xml:space="preserve">700, 2, 1311, 1493, </t>
   </si>
   <si>
-    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1225,1269,1328,1363,1375,1399,1402,1411,1452,</t>
+    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1225,1269,1328,1363,1375,1399,1402,1411,1452,1596,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
+    <t xml:space="preserve">1595, </t>
+  </si>
+  <si>
     <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t>1541 , 1542 , 1544 , 1545 , 1546 , 1549 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1417, 1419, </t>
-  </si>
-  <si>
-    <t>2,1334,1437,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1431,1432,1433,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,</t>
+    <t xml:space="preserve">1419, 1639, </t>
+  </si>
+  <si>
+    <t>2,1417,1624,1631,1635,1637,1638,1640,1641,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1625,1626,1627,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -1460,10 +1457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324E145E-F2CB-4C69-86D8-2DB92B636128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCFCE1F-2FF8-4307-A3AA-4D470D4884C8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1476,7 +1473,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1538,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1550,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1599,19 +1596,19 @@
         <v>13</v>
       </c>
       <c r="G6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="130.5">
+    <row r="7" spans="1:10" ht="145">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1619,13 +1616,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>18</v>
@@ -1634,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" s="9">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72.5">
@@ -1648,29 +1645,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>0</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9">
+        <v>51</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="I8" s="9">
-        <v>49</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="116">
@@ -1678,29 +1673,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="9">
+        <v>88</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="9">
-        <v>86</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1708,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1718,19 +1713,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I10" s="9">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72.5">
@@ -1738,14 +1733,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>31</v>
@@ -1754,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I11" s="9">
         <v>47</v>
@@ -1775,7 +1772,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>34</v>
@@ -1784,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" s="9">
         <v>23</v>
@@ -1800,29 +1797,27 @@
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10">
-        <v>11</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="9">
+        <v>125</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="9">
-        <v>124</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1830,13 +1825,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1846,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I14" s="9">
         <v>43</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1860,61 +1855,61 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9">
+        <v>21</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="9">
-        <v>20</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="72.5">
+    </row>
+    <row r="16" spans="1:10" ht="87">
       <c r="A16" s="6">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1922,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -1932,19 +1927,19 @@
         <v>11</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I17" s="9">
         <v>44</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1952,29 +1947,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I18" s="9">
         <v>39</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.5">
@@ -1982,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1992,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I19" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2012,29 +2007,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I20" s="9">
         <v>10</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2042,31 +2039,29 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="10">
+        <v>6</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9">
+        <v>87</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="9">
-        <v>86</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="87">
@@ -2074,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2084,19 +2079,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I22" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2104,27 +2099,29 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I23" s="9">
         <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2132,31 +2129,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I24" s="9">
         <v>38</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2164,13 +2161,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2184,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="29">
@@ -2192,31 +2189,29 @@
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10">
+        <v>10</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="10">
-        <v>6</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I26" s="9">
         <v>23</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2224,7 +2219,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2242,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2250,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2264,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I28" s="9">
         <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2278,7 +2273,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2292,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I29" s="9">
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2306,7 +2301,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2316,19 +2311,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I30" s="9">
         <v>50</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2336,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2346,19 +2341,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G31" s="11">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I31" s="9">
         <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2366,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2380,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I32" s="9">
         <v>6</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2394,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2404,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2414,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2422,19 +2417,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2444,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2452,7 +2447,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2466,13 +2461,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I35" s="9">
         <v>3</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2480,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2500,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2508,19 +2503,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2530,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2538,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2552,13 +2547,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I38" s="9">
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2566,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2580,13 +2575,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I39" s="9">
         <v>3</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2594,13 +2589,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2614,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2622,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2636,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I41" s="9">
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2650,13 +2645,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2670,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2678,13 +2673,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2694,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I43" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2708,31 +2703,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="7">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="10">
+        <v>6</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="10">
-        <v>5</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I44" s="9">
         <v>14</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="58">
@@ -2740,29 +2735,29 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E45" s="10">
         <v>4</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2770,21 +2765,23 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6"/>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I46" s="9">
         <v>18</v>
@@ -2800,29 +2797,27 @@
       <c r="B47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="7">
-        <v>6</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="10">
         <v>2</v>
       </c>
       <c r="F47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="11">
+        <v>9</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="11">
-        <v>3</v>
-      </c>
-      <c r="H47" s="11" t="s">
+      <c r="I47" s="9">
+        <v>534</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="I47" s="9">
-        <v>504</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2840,22 +2835,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="6">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1868</v>
+        <v>1916</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2866,20 +2861,22 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{DA3A01B1-6537-42AF-BE3A-963CC9701D7C}"/>
-    <hyperlink ref="D8" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01540-2024-1696.pdf" xr:uid="{C5E2FF6F-3A12-4370-9816-D911DB2448DD}"/>
-    <hyperlink ref="F9" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{9BF1FBE3-0EC7-4C10-A576-D0569990058C}"/>
-    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{3C2FEEAC-D604-4BF4-BC38-ABD2A807FE2F}"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{85B2448B-14AF-4BBB-88BE-7BBF3A1FA1A1}"/>
-    <hyperlink ref="F20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{ABABFAF5-99C5-4DAF-B5C6-E66A97F92FFA}"/>
-    <hyperlink ref="D21" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01550-2024-Convocatoriapremioanualanticorrup2024.pdf" xr:uid="{EA19DD82-1C99-4F07-9D25-5193357FCF8A}"/>
-    <hyperlink ref="D25" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{39CB4398-0657-4C7D-801C-F6D27CFAFA45}"/>
-    <hyperlink ref="D26" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01550-2024-Convocatoriapremioanualanticorrup2024.pdf" xr:uid="{4EF8EB39-9852-4414-8DF4-C942B6D8850D}"/>
-    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{9F458A10-8740-43EA-B0A1-A9C28835308B}"/>
-    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{69B6CB9F-3730-4FB4-9A2A-4840AF84A217}"/>
-    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F5A3509F-8ABD-428B-A88A-8511D7F0EC40}"/>
-    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{6748A267-00D4-4515-8182-CB4D8F87CC60}"/>
-    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C013CD46-BB1F-4B15-9BDA-416807C35D5B}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{CD55F97F-3252-42B9-B4CF-77DDF2924112}"/>
+    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01631-2024-1724.pdf" xr:uid="{1844A313-B6D4-4BEE-B198-370A4D987C4E}"/>
+    <hyperlink ref="D11" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01634-2024-721de.pdf" xr:uid="{93D20932-224C-4683-A74C-4E82B07BCC07}"/>
+    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{64DBF602-2614-4A20-BA53-44ED3F9687E5}"/>
+    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{0E21B9A9-26B2-48BA-B414-41B556ACABF9}"/>
+    <hyperlink ref="D20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01615-2024-686ed.pdf" xr:uid="{9556D392-6C41-4D92-B3FE-8FA1545C4E60}"/>
+    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{7599F592-8B3D-48A0-978C-83302B7B3354}"/>
+    <hyperlink ref="F23" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01592-2024-1707.pdf" xr:uid="{2A0AF05C-C042-4F75-93A1-C4C6A7193894}"/>
+    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C4641B1D-4256-416C-80EF-A83FED877DAB}"/>
+    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F8BC8167-4194-40CE-9B4E-DB58CD378D04}"/>
+    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{326BABBC-B049-42EE-A832-5D8E45916CB8}"/>
+    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7D3C6B39-629E-4B77-A8A1-15F6131E38FD}"/>
+    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{67994F88-EF7C-40DB-94AC-CB093483A653}"/>
+    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{5D6A4DAF-8A4B-4FBE-AABD-DFCEB9FE32E1}"/>
+    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{1B72E34D-6F6C-4968-872B-5DE46C0A79E2}"/>
+    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01595-2024-1711.pdf" xr:uid="{B6C7BB60-80BB-4B3C-BA8D-4849D7EB7425}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FA95907D-B22D-4344-B505-7769B9C67E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5E231-A03F-4A53-A817-7D009712309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AA0C36EF-A971-4D70-9DCE-B591322E5FEC}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2, 1001, 1063, 1068, </t>
-  </si>
-  <si>
     <t>126,261,710,998,1372,</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>92 , 1072 , 1636 ,</t>
   </si>
   <si>
-    <t xml:space="preserve">700, 2, 1311, 1493, </t>
-  </si>
-  <si>
     <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1225,1269,1328,1363,1375,1399,1402,1411,1452,1596,</t>
   </si>
   <si>
@@ -416,6 +410,12 @@
   </si>
   <si>
     <t>FoliosC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700, 1311, 1493, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001, 1063, 1068, </t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCFCE1F-2FF8-4307-A3AA-4D470D4884C8}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D47" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1535,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1547,7 +1547,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2396,10 +2396,10 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2417,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2447,7 +2447,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2475,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2503,7 +2503,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2533,7 +2533,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2561,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2589,7 +2589,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -2609,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2617,7 +2617,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2645,13 +2645,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2665,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2673,13 +2673,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>51</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2703,19 +2703,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="7">
         <v>3</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="10">
         <v>6</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="58">
@@ -2735,19 +2735,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" s="7">
         <v>3</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>43</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2765,7 +2765,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G46" s="11">
         <v>1</v>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2795,7 +2795,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -2805,19 +2805,19 @@
         <v>2</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G47" s="11">
         <v>9</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I47" s="9">
         <v>534</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2835,7 +2835,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6">
         <v>419</v>

--- a/py/Junio.xlsx
+++ b/py/Junio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\Horus-President\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5E231-A03F-4A53-A817-7D009712309A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3116CE05-4F27-4DE1-BBB8-6B118EA6E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AA0C36EF-A971-4D70-9DCE-B591322E5FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81E8631F-8976-4C45-A0B2-DF60C9DDFCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="reporte_general" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="134">
   <si>
     <t>Reporte General por Dependencia de los Turnos</t>
   </si>
   <si>
-    <t>De 2024-01-01 al 2024-11-30.</t>
+    <t>De 2024-01-01 al 2024-12-06.</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,40 +61,46 @@
     <t>TESORERÍA</t>
   </si>
   <si>
+    <t>1652 ,</t>
+  </si>
+  <si>
     <t xml:space="preserve">695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1596, </t>
   </si>
   <si>
-    <t>2,1636,</t>
-  </si>
-  <si>
-    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,</t>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>11,25,26,28,29,30,32,33,41,43,46,47,48,49,61,65,71,72,84,86,92,98,99,100,118,119,125,128,138,139,150,152,154,160,163,164,165,166,168,176,177,180,185,186,187,189,190,194,195,196,204,205,217,228,231,238,239,240,254,258,261,266,270,271,272,279,301,317,328,335,346,347,348,350,361,364,365,371,372,378,379,380,407,408,412,414,415,416,424,429,430,431,434,441,444,445,446,462,463,464,475,476,482,483,484,508,510,513,514,515,524,525,532,533,534,540,544,545,547,556,557,574,575,595,597,609,611,620,622,635,645,647,654,667,668,680,682,683,689,692,697,698,700,710,748,762,764,770,776,779,780,793,794,818,820,823,839,851,871,898,920,922,925,926,931,972,998,1016,1023,1055,1058,1065,1071,1088,1108,1109,1146,1155,1163,1166,1173,1174,1180,1192,1205,1210,1212,1214,1237,1238,1249,1269,1282,1291,1292,1293,1330,1331,1341,1342,1363,1375,1379,1394,1411,1414,1430,1452,1454,1455,1636,1676,1677,1678,</t>
   </si>
   <si>
     <t>SECRETARÍA DEL AYUNTAMIENTO</t>
   </si>
   <si>
-    <t>1631 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278, 835, 931, 1054, 1067, 1289, 1507, 1517, 1550, </t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1074,1166,1169,1192,1194,1203,1227,1240,1264,1316,1319,1372,1401,1414,1492,1527,1544,1595,1615,1619,</t>
+    <t xml:space="preserve">278, 835, 931, 1054, 1550, </t>
+  </si>
+  <si>
+    <t>57,60,68,70,71,81,97,121,122,126,131,132,138,175,190,225,230,265,295,305,311,312,313,314,315,324,342,344,350,368,369,371,375,385,366,391,398,399,418,419,422,426,441,443,447,449,451,455,458,459,462,476,478,480,481,521,531,537,559,579,599,601,605,606,612,615,619,621,638,639,641,642,658,678,710,789,862,879,884,941,963,965,1016,1021,1051,1067,1074,1166,1169,1192,1194,1203,1227,1240,1264,1289,1316,1319,1372,1401,1414,1492,1507,1517,1527,1544,1595,1615,1619,1631,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN</t>
   </si>
   <si>
+    <t>1662 ,</t>
+  </si>
+  <si>
     <t>10,26,38,40,45,49,134,153,171,174,190,203,265,266,291,305,317,325,350,447,451,476,486,489,490,493,494,495,501,508,676,689,696,710,730,734,878,879,932,966,981,1166,1169,1332,1383,1414,1435,1453,1461,1524,1540,</t>
   </si>
   <si>
     <t>CONSEJERÍA JURÍDICO</t>
   </si>
   <si>
-    <t xml:space="preserve">1277, 1616, </t>
+    <t>1675 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1277, </t>
+  </si>
+  <si>
+    <t>2,1616,1663,</t>
   </si>
   <si>
     <t>11,71,127,190,241,243,260,318,319,320,333,334,344,350,352,357,367,321,383,386,400,401,402,403,409,410,422,423,427,449,452,454,458,461,465,466,467,476,478,481,503,506,517,520,522,553,571,572,573,576,656,666,707,710,719,800,835,846,847,848,849,858,879,908,963,980,983,996,997,1009,1063,1074,1157,1166,1227,1264,1299,1322,1324,1372,1404,1414,1435,1436,1456,1471,1608,1609,</t>
@@ -112,19 +118,19 @@
     <t>DIRECCIÓN DE DESARROLLO ECONÓMICO, TURÍSTICO Y ARTESANAL</t>
   </si>
   <si>
-    <t>1634 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960, 1347, 1504, 1538, 1604, 1628, </t>
-  </si>
-  <si>
-    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1358,1408,</t>
+    <t xml:space="preserve">1604, 1628, </t>
+  </si>
+  <si>
+    <t>2,1538,1634,</t>
+  </si>
+  <si>
+    <t>73,124,141,190,206,288,350,355,386,432,433,466,467,476,509,578,588,604,623,625,628,636,646,655,671,710,728,755,781,790,835,836,886,929,935,960,1034,1040,1101,1166,1169,1179,1184,1254,1294,1345,1347,1358,1408,1504,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO SOCIAL Y ASUNTOS INDÍGENAS</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 1515, 1596, </t>
+    <t xml:space="preserve">9, 1515, 1596, 1656, </t>
   </si>
   <si>
     <t>37,190,198,208,222,282,350,424,449,470,476,598,608,710,752,756,870,952,965,1166,1333,1354,1416,</t>
@@ -133,10 +139,13 @@
     <t>DIRECCIÓN DE SEGURIDAD PÚBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, 1543, 1544, 1607, </t>
-  </si>
-  <si>
-    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,</t>
+    <t xml:space="preserve">13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1543, 1665, </t>
+  </si>
+  <si>
+    <t>657,2,1544,1607,</t>
+  </si>
+  <si>
+    <t>3,4,12,16,17,18,22,34,36,43,64,69,82,90,94,97,108,122,139,152,167,177,182,188,190,196,211,235,244,245,249,255,283,290,307,321,350,368,372,383,389,390,398,407,417,419,427,429,430,442,443,452,455,476,477,479,496,511,517,520,535,549,554,581,583,586,591,601,603,613,614,617,627,630,638,639,641,642,659,669,675,685,686,690,710,722,737,750,753,769,792,815,829,837,840,860,861,864,877,879,888,891,941,948,1008,1049,1064,1158,1166,1204,1226,1240,1247,1259,1260,1306,1312,1318,1325,1329,1337,1355,1388,1414,1458,1477,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DESARROLLO URBANO Y METROPOLITANO</t>
@@ -169,13 +178,16 @@
     <t xml:space="preserve">389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508, </t>
   </si>
   <si>
+    <t>1667,</t>
+  </si>
+  <si>
     <t>7,31,39,58,59,75,89,95,137,162,190,197,219,247,262,293,296,341,350,354,359,283,374,376,377,404,405,413,443,476,485,505,526,527,528,570,584,607,618,649,650,673,703,710,737,773,774,869,982,1017,1049,1092,1166,1170,1171,1240,1295,1365,1402,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE MEDIO AMBIENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, </t>
+    <t xml:space="preserve">631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, 1667, </t>
   </si>
   <si>
     <t>24,31,58,59,75,89,95,137,190,197,201,233,234,247,262,309,350,359,363,377,389,405,413,476,485,505,584,626,703,705,710,726,741,742,771,835,907,942,1007,1095,1166,1295,1327,1424,</t>
@@ -184,7 +196,7 @@
     <t>DIRECCIÓN DE GOBIERNO POR RESULTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, 1614, </t>
+    <t xml:space="preserve">931, 1249, 1516, 1532, 1533, 1614, 1650, </t>
   </si>
   <si>
     <t>6,35,37,63,83,88,146,147,190,252,266,278,282,350,355,381,456,476,540,562,569,684,687,704,710,739,812,821,836,892,894,909,929,933,987,1016,1087,1166,1507,</t>
@@ -202,10 +214,7 @@
     <t>DIRECCIÓN DE EDUCACIÓN</t>
   </si>
   <si>
-    <t>1615 ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">906, </t>
+    <t xml:space="preserve">906, 1615, </t>
   </si>
   <si>
     <t>190,192,350,438,476,691,710,913,1156,1166,</t>
@@ -214,19 +223,22 @@
     <t>CONTRALORÍA MUNICIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1331, 1363, 1425, 1550, 1631, 1636, </t>
-  </si>
-  <si>
-    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,1596,</t>
+    <t>1676 , 1677 , 1678 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1331, 1363, 1425, 1631, 1636, </t>
+  </si>
+  <si>
+    <t>13,21,25,27,55,61,63,65,92,119,125,136,166,190,210,242,254,261,266,328,329,350,356,361,408,407,434,440,441,452,453,457,462,465,476,486,489,493,494,495,508,513,514,515,525,544,577,609,611,620,633,634,677,680,683,692,697,698,700,706,710,748,780,823,828,922,933,972,981,998,1012,1019,1020,1031,1065,1087,1088,1146,1157,1166,1214,1269,1375,1394,1411,1452,1550,1596,1652,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL OPDAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">1293, 1606, </t>
-  </si>
-  <si>
-    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,1434,</t>
+    <t xml:space="preserve">1293, </t>
+  </si>
+  <si>
+    <t>15,56,91,102,144,148,160,180,190,205,269,274,279,296,350,420,421,424,435,436,476,490,519,523,556,563,585,610,633,634,701,710,712,720,736,758,814,824,869,896,897,907,973,974,998,1028,1035,1051,1060,1095,1166,1175,1207,1248,1273,1316,1346,1434,1606,</t>
   </si>
   <si>
     <t>DIRECCIÓN DEL IMCUFIDEM</t>
@@ -241,7 +253,7 @@
     <t>DIRECCIÓN DEL SMDIF</t>
   </si>
   <si>
-    <t>961 , 1076 , 1548 ,</t>
+    <t>961 , 1076 , 1548 , 1660 ,</t>
   </si>
   <si>
     <t xml:space="preserve">1199, 1275, 1499, 1530, </t>
@@ -262,10 +274,10 @@
     <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
   </si>
   <si>
-    <t xml:space="preserve">1272, 1333, 1336, 1354, 1517, 1527, 1550, 1595, 1619, 1629, </t>
-  </si>
-  <si>
-    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1489,</t>
+    <t xml:space="preserve">1272, 1629, </t>
+  </si>
+  <si>
+    <t>60,74,87,97,121,190,302,350,361,368,476,695,710,734,743,873,879,924,1083,1166,1194,1288,1333,1336,1354,1489,1517,1527,1550,1595,1619,</t>
   </si>
   <si>
     <t>GERENCIA DE LA CIUDAD</t>
@@ -286,10 +298,10 @@
     <t>COORDINACIÓN DE PROTECCIÓN CIVIL Y BOMBEROS</t>
   </si>
   <si>
-    <t xml:space="preserve">1226, 1530, </t>
-  </si>
-  <si>
-    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1499,1501,1504,</t>
+    <t xml:space="preserve">1226, </t>
+  </si>
+  <si>
+    <t>5,56,102,105,135,137,167,170,188,190,212,245,259,306,350,374,386,435,443,476,477,568,613,630,632,636,661,710,712,736,790,802,835,861,879,888,941,944,962,1027,1039,1166,1179,1306,1312,1388,1414,1499,1501,1504,1530,</t>
   </si>
   <si>
     <t>DIRECCIÓN DE GOBIERNO DIGITAL Y ELECTRÓNICO</t>
@@ -310,6 +322,9 @@
     <t>SÍNDICATURA MUNICIPAL</t>
   </si>
   <si>
+    <t xml:space="preserve">2, 1001, 1063, 1068, </t>
+  </si>
+  <si>
     <t>126,261,710,998,1372,</t>
   </si>
   <si>
@@ -364,7 +379,7 @@
     <t>COORDINACIÓN DE ATENCIÓN CIUDADANA DE LA PRESIDENCIA</t>
   </si>
   <si>
-    <t>281 , 939 , 1491 ,</t>
+    <t>281 , 939 , 1491 , 1651 , 1681 ,</t>
   </si>
   <si>
     <t xml:space="preserve">151, 289, 556, 951, 1047, 1547, </t>
@@ -376,31 +391,28 @@
     <t>DIRECCIÓN DE OBRAS PÚBLICAS</t>
   </si>
   <si>
-    <t>92 , 1072 , 1636 ,</t>
-  </si>
-  <si>
-    <t>25,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1088,1166,1225,1269,1328,1363,1375,1399,1402,1411,1452,1596,</t>
+    <t xml:space="preserve">2, </t>
+  </si>
+  <si>
+    <t>25,92,154,166,190,244,254,296,350,361,371,389,473,476,499,609,691,697,698,700,710,780,823,841,842,843,880,955,976,984,1020,1049,1069,1072,1088,1166,1225,1269,1311,1328,1363,1375,1399,1402,1411,1452,1493,1596,1636,1652,</t>
   </si>
   <si>
     <t>DEFENSORÍA MUNICIPAL DE LOS DERECHOS HUMANOS</t>
   </si>
   <si>
-    <t xml:space="preserve">1595, </t>
-  </si>
-  <si>
-    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,</t>
+    <t>190,350,453,471,476,506,517,520,556,613,710,711,752,837,1087,1166,1260,1445,1595,</t>
   </si>
   <si>
     <t>SECRETARÍA PARTICULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">1419, 1639, </t>
-  </si>
-  <si>
-    <t>2,1417,1624,1631,1635,1637,1638,1640,1641,</t>
-  </si>
-  <si>
-    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1418,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1625,1626,1627,</t>
+    <t xml:space="preserve">1656, </t>
+  </si>
+  <si>
+    <t>2,1658,1674,1679,1680,</t>
+  </si>
+  <si>
+    <t>8,14,19,23,39,42,44,50,51,52,54,56,67,76,77,79,96,101,103,104,106,109,111,112,113,115,116,117,119,124,129,130,133,143,144,145,149,156,158,159,172,178,181,183,184,190,191,193,199,200,202,206,215,216,217,218,220,221,223,224,226,227,229,232,237,246,249,250,253,256,257,260,263,264,267,273,276,277,284,285,286,287,292,294,297,299,300,303,304,307,308,310,316,326,327,330,331,332,336,337,338,339,340,343,345,349,350,351,353,358,362,373,375,384,387,388,392,393,394,395,396,406,425,428,439,448,450,460,466,468,469,472,474,476,477,487,498,500,502,507,512,516,517,520,521,523,530,541,542,543,545,548,550,558,560,561,564,565,566,586,589,593,596,602,632,637,641,642,643,648,651,652,660,662,663,664,665,670,671,674,679,681,688,693,694,702,708,709,710,714,715,716,717,723,724,725,727,731,732,733,734,735,738,740,744,746,747,749,751,754,755,757,759,763,765,766,768,772,775,782,783,784,785,786,787,788,791,795,796,797,798,799,801,802,803,804,805,806,807,808,809,810,811,813,816,817,819,822,825,826,827,830,831,832,833,835,837,838,840,844,850,853,854,855,856,858,859,861,863,865,866,872,873,874,879,880,881,885,887,888,889,890,893,895,899,900,901,902,903,905,912,914,915,918,919,921,923,927,928,930,936,937,938,940,943,945,946,950,952,957,959,963,964,971,975,977,978,979,985,986,988,991,992,993,994,995,998,1010,1011,1012,1014,1015,1018,1021,1029,1030,1032,1033,1037,1038,1048,1050,1051,1052,1056,1061,1062,1068,1070,1075,1077,1078,1079,1084,1086,1099,1100,1101,1102,1111,1147,1148,1154,1158,1159,1160,1164,1165,1166,1169,1172,1177,1178,1182,1184,1185,1186,1189,1193,1195,1196,1197,1198,1200,1201,1202,1203,1209,1213,1215,1216,1222,1236,1252,1253,1258,1261,1263,1265,1266,1267,1268,1270,1271,1272,1274,1276,1280,1284,1285,1286,1290,1297,1298,1303,1304,1305,1307,1309,1310,1312,1313,1314,1315,1316,1320,1321,1323,1334,1338,1339,1350,1353,1356,1359,1360,1361,1362,1370,1371,1372,1373,1374,1377,1380,1381,1382,1387,1392,1393,1397,1403,1406,1407,1410,1415,1417,1418,1419,1420,1428,1431,1432,1433,1437,1443,1445,1446,1448,1449,1450,1451,1459,1465,1466,1467,1468,1469,1470,1472,1476,1478,1480,1485,1490,1497,1498,1500,1502,1503,1505,1506,1509,1510,1511,1512,1513,1517,1518,1519,1520,1522,1523,1529,1531,1534,1535,1539,1541,1542,1544,1545,1546,1549,1589,1590,1591,1593,1594,1596,1597,1598,1601,1602,1603,1615,1617,1618,1619,1620,1621,1622,1623,1624,1625,1626,1627,1631,1635,1637,1638,1639,1640,1641,1649,1653,1654,1655,1657,1661,1664,1666,1669,1670,</t>
   </si>
   <si>
     <t>TODAS LAS DEPENDENCIAS</t>
@@ -410,12 +422,6 @@
   </si>
   <si>
     <t>FoliosC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700, 1311, 1493, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1001, 1063, 1068, </t>
   </si>
 </sst>
 </file>
@@ -1457,11 +1463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCFCE1F-2FF8-4307-A3AA-4D470D4884C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00C8B4-698F-491F-8A20-39DEE0A907CF}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E47" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1473,7 +1479,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1535,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -1547,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1585,27 +1591,29 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="10">
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="145">
@@ -1613,16 +1621,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>18</v>
@@ -1631,13 +1637,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9">
+        <v>110</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="9">
-        <v>105</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72.5">
@@ -1645,12 +1651,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
       <c r="E8" s="6">
         <v>0</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I8" s="9">
         <v>51</v>
@@ -1675,27 +1683,29 @@
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I9" s="9">
         <v>88</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="29">
@@ -1703,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1713,19 +1723,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9">
         <v>16</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72.5">
@@ -1733,31 +1743,29 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.5">
@@ -1765,29 +1773,29 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" s="11">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I12" s="9">
         <v>23</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="159.5">
@@ -1795,29 +1803,29 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="58">
@@ -1825,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1841,13 +1849,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I14" s="9">
         <v>43</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29">
@@ -1855,31 +1863,31 @@
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I15" s="9">
         <v>21</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="87">
@@ -1887,29 +1895,31 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E16" s="10">
         <v>15</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="9">
         <v>59</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="58">
@@ -1917,29 +1927,29 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I17" s="9">
         <v>44</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="58">
@@ -1947,29 +1957,29 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9">
         <v>39</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="43.5">
@@ -1977,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -1987,19 +1997,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9">
         <v>25</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2007,31 +2017,29 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9">
         <v>10</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="116">
@@ -2039,29 +2047,31 @@
         <v>17</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I21" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="87">
@@ -2069,29 +2079,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="29">
@@ -2099,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2109,19 +2119,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I23" s="9">
         <v>15</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="58">
@@ -2129,31 +2139,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9">
         <v>38</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2161,13 +2171,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -2181,37 +2191,37 @@
         <v>5</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="43.5">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2219,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2237,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="29">
@@ -2245,7 +2255,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2259,13 +2269,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I28" s="9">
         <v>11</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2273,7 +2283,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2287,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9">
         <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="72.5">
@@ -2301,29 +2311,29 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="29">
@@ -2331,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2341,19 +2351,19 @@
         <v>4</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G31" s="11">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I31" s="9">
         <v>12</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2361,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2375,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I32" s="9">
         <v>6</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2389,17 +2399,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -2409,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2417,19 +2427,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -2439,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2447,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2461,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9">
         <v>3</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2475,13 +2485,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -2495,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2503,19 +2513,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2525,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2533,7 +2543,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -2547,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9">
         <v>3</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2561,7 +2571,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -2575,13 +2585,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I39" s="9">
         <v>3</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2589,13 +2599,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6">
         <v>0</v>
@@ -2609,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2617,7 +2627,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2631,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9">
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2645,13 +2655,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E42" s="6">
         <v>0</v>
@@ -2665,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="72.5">
@@ -2673,13 +2683,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E43" s="6">
         <v>0</v>
@@ -2689,13 +2699,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9">
         <v>51</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="29">
@@ -2703,61 +2713,61 @@
         <v>40</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C44" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E44" s="10">
         <v>6</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G44" s="11">
         <v>1</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I44" s="9">
         <v>14</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="58">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="72.5">
       <c r="A45" s="6">
         <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7">
         <v>3</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="E45" s="10">
-        <v>3</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="29">
@@ -2765,29 +2775,27 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>121</v>
-      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="11">
         <v>1</v>
       </c>
       <c r="H46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="9">
         <v>19</v>
       </c>
-      <c r="I46" s="9">
-        <v>18</v>
-      </c>
       <c r="J46" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="409.5">
@@ -2795,29 +2803,29 @@
         <v>43</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="10">
-        <v>2</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="G47" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2835,22 +2843,22 @@
     <row r="49" spans="1:10">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C49" s="6">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6">
-        <v>1916</v>
+        <v>1969</v>
       </c>
       <c r="J49" s="6"/>
     </row>
@@ -2861,22 +2869,25 @@
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{CD55F97F-3252-42B9-B4CF-77DDF2924112}"/>
-    <hyperlink ref="D7" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01631-2024-1724.pdf" xr:uid="{1844A313-B6D4-4BEE-B198-370A4D987C4E}"/>
-    <hyperlink ref="D11" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01634-2024-721de.pdf" xr:uid="{93D20932-224C-4683-A74C-4E82B07BCC07}"/>
-    <hyperlink ref="D14" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{64DBF602-2614-4A20-BA53-44ED3F9687E5}"/>
-    <hyperlink ref="F15" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{0E21B9A9-26B2-48BA-B414-41B556ACABF9}"/>
-    <hyperlink ref="D20" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01615-2024-686ed.pdf" xr:uid="{9556D392-6C41-4D92-B3FE-8FA1545C4E60}"/>
-    <hyperlink ref="F20" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00906-2024-1156_202408061931.pdf" xr:uid="{7599F592-8B3D-48A0-978C-83302B7B3354}"/>
-    <hyperlink ref="F23" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01592-2024-1707.pdf" xr:uid="{2A0AF05C-C042-4F75-93A1-C4C6A7193894}"/>
-    <hyperlink ref="D25" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{C4641B1D-4256-416C-80EF-A83FED877DAB}"/>
-    <hyperlink ref="D34" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F8BC8167-4194-40CE-9B4E-DB58CD378D04}"/>
-    <hyperlink ref="F34" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{326BABBC-B049-42EE-A832-5D8E45916CB8}"/>
-    <hyperlink ref="D37" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{7D3C6B39-629E-4B77-A8A1-15F6131E38FD}"/>
-    <hyperlink ref="F37" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{67994F88-EF7C-40DB-94AC-CB093483A653}"/>
-    <hyperlink ref="D40" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{5D6A4DAF-8A4B-4FBE-AABD-DFCEB9FE32E1}"/>
-    <hyperlink ref="D43" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{1B72E34D-6F6C-4968-872B-5DE46C0A79E2}"/>
-    <hyperlink ref="F46" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01595-2024-1711.pdf" xr:uid="{B6C7BB60-80BB-4B3C-BA8D-4849D7EB7425}"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01548-2024-1702.pdf" xr:uid="{8EA6E8FE-9CD5-419F-B03B-0F10362BA600}"/>
+    <hyperlink ref="D6" r:id="rId2" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01652-2024-1741.pdf" xr:uid="{7FAD04A4-FB9A-4E05-87E9-DB5A1F3E56DA}"/>
+    <hyperlink ref="D8" r:id="rId3" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01662-2024-1750.pdf" xr:uid="{CC25AF29-D3F4-45C8-B1B0-9D1039A1A4F8}"/>
+    <hyperlink ref="D9" r:id="rId4" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01675-2024-4709cj.pdf" xr:uid="{53A7B91B-D092-4D99-A6C2-57D1224D8811}"/>
+    <hyperlink ref="F9" r:id="rId5" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01277-2024-1413.pdf" xr:uid="{70DEE114-BFC1-40BC-8DAB-B7925F74181D}"/>
+    <hyperlink ref="D14" r:id="rId6" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00984-2024-1246_202408221920.pdf" xr:uid="{A8EAB377-F8AC-49B8-91C6-E8B06A07ABEF}"/>
+    <hyperlink ref="F15" r:id="rId7" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01347-2024-1554.pdf" xr:uid="{C3BE83AA-3E05-41F7-ACD5-F9EF2EF78B06}"/>
+    <hyperlink ref="F22" r:id="rId8" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01293-2024-1502_202410091918.pdf" xr:uid="{58E12ABA-8178-450A-8F56-93B0ADBE9D6A}"/>
+    <hyperlink ref="F23" r:id="rId9" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01592-2024-1707.pdf" xr:uid="{7FEDBCC1-0BE2-4C8F-9322-88BD10E93483}"/>
+    <hyperlink ref="D25" r:id="rId10" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{B1F0A7EA-76E2-4DC2-A38E-12FC89D5CDC1}"/>
+    <hyperlink ref="F30" r:id="rId11" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01226-2024-1448_202409271910.pdf" xr:uid="{E094D005-68C4-4369-91E9-D8671471D217}"/>
+    <hyperlink ref="D34" r:id="rId12" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{3E68E3BF-84DD-41DA-8A9A-5BA4DC18D876}"/>
+    <hyperlink ref="F34" r:id="rId13" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{6783C42A-33B3-44E9-8C22-5B3F7A034866}"/>
+    <hyperlink ref="D37" r:id="rId14" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{1065040B-22E8-4F2B-90C5-0FF195C9C8F7}"/>
+    <hyperlink ref="F37" r:id="rId15" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01068-2024-1341_202409051920.pdf" xr:uid="{4A0D46AC-556C-4519-91EE-072B609832AA}"/>
+    <hyperlink ref="D40" r:id="rId16" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{BF51DF57-9FA5-442E-ADF3-C68DAC71620D}"/>
+    <hyperlink ref="D43" r:id="rId17" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-00699-2024-metr15_202406191254.pdf" xr:uid="{8DDD1E4A-BF67-44C8-967A-153C980F85DB}"/>
+    <hyperlink ref="F45" r:id="rId18" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-002-2024-CIRCULAR-OP-SP-02.pdf" xr:uid="{F9376469-6479-4B16-9096-25922168C7EB}"/>
+    <hyperlink ref="F47" r:id="rId19" display="http://sistemas.metepec.gob.mx/correspondencia/archivos/OdP-01656-2024-1748.pdf" xr:uid="{575DCAF1-1ECB-42CA-B497-D9907781E48C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
